--- a/publipostage2/002cp4060/liste_essais_cliniques_identifies_002cp4060.xlsx
+++ b/publipostage2/002cp4060/liste_essais_cliniques_identifies_002cp4060.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/002cp4060/liste_essais_cliniques_identifies_002cp4060.xlsx
+++ b/publipostage2/002cp4060/liste_essais_cliniques_identifies_002cp4060.xlsx
@@ -55,22 +55,22 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
   </si>
   <si>
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>orange</t>

--- a/publipostage2/002cp4060/liste_essais_cliniques_identifies_002cp4060.xlsx
+++ b/publipostage2/002cp4060/liste_essais_cliniques_identifies_002cp4060.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/002cp4060/liste_essais_cliniques_identifies_002cp4060.xlsx
+++ b/publipostage2/002cp4060/liste_essais_cliniques_identifies_002cp4060.xlsx
@@ -70,7 +70,7 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>orange</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00299650</t>

--- a/publipostage2/002cp4060/liste_essais_cliniques_identifies_002cp4060.xlsx
+++ b/publipostage2/002cp4060/liste_essais_cliniques_identifies_002cp4060.xlsx
@@ -73,601 +73,604 @@
     <t>NCT00769912</t>
   </si>
   <si>
+    <t>NCT00947817</t>
+  </si>
+  <si>
+    <t>NCT00947778</t>
+  </si>
+  <si>
+    <t>NCT00726206</t>
+  </si>
+  <si>
+    <t>NCT00769236</t>
+  </si>
+  <si>
+    <t>NCT00725868</t>
+  </si>
+  <si>
     <t>NCT04755023</t>
   </si>
   <si>
+    <t>NCT00683566</t>
+  </si>
+  <si>
+    <t>NCT00623272</t>
+  </si>
+  <si>
+    <t>NCT03405948</t>
+  </si>
+  <si>
     <t>NCT00702429</t>
   </si>
   <si>
-    <t>NCT03405948</t>
-  </si>
-  <si>
-    <t>NCT00683566</t>
-  </si>
-  <si>
-    <t>NCT00725868</t>
-  </si>
-  <si>
-    <t>NCT00623272</t>
-  </si>
-  <si>
-    <t>NCT00726206</t>
-  </si>
-  <si>
-    <t>NCT00947817</t>
-  </si>
-  <si>
-    <t>NCT00769236</t>
-  </si>
-  <si>
-    <t>NCT00947778</t>
+    <t>NCT01118364</t>
   </si>
   <si>
     <t>NCT00697398</t>
   </si>
   <si>
+    <t>NCT00682903</t>
+  </si>
+  <si>
+    <t>NCT00950209</t>
+  </si>
+  <si>
+    <t>NCT00699868</t>
+  </si>
+  <si>
+    <t>NCT00684281</t>
+  </si>
+  <si>
+    <t>NCT00682409</t>
+  </si>
+  <si>
     <t>NCT01177436</t>
   </si>
   <si>
-    <t>NCT00950209</t>
-  </si>
-  <si>
-    <t>NCT00699868</t>
-  </si>
-  <si>
-    <t>NCT00684281</t>
-  </si>
-  <si>
     <t>NCT00824889</t>
   </si>
   <si>
+    <t>NCT00842166</t>
+  </si>
+  <si>
     <t>NCT00769574</t>
   </si>
   <si>
-    <t>NCT01118364</t>
-  </si>
-  <si>
-    <t>NCT00682903</t>
-  </si>
-  <si>
-    <t>NCT00842166</t>
-  </si>
-  <si>
-    <t>NCT00682409</t>
+    <t>NCT00920673</t>
+  </si>
+  <si>
+    <t>NCT01090232</t>
   </si>
   <si>
     <t>NCT00920114</t>
   </si>
   <si>
+    <t>NCT00684034</t>
+  </si>
+  <si>
+    <t>NCT00823589</t>
+  </si>
+  <si>
+    <t>NCT01687452</t>
+  </si>
+  <si>
+    <t>NCT00875407</t>
+  </si>
+  <si>
+    <t>NCT01177475</t>
+  </si>
+  <si>
     <t>NCT01505790</t>
   </si>
   <si>
-    <t>NCT00684034</t>
-  </si>
-  <si>
-    <t>NCT01177475</t>
-  </si>
-  <si>
-    <t>NCT00823589</t>
-  </si>
-  <si>
-    <t>NCT01687452</t>
-  </si>
-  <si>
-    <t>NCT00920673</t>
-  </si>
-  <si>
-    <t>NCT01090232</t>
-  </si>
-  <si>
-    <t>NCT00875407</t>
+    <t>NCT00920335</t>
+  </si>
+  <si>
+    <t>NCT00731016</t>
+  </si>
+  <si>
+    <t>NCT01900457</t>
+  </si>
+  <si>
+    <t>NCT01058161</t>
   </si>
   <si>
     <t>NCT01177423</t>
   </si>
   <si>
-    <t>NCT00920335</t>
+    <t>NCT01286714</t>
+  </si>
+  <si>
+    <t>NCT01626612</t>
+  </si>
+  <si>
+    <t>NCT00484653</t>
   </si>
   <si>
     <t>NCT01032564</t>
   </si>
   <si>
-    <t>NCT01626612</t>
-  </si>
-  <si>
-    <t>NCT01900457</t>
-  </si>
-  <si>
-    <t>NCT01058161</t>
-  </si>
-  <si>
-    <t>NCT01286714</t>
-  </si>
-  <si>
-    <t>NCT00484653</t>
-  </si>
-  <si>
-    <t>NCT00731016</t>
+    <t>NCT01813279</t>
+  </si>
+  <si>
+    <t>NCT01626534</t>
+  </si>
+  <si>
+    <t>NCT01284803</t>
+  </si>
+  <si>
+    <t>NCT01901003</t>
+  </si>
+  <si>
+    <t>NCT00767962</t>
+  </si>
+  <si>
+    <t>NCT01865422</t>
+  </si>
+  <si>
+    <t>NCT01946334</t>
+  </si>
+  <si>
+    <t>NCT01125319</t>
   </si>
   <si>
     <t>NCT01172015</t>
   </si>
   <si>
-    <t>NCT01125319</t>
-  </si>
-  <si>
-    <t>NCT01865422</t>
-  </si>
-  <si>
-    <t>NCT01946334</t>
-  </si>
-  <si>
-    <t>NCT01813279</t>
-  </si>
-  <si>
     <t>NCT01687361</t>
   </si>
   <si>
     <t>NCT01295333</t>
   </si>
   <si>
-    <t>NCT01901003</t>
-  </si>
-  <si>
-    <t>NCT01626534</t>
-  </si>
-  <si>
-    <t>NCT00767962</t>
-  </si>
-  <si>
-    <t>NCT01284803</t>
+    <t>NCT01284686</t>
+  </si>
+  <si>
+    <t>NCT02164214</t>
   </si>
   <si>
     <t>NCT02042664</t>
   </si>
   <si>
+    <t>NCT01964742</t>
+  </si>
+  <si>
+    <t>NCT01693796</t>
+  </si>
+  <si>
+    <t>NCT01865435</t>
+  </si>
+  <si>
+    <t>NCT01613365</t>
+  </si>
+  <si>
     <t>NCT01687348</t>
   </si>
   <si>
     <t>NCT02585739</t>
   </si>
   <si>
-    <t>NCT01964742</t>
-  </si>
-  <si>
     <t>NCT01954381</t>
   </si>
   <si>
-    <t>NCT01865435</t>
-  </si>
-  <si>
-    <t>NCT01693796</t>
-  </si>
-  <si>
-    <t>NCT01613365</t>
-  </si>
-  <si>
     <t>NCT02038426</t>
   </si>
   <si>
-    <t>NCT01284686</t>
-  </si>
-  <si>
-    <t>NCT02164214</t>
+    <t>NCT01287728</t>
+  </si>
+  <si>
+    <t>NCT01284673</t>
   </si>
   <si>
     <t>NCT01999829</t>
   </si>
   <si>
-    <t>NCT01287728</t>
+    <t>NCT02899039</t>
   </si>
   <si>
     <t>NCT02885883</t>
   </si>
   <si>
-    <t>NCT02899039</t>
-  </si>
-  <si>
-    <t>NCT01284673</t>
+    <t>NCT02879344</t>
+  </si>
+  <si>
+    <t>NCT02352129</t>
+  </si>
+  <si>
+    <t>NCT00990691</t>
+  </si>
+  <si>
+    <t>NCT01675726</t>
+  </si>
+  <si>
+    <t>NCT01697423</t>
+  </si>
+  <si>
+    <t>NCT02471924</t>
   </si>
   <si>
     <t>NCT02727868</t>
   </si>
   <si>
-    <t>NCT02471924</t>
-  </si>
-  <si>
-    <t>NCT01675726</t>
-  </si>
-  <si>
-    <t>NCT02352129</t>
-  </si>
-  <si>
-    <t>NCT02879344</t>
-  </si>
-  <si>
     <t>NCT02608255</t>
   </si>
   <si>
-    <t>NCT01697423</t>
-  </si>
-  <si>
     <t>NCT02866513</t>
   </si>
   <si>
-    <t>NCT00990691</t>
+    <t>NCT02117037</t>
+  </si>
+  <si>
+    <t>NCT02750579</t>
+  </si>
+  <si>
+    <t>NCT02520843</t>
   </si>
   <si>
     <t>NCT02866578</t>
   </si>
   <si>
+    <t>NCT01599533</t>
+  </si>
+  <si>
+    <t>NCT02622464</t>
+  </si>
+  <si>
     <t>NCT03164122</t>
   </si>
   <si>
-    <t>NCT02117037</t>
-  </si>
-  <si>
-    <t>NCT02622464</t>
-  </si>
-  <si>
-    <t>NCT01599533</t>
+    <t>NCT02303925</t>
+  </si>
+  <si>
+    <t>NCT02428725</t>
+  </si>
+  <si>
+    <t>NCT02732769</t>
   </si>
   <si>
     <t>NCT02636127</t>
   </si>
   <si>
-    <t>NCT02750579</t>
-  </si>
-  <si>
-    <t>NCT02732769</t>
-  </si>
-  <si>
-    <t>NCT02428725</t>
-  </si>
-  <si>
-    <t>NCT02303925</t>
-  </si>
-  <si>
-    <t>NCT02520843</t>
+    <t>NCT03588468</t>
+  </si>
+  <si>
+    <t>NCT02861768</t>
+  </si>
+  <si>
+    <t>NCT03592589</t>
   </si>
   <si>
     <t>NCT02875964</t>
   </si>
   <si>
+    <t>NCT02892890</t>
+  </si>
+  <si>
+    <t>NCT03292120</t>
+  </si>
+  <si>
+    <t>NCT02757794</t>
+  </si>
+  <si>
+    <t>NCT02304029</t>
+  </si>
+  <si>
     <t>NCT03322618</t>
   </si>
   <si>
-    <t>NCT03588468</t>
-  </si>
-  <si>
-    <t>NCT02757794</t>
-  </si>
-  <si>
-    <t>NCT03592589</t>
-  </si>
-  <si>
-    <t>NCT03292120</t>
-  </si>
-  <si>
-    <t>NCT02861768</t>
-  </si>
-  <si>
-    <t>NCT02892890</t>
-  </si>
-  <si>
-    <t>NCT02304029</t>
-  </si>
-  <si>
     <t>NCT03218007</t>
   </si>
   <si>
+    <t>NCT02586870</t>
+  </si>
+  <si>
     <t>NCT03640806</t>
   </si>
   <si>
+    <t>NCT01987024</t>
+  </si>
+  <si>
+    <t>NCT03979586</t>
+  </si>
+  <si>
+    <t>NCT04632602</t>
+  </si>
+  <si>
+    <t>NCT03118336</t>
+  </si>
+  <si>
+    <t>NCT03245983</t>
+  </si>
+  <si>
+    <t>NCT03418402</t>
+  </si>
+  <si>
     <t>NCT02608203</t>
   </si>
   <si>
-    <t>NCT03418402</t>
-  </si>
-  <si>
-    <t>NCT03979586</t>
-  </si>
-  <si>
-    <t>NCT03118336</t>
-  </si>
-  <si>
-    <t>NCT03245983</t>
-  </si>
-  <si>
-    <t>NCT01987024</t>
-  </si>
-  <si>
-    <t>NCT02586870</t>
-  </si>
-  <si>
     <t>NCT03765853</t>
   </si>
   <si>
-    <t>NCT04632602</t>
+    <t>NCT02872441</t>
+  </si>
+  <si>
+    <t>NCT02761304</t>
+  </si>
+  <si>
+    <t>NCT03582852</t>
+  </si>
+  <si>
+    <t>NCT03961581</t>
   </si>
   <si>
     <t>NCT04579276</t>
   </si>
   <si>
-    <t>NCT02761304</t>
-  </si>
-  <si>
     <t>NCT03659266</t>
   </si>
   <si>
     <t>NCT04371367</t>
   </si>
   <si>
-    <t>NCT02872441</t>
-  </si>
-  <si>
-    <t>NCT03582852</t>
-  </si>
-  <si>
-    <t>NCT03961581</t>
+    <t>NCT02858609</t>
+  </si>
+  <si>
+    <t>NCT02816307</t>
+  </si>
+  <si>
+    <t>NCT02473315</t>
+  </si>
+  <si>
+    <t>NCT02288832</t>
+  </si>
+  <si>
+    <t>NCT02209142</t>
+  </si>
+  <si>
+    <t>NCT02834104</t>
+  </si>
+  <si>
+    <t>NCT02868450</t>
+  </si>
+  <si>
+    <t>NCT03043014</t>
+  </si>
+  <si>
+    <t>NCT03660215</t>
+  </si>
+  <si>
+    <t>NCT02822807</t>
+  </si>
+  <si>
+    <t>NCT02000011</t>
+  </si>
+  <si>
+    <t>NCT02859779</t>
+  </si>
+  <si>
+    <t>NCT04694313</t>
+  </si>
+  <si>
+    <t>NCT02827175</t>
+  </si>
+  <si>
+    <t>NCT02819232</t>
+  </si>
+  <si>
+    <t>NCT02819206</t>
+  </si>
+  <si>
+    <t>NCT02828085</t>
+  </si>
+  <si>
+    <t>NCT02839642</t>
+  </si>
+  <si>
+    <t>NCT02555007</t>
   </si>
   <si>
     <t>NCT02858687</t>
   </si>
   <si>
+    <t>NCT02848703</t>
+  </si>
+  <si>
+    <t>NCT02858661</t>
+  </si>
+  <si>
+    <t>NCT02851771</t>
+  </si>
+  <si>
+    <t>NCT02819128</t>
+  </si>
+  <si>
+    <t>NCT01957228</t>
+  </si>
+  <si>
+    <t>NCT02868411</t>
+  </si>
+  <si>
+    <t>NCT03628261</t>
+  </si>
+  <si>
+    <t>NCT02866201</t>
+  </si>
+  <si>
     <t>NCT02868346</t>
   </si>
   <si>
+    <t>NCT02038348</t>
+  </si>
+  <si>
+    <t>NCT03974958</t>
+  </si>
+  <si>
     <t>NCT03179644</t>
   </si>
   <si>
-    <t>NCT02839642</t>
-  </si>
-  <si>
-    <t>NCT02848703</t>
-  </si>
-  <si>
-    <t>NCT02859779</t>
-  </si>
-  <si>
-    <t>NCT03628261</t>
-  </si>
-  <si>
-    <t>NCT02822807</t>
-  </si>
-  <si>
-    <t>NCT02827175</t>
-  </si>
-  <si>
-    <t>NCT02858609</t>
-  </si>
-  <si>
-    <t>NCT02288832</t>
-  </si>
-  <si>
-    <t>NCT03660215</t>
+    <t>NCT01678469</t>
+  </si>
+  <si>
+    <t>NCT02018835</t>
   </si>
   <si>
     <t>NCT03630822</t>
   </si>
   <si>
-    <t>NCT02851771</t>
-  </si>
-  <si>
-    <t>NCT02555007</t>
-  </si>
-  <si>
-    <t>NCT02816307</t>
-  </si>
-  <si>
-    <t>NCT02038348</t>
-  </si>
-  <si>
-    <t>NCT02868450</t>
-  </si>
-  <si>
-    <t>NCT02018835</t>
-  </si>
-  <si>
-    <t>NCT03043014</t>
-  </si>
-  <si>
-    <t>NCT02866201</t>
-  </si>
-  <si>
-    <t>NCT03974958</t>
-  </si>
-  <si>
-    <t>NCT02000011</t>
-  </si>
-  <si>
-    <t>NCT01678469</t>
-  </si>
-  <si>
-    <t>NCT02209142</t>
-  </si>
-  <si>
-    <t>NCT02819232</t>
-  </si>
-  <si>
-    <t>NCT02819206</t>
-  </si>
-  <si>
-    <t>NCT02828085</t>
-  </si>
-  <si>
-    <t>NCT02819128</t>
-  </si>
-  <si>
-    <t>NCT02473315</t>
-  </si>
-  <si>
-    <t>NCT02858661</t>
-  </si>
-  <si>
-    <t>NCT01957228</t>
-  </si>
-  <si>
-    <t>NCT02868411</t>
-  </si>
-  <si>
     <t>NCT02422043</t>
   </si>
   <si>
-    <t>NCT02834104</t>
-  </si>
-  <si>
-    <t>NCT04694313</t>
+    <t>NCT02038361</t>
+  </si>
+  <si>
+    <t>NCT02186678</t>
+  </si>
+  <si>
+    <t>NCT02307747</t>
+  </si>
+  <si>
+    <t>NCT05325047</t>
+  </si>
+  <si>
+    <t>NCT03341949</t>
+  </si>
+  <si>
+    <t>NCT03297203</t>
+  </si>
+  <si>
+    <t>NCT02484677</t>
+  </si>
+  <si>
+    <t>NCT02872415</t>
+  </si>
+  <si>
+    <t>NCT03659045</t>
+  </si>
+  <si>
+    <t>NCT02562157</t>
+  </si>
+  <si>
+    <t>NCT02603640</t>
+  </si>
+  <si>
+    <t>NCT01947218</t>
+  </si>
+  <si>
+    <t>NCT02874118</t>
+  </si>
+  <si>
+    <t>NCT03406741</t>
+  </si>
+  <si>
+    <t>NCT03977532</t>
+  </si>
+  <si>
+    <t>NCT03636932</t>
+  </si>
+  <si>
+    <t>NCT02904967</t>
+  </si>
+  <si>
+    <t>NCT04369820</t>
+  </si>
+  <si>
+    <t>NCT02904863</t>
+  </si>
+  <si>
+    <t>NCT02900014</t>
+  </si>
+  <si>
+    <t>NCT02827955</t>
+  </si>
+  <si>
+    <t>NCT02150408</t>
+  </si>
+  <si>
+    <t>NCT03852108</t>
+  </si>
+  <si>
+    <t>NCT01991249</t>
+  </si>
+  <si>
+    <t>NCT05250713</t>
+  </si>
+  <si>
+    <t>NCT01284699</t>
+  </si>
+  <si>
+    <t>NCT03339908</t>
+  </si>
+  <si>
+    <t>NCT02480699</t>
+  </si>
+  <si>
+    <t>NCT02571790</t>
+  </si>
+  <si>
+    <t>NCT01916005</t>
+  </si>
+  <si>
+    <t>NCT02669056</t>
+  </si>
+  <si>
+    <t>NCT02296216</t>
+  </si>
+  <si>
+    <t>NCT02152358</t>
+  </si>
+  <si>
+    <t>NCT02333565</t>
+  </si>
+  <si>
+    <t>NCT02559466</t>
+  </si>
+  <si>
+    <t>NCT01116765</t>
+  </si>
+  <si>
+    <t>NCT02885363</t>
+  </si>
+  <si>
+    <t>NCT00682812</t>
+  </si>
+  <si>
+    <t>NCT02120040</t>
+  </si>
+  <si>
+    <t>NCT01285817</t>
+  </si>
+  <si>
+    <t>NCT02335996</t>
+  </si>
+  <si>
+    <t>NCT03581331</t>
+  </si>
+  <si>
+    <t>NCT01613625</t>
+  </si>
+  <si>
+    <t>NCT02732392</t>
+  </si>
+  <si>
+    <t>NCT01284829</t>
+  </si>
+  <si>
+    <t>NCT02186691</t>
+  </si>
+  <si>
+    <t>NCT02205060</t>
   </si>
   <si>
     <t>NCT01693965</t>
   </si>
   <si>
-    <t>NCT01916005</t>
-  </si>
-  <si>
-    <t>NCT01613625</t>
-  </si>
-  <si>
-    <t>NCT03339908</t>
-  </si>
-  <si>
-    <t>NCT02038361</t>
-  </si>
-  <si>
-    <t>NCT02571790</t>
-  </si>
-  <si>
-    <t>NCT02186691</t>
-  </si>
-  <si>
-    <t>NCT03297203</t>
-  </si>
-  <si>
-    <t>NCT02885363</t>
-  </si>
-  <si>
-    <t>NCT02480699</t>
-  </si>
-  <si>
-    <t>NCT01284699</t>
-  </si>
-  <si>
-    <t>NCT01116765</t>
-  </si>
-  <si>
-    <t>NCT01947218</t>
-  </si>
-  <si>
-    <t>NCT02732392</t>
-  </si>
-  <si>
-    <t>NCT05325047</t>
-  </si>
-  <si>
-    <t>NCT02484677</t>
-  </si>
-  <si>
-    <t>NCT02559466</t>
-  </si>
-  <si>
-    <t>NCT03406741</t>
-  </si>
-  <si>
-    <t>NCT02562157</t>
-  </si>
-  <si>
-    <t>NCT02904967</t>
-  </si>
-  <si>
-    <t>NCT02186678</t>
-  </si>
-  <si>
-    <t>NCT01991249</t>
-  </si>
-  <si>
-    <t>NCT03636932</t>
-  </si>
-  <si>
-    <t>NCT02874118</t>
-  </si>
-  <si>
-    <t>NCT03977532</t>
-  </si>
-  <si>
-    <t>NCT02603640</t>
-  </si>
-  <si>
-    <t>NCT02669056</t>
-  </si>
-  <si>
-    <t>NCT03659045</t>
-  </si>
-  <si>
-    <t>NCT02900014</t>
-  </si>
-  <si>
-    <t>NCT02904863</t>
-  </si>
-  <si>
-    <t>NCT04369820</t>
-  </si>
-  <si>
-    <t>NCT05250713</t>
-  </si>
-  <si>
-    <t>NCT02827955</t>
-  </si>
-  <si>
-    <t>NCT02120040</t>
-  </si>
-  <si>
-    <t>NCT01285817</t>
-  </si>
-  <si>
-    <t>NCT02335996</t>
-  </si>
-  <si>
-    <t>NCT02307747</t>
-  </si>
-  <si>
-    <t>NCT00682812</t>
-  </si>
-  <si>
-    <t>NCT02152358</t>
-  </si>
-  <si>
-    <t>NCT01284829</t>
-  </si>
-  <si>
-    <t>NCT02333565</t>
-  </si>
-  <si>
-    <t>NCT02205060</t>
-  </si>
-  <si>
-    <t>NCT03341949</t>
-  </si>
-  <si>
-    <t>NCT02150408</t>
-  </si>
-  <si>
-    <t>NCT03852108</t>
-  </si>
-  <si>
-    <t>NCT03581331</t>
-  </si>
-  <si>
-    <t>NCT02296216</t>
-  </si>
-  <si>
-    <t>NCT02872415</t>
+    <t>NCT05407337</t>
   </si>
   <si>
     <t>NCT04782869</t>
   </si>
   <si>
-    <t>NCT05407337</t>
+    <t>NCT00922909</t>
   </si>
   <si>
     <t>NCT00420693</t>
@@ -676,21 +679,18 @@
     <t>NCT00485784</t>
   </si>
   <si>
+    <t>NCT00484523</t>
+  </si>
+  <si>
+    <t>NCT00919685</t>
+  </si>
+  <si>
+    <t>NCT01284738</t>
+  </si>
+  <si>
     <t>NCT00998231</t>
   </si>
   <si>
-    <t>NCT00484523</t>
-  </si>
-  <si>
-    <t>NCT00919685</t>
-  </si>
-  <si>
-    <t>NCT00922909</t>
-  </si>
-  <si>
-    <t>NCT01284738</t>
-  </si>
-  <si>
     <t>NCT01277068</t>
   </si>
   <si>
@@ -700,12 +700,12 @@
     <t>NCT01284816</t>
   </si>
   <si>
+    <t>NCT00949520</t>
+  </si>
+  <si>
     <t>NCT02834130</t>
   </si>
   <si>
-    <t>NCT00949520</t>
-  </si>
-  <si>
     <t>2007-006739-30</t>
   </si>
   <si>
@@ -766,541 +766,544 @@
     <t>Evaluation of of a Prefixed 50% N2O- 50%O2 Mixture in Legal Abortion Under Local Analgesia</t>
   </si>
   <si>
+    <t>Impact of Endothelial Cell Activation and Modifications of Haemostasis Induced by Infective Endocarditis on the Risk of Embolism.</t>
+  </si>
+  <si>
+    <t>Analysis of Language and Auditory Abilities in Cochlear Implanted Children: Assessment by an Auditory Learning Programmed Method</t>
+  </si>
+  <si>
+    <t>Correlation Between the Analysis of the Rapid Cortical Oscillations, the General Movements of the Preterm's and the Cerebral Palsy</t>
+  </si>
+  <si>
+    <t>Evaluation of Intestinal Secretion of Antibodies and Auto-antibodies Associated With Crohn's Disease</t>
+  </si>
+  <si>
+    <t>Blood Endothelium Biomarkers to Predict Major Adverse Cardiovascular Events After Percutaneous Coronary Intervention.</t>
+  </si>
+  <si>
     <t>Primary Chemotherapy by BCNU-TMZ Combination in Newly Diagnosed Anaplastic Oligodendrocytic Tumors: Phase II Trial With Translational Molecular Analysis</t>
   </si>
   <si>
+    <t>State Dependent Resonance in the BG-cortical Loops</t>
+  </si>
+  <si>
+    <t>Left Ventricular Function Assessment After Acute Myocardial Infarction: Comparison Between bi-, Three-dimensional and Cardiac Magnetic Resonance</t>
+  </si>
+  <si>
+    <t>Efficiency of Botulinum Toxin Injection for Spastic Equinovarus Foot in Post Stroke Hemiparetic Patients Randomized Controlled Trial Versus Placebo</t>
+  </si>
+  <si>
     <t>Immunoregulation of Periodontal Disease</t>
   </si>
   <si>
-    <t>Efficiency of Botulinum Toxin Injection for Spastic Equinovarus Foot in Post Stroke Hemiparetic Patients Randomized Controlled Trial Versus Placebo</t>
-  </si>
-  <si>
-    <t>State Dependent Resonance in the BG-cortical Loops</t>
-  </si>
-  <si>
-    <t>Blood Endothelium Biomarkers to Predict Major Adverse Cardiovascular Events After Percutaneous Coronary Intervention.</t>
-  </si>
-  <si>
-    <t>Left Ventricular Function Assessment After Acute Myocardial Infarction: Comparison Between bi-, Three-dimensional and Cardiac Magnetic Resonance</t>
-  </si>
-  <si>
-    <t>Correlation Between the Analysis of the Rapid Cortical Oscillations, the General Movements of the Preterm's and the Cerebral Palsy</t>
-  </si>
-  <si>
-    <t>Impact of Endothelial Cell Activation and Modifications of Haemostasis Induced by Infective Endocarditis on the Risk of Embolism.</t>
-  </si>
-  <si>
-    <t>Evaluation of Intestinal Secretion of Antibodies and Auto-antibodies Associated With Crohn's Disease</t>
-  </si>
-  <si>
-    <t>Analysis of Language and Auditory Abilities in Cochlear Implanted Children: Assessment by an Auditory Learning Programmed Method</t>
+    <t>Effect of Cannabis on Simulated and Actual Driving in Healthy Subjects</t>
   </si>
   <si>
     <t>Repetitive Trans-cranial Magnetic Stimulation of the Motor Cortex in Fibromyalgia: A Prospective Randomized Blinded Placebo-controlled Study Evaluating the Clinical Efficiency and the Metabolic Correlate in 18FDG-PET</t>
   </si>
   <si>
+    <t>Use of a Bearable Continuous Interstitial Glucose Monitoring Device (GuardianR) During Teaching Sessions to Functional Insulin Therapy Concept in Patients Suffering From Type 1 Diabetes: Evaluation at 6 and 12 Months</t>
+  </si>
+  <si>
+    <t>Acute Effect of Intensive Insulin Infusion on Intestinal Triglyceride-rich-lipoprotein-apoB48 Metabolism in Type 2 Diabetic Patients</t>
+  </si>
+  <si>
+    <t>Cellular Immunity, Cytomegalovirus Infection and Septic Shock in ICU Patients</t>
+  </si>
+  <si>
+    <t>Early Diagnosis of Alzheimer's Disease: Clinical, Neuropsychological and Neuroimaging Follow-up of a Cohort of Patients With an Isolated Memory Impairment</t>
+  </si>
+  <si>
     <t>PCA-3 Gene Project</t>
   </si>
   <si>
-    <t>Acute Effect of Intensive Insulin Infusion on Intestinal Triglyceride-rich-lipoprotein-apoB48 Metabolism in Type 2 Diabetic Patients</t>
-  </si>
-  <si>
-    <t>Cellular Immunity, Cytomegalovirus Infection and Septic Shock in ICU Patients</t>
-  </si>
-  <si>
-    <t>Early Diagnosis of Alzheimer's Disease: Clinical, Neuropsychological and Neuroimaging Follow-up of a Cohort of Patients With an Isolated Memory Impairment</t>
-  </si>
-  <si>
     <t>Exploratory Study of Natural Killer Cells in Human Skin</t>
   </si>
   <si>
     <t>Assessment of New Biomarkers in the Management and Triage of Patients With Chest Pain and Suspicion of Non ST Elevation Acute Coronary Syndrome.</t>
   </si>
   <si>
-    <t>Effect of Cannabis on Simulated and Actual Driving in Healthy Subjects</t>
-  </si>
-  <si>
-    <t>Use of a Bearable Continuous Interstitial Glucose Monitoring Device (GuardianR) During Teaching Sessions to Functional Insulin Therapy Concept in Patients Suffering From Type 1 Diabetes: Evaluation at 6 and 12 Months</t>
+    <t>Age Influence on the Modifications of the Oral, Pharyngeal and Laryngeal Axis Alignment in Children Induced by Head Extension: an MRI Study</t>
+  </si>
+  <si>
+    <t>Host Responses in Kidney-transplant Recipients With Chronic Hepatitis E Virus Infection</t>
+  </si>
+  <si>
+    <t>Redox State in the Course of Chronic Renal Insufficiency and Hemodialysis: Implications in Morbimortality</t>
+  </si>
+  <si>
+    <t>Immune Status of Elderly Population Admitted in an Acute Geriatric Unit</t>
+  </si>
+  <si>
+    <t>Microparticles, Vector of Genetic Information During HIV Infection ?</t>
+  </si>
+  <si>
+    <t>Effect of Intake in Bioactive Molecules From Natural or Pasteurised Milk on Gut Maturation in Very Premature Newborns</t>
   </si>
   <si>
     <t>Impact of Clopidogrel Dose Adjustment According to Platelet Reactivity Monitoring in Patients With High on Treatment Platelet Reactivity Undergoing Percutaneous Coronary Intervention</t>
   </si>
   <si>
-    <t>Redox State in the Course of Chronic Renal Insufficiency and Hemodialysis: Implications in Morbimortality</t>
-  </si>
-  <si>
-    <t>Effect of Intake in Bioactive Molecules From Natural or Pasteurised Milk on Gut Maturation in Very Premature Newborns</t>
-  </si>
-  <si>
-    <t>Immune Status of Elderly Population Admitted in an Acute Geriatric Unit</t>
-  </si>
-  <si>
-    <t>Microparticles, Vector of Genetic Information During HIV Infection ?</t>
-  </si>
-  <si>
-    <t>Age Influence on the Modifications of the Oral, Pharyngeal and Laryngeal Axis Alignment in Children Induced by Head Extension: an MRI Study</t>
-  </si>
-  <si>
-    <t>Host Responses in Kidney-transplant Recipients With Chronic Hepatitis E Virus Infection</t>
+    <t>Adult Intracranial Ependydomas : Prognostic and Diagnostic Factors Assessment and Molecular Characterization</t>
+  </si>
+  <si>
+    <t>Treatment of the Hutchinson-Gilford Progeria Syndrome With a Combination of Pravastatin and Zoledronic Acid</t>
+  </si>
+  <si>
+    <t>Vestibular and Multisensory Influence on Bodily and Spatial Representations. Behavioral and Electrophysiological Investigations in Vestibular-defective Patients and Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>High-Field MRI Characterization of Wrist and Hand Cartilage Abnormalities in Inflammatory and Chronic Rheumatisms</t>
   </si>
   <si>
     <t>Efficiency Evaluation of Intradiploic Intra-osseus Anesthesia Versus Inferior Alveolar Nerve Block</t>
   </si>
   <si>
-    <t>Adult Intracranial Ependydomas : Prognostic and Diagnostic Factors Assessment and Molecular Characterization</t>
+    <t>Assessment of Fistula Closure by OTSC Clip After Bariatric Surgery</t>
   </si>
   <si>
     <t>De-escalation of Empirical Antimicrobial Therapy Study in Severe Sepsis: A Randomized Clinical Trial (DEA Study)</t>
   </si>
   <si>
-    <t>Vestibular and Multisensory Influence on Bodily and Spatial Representations. Behavioral and Electrophysiological Investigations in Vestibular-defective Patients and Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>High-Field MRI Characterization of Wrist and Hand Cartilage Abnormalities in Inflammatory and Chronic Rheumatisms</t>
-  </si>
-  <si>
-    <t>Assessment of Fistula Closure by OTSC Clip After Bariatric Surgery</t>
-  </si>
-  <si>
     <t>Identification and Impact of Vaginal Flora Anomalies Among Pregnant Woman</t>
   </si>
   <si>
-    <t>Treatment of the Hutchinson-Gilford Progeria Syndrome With a Combination of Pravastatin and Zoledronic Acid</t>
+    <t>Assessment of the Subcutaneous Reinjection of Human Autologous Adipose-derived Stromal Vascular Fraction (Celution® System) in the Hands of Patients Suffering From Systemic Sclerosis</t>
+  </si>
+  <si>
+    <t>Evaluation of Ticagrelor Anti Platelet and Pleiotropic Effects in Patients Undergoing Percutaneous Coronary Intervention for an Acute Coronary Syndrome.</t>
+  </si>
+  <si>
+    <t>Feasibility and Acceptability of an Educational Intervention to Improve the Management of Depression in Primary Care</t>
+  </si>
+  <si>
+    <t>SEDATIVE PREMEDICATION: EFFICACY ON PATIENT EXPERIENCE</t>
+  </si>
+  <si>
+    <t>A Prospective Randomised Study of Efficacy, Safety and Costs of Talc Pleurodesis Under Medical Thoracoscopy and Pleurodesis Under Video-assisted Thoracoscopy Surgery for Recurrent Primary Spontaneous Pneumothorax</t>
+  </si>
+  <si>
+    <t>French Linguistic and Metric Validations of Parent-proxy QOL Chronic Cough Specific Questionnaire (PC-QOL)</t>
+  </si>
+  <si>
+    <t>Does Body Position Influence Pressure Recording by High-resolution Manometry ?</t>
+  </si>
+  <si>
+    <t>Secondary Adult's Hemophagocytic Lymphohistiocytosis and Innate Immunity</t>
   </si>
   <si>
     <t>NK-ITP STUDY : NATURAL KILLER CELLS IN IMMUNOLOGIC THROMBOCYTOPENIC PURPURA OF ADULTS.</t>
   </si>
   <si>
-    <t>Secondary Adult's Hemophagocytic Lymphohistiocytosis and Innate Immunity</t>
-  </si>
-  <si>
-    <t>French Linguistic and Metric Validations of Parent-proxy QOL Chronic Cough Specific Questionnaire (PC-QOL)</t>
-  </si>
-  <si>
-    <t>Does Body Position Influence Pressure Recording by High-resolution Manometry ?</t>
-  </si>
-  <si>
-    <t>Assessment of the Subcutaneous Reinjection of Human Autologous Adipose-derived Stromal Vascular Fraction (Celution® System) in the Hands of Patients Suffering From Systemic Sclerosis</t>
-  </si>
-  <si>
     <t>Can Branched Chain Amino Acids Supplementation Reduce Muscle Damage Induced by Neuromuscular Electrical Stimulation ? A Combined Functional and Metabolic Non-invasive Investigation in Healthy Humans.</t>
   </si>
   <si>
     <t>Assessing the Impact of the Early and Systematic Hormonal Replacement After Radio-isotopic Ablation of Graves'hyperthyroïdism on Quality of Life, Efficiency and Tolerance</t>
   </si>
   <si>
-    <t>SEDATIVE PREMEDICATION: EFFICACY ON PATIENT EXPERIENCE</t>
-  </si>
-  <si>
-    <t>Evaluation of Ticagrelor Anti Platelet and Pleiotropic Effects in Patients Undergoing Percutaneous Coronary Intervention for an Acute Coronary Syndrome.</t>
-  </si>
-  <si>
-    <t>A Prospective Randomised Study of Efficacy, Safety and Costs of Talc Pleurodesis Under Medical Thoracoscopy and Pleurodesis Under Video-assisted Thoracoscopy Surgery for Recurrent Primary Spontaneous Pneumothorax</t>
-  </si>
-  <si>
-    <t>Feasibility and Acceptability of an Educational Intervention to Improve the Management of Depression in Primary Care</t>
+    <t>Pathophysiology of Neuronal Oscillations Within Subthalamo-cortical Loops in Parkinson's Disease</t>
+  </si>
+  <si>
+    <t>DOES ETANERCEPT INFLUENCE TWEAK MODULATION OF INFLAMMATION DURING INFLAMMATORY RHEUMATISMS (PSORIATIC ARTHRITIS AND RHEUMATOID ARTHRITIS)?</t>
   </si>
   <si>
     <t>Effect of GLP-1 Receptor (GLP-1R) Agonists on Cardiac Function and on Epicardial Adipose Tissue (EAT) Volume and on Myocardial TG Content in Obese Diabetics</t>
   </si>
   <si>
+    <t>Analysis of Host Genetic Factors in the Occurrence of Anemia and on the Virological Response to a Peg-interferon/Ribavirin Therapy in HIV-HCV Co-infected Patients</t>
+  </si>
+  <si>
+    <t>Evaluation of Thyroid Exposure to Radiation Doses During Paediatric Cardiac Catheterisations Performed for Diagnosis or the Treatment of Congenital Heart Disease</t>
+  </si>
+  <si>
+    <t>IN UTERO SMOKING AND PREMATURE CELLULAR SENESCENCE</t>
+  </si>
+  <si>
+    <t>Oropharyngeal and Nasopharyngeal Decontamination With Chlorhexidine Gluconate in the Reduction of the Postoperative Morbidity and Mortality After Major Pulmonary Resections: a Multicentric, Prospective, Randomized, Double-blind, Placebo-controlled Clinical Trial</t>
+  </si>
+  <si>
     <t>Lidocaine Pharmacokinetics During Tumescent Infiltrative Anaesthesia for Mastectomy.</t>
   </si>
   <si>
     <t>Cluster Headache and SPINK-1 Gene</t>
   </si>
   <si>
-    <t>Analysis of Host Genetic Factors in the Occurrence of Anemia and on the Virological Response to a Peg-interferon/Ribavirin Therapy in HIV-HCV Co-infected Patients</t>
-  </si>
-  <si>
     <t>Impact of Adalimumab Therapy on Brachial Endothelial Function and Large Artery Stiffness in Patients With Rheumatoid Arthritis</t>
   </si>
   <si>
-    <t>IN UTERO SMOKING AND PREMATURE CELLULAR SENESCENCE</t>
-  </si>
-  <si>
-    <t>Evaluation of Thyroid Exposure to Radiation Doses During Paediatric Cardiac Catheterisations Performed for Diagnosis or the Treatment of Congenital Heart Disease</t>
-  </si>
-  <si>
-    <t>Oropharyngeal and Nasopharyngeal Decontamination With Chlorhexidine Gluconate in the Reduction of the Postoperative Morbidity and Mortality After Major Pulmonary Resections: a Multicentric, Prospective, Randomized, Double-blind, Placebo-controlled Clinical Trial</t>
-  </si>
-  <si>
     <t>Ultrasonography Assessment of Peripheral Entheses in Axial Spondyloarthritis and in Healthy Subjects, Athletes or Not.</t>
   </si>
   <si>
-    <t>Pathophysiology of Neuronal Oscillations Within Subthalamo-cortical Loops in Parkinson's Disease</t>
-  </si>
-  <si>
-    <t>DOES ETANERCEPT INFLUENCE TWEAK MODULATION OF INFLAMMATION DURING INFLAMMATORY RHEUMATISMS (PSORIATIC ARTHRITIS AND RHEUMATOID ARTHRITIS)?</t>
+    <t>The Value of Bacterial Loads by Real Time PCR in Predicting Recurrence of Abnormal Vaginal Flora After Oral Metronidazole Therapy</t>
+  </si>
+  <si>
+    <t>Characterization of the Cord Blood Stem Cell in Situation of Neonatal Asphyxia</t>
   </si>
   <si>
     <t>Prevention of Atrial Fibrillation Following Valvular Replacement With Cardiopulmonary Bypass: a Prospective, Randomized Clinical Study Comparing Oral Caffeine With Placebo</t>
   </si>
   <si>
-    <t>The Value of Bacterial Loads by Real Time PCR in Predicting Recurrence of Abnormal Vaginal Flora After Oral Metronidazole Therapy</t>
+    <t>Follicular Helper T Cells: Biological Marker and Involvement in the Physiopathology of the IgG4-related Disease</t>
   </si>
   <si>
     <t>Non-invasive Quantification of Atrial Fibrosis by MRI in Atrial Fibrillation</t>
   </si>
   <si>
-    <t>Follicular Helper T Cells: Biological Marker and Involvement in the Physiopathology of the IgG4-related Disease</t>
-  </si>
-  <si>
-    <t>Characterization of the Cord Blood Stem Cell in Situation of Neonatal Asphyxia</t>
+    <t>Prognostic Value of Myocardial Fibrosis Quantified Using CMR in Patient With Dilated Cardiomyopathy</t>
+  </si>
+  <si>
+    <t>Pilot Study of the Effects of the Desipramine on the Neurovegetative Parameters of the Child With Rett Syndrome</t>
+  </si>
+  <si>
+    <t>QUALITY OF LIFE OF CHILDREN BORN VERY PRETERM AT SCHOOL-AGE</t>
+  </si>
+  <si>
+    <t>Comparative Assessment of Intra-articular Knee Injections of Platelet-rich Plasma (PRP) and Hyaluronic Acid in the Treatment of Knee Osteoarthritis</t>
+  </si>
+  <si>
+    <t>Predicting Hypotension Related to Spinal Anesthesia for Caesarean Section With Ultrasonography</t>
   </si>
   <si>
     <t>Assessment of the Mutation of Pig-A Gene as Biomarker of Genotoxic Exposure in Humans</t>
   </si>
   <si>
-    <t>Predicting Hypotension Related to Spinal Anesthesia for Caesarean Section With Ultrasonography</t>
-  </si>
-  <si>
-    <t>QUALITY OF LIFE OF CHILDREN BORN VERY PRETERM AT SCHOOL-AGE</t>
-  </si>
-  <si>
-    <t>Prognostic Value of Myocardial Fibrosis Quantified Using CMR in Patient With Dilated Cardiomyopathy</t>
-  </si>
-  <si>
     <t>A Prospective Pilot Study to Evaluate a New Marker of Ischemia in Chest Pain Triage</t>
   </si>
   <si>
-    <t>Comparative Assessment of Intra-articular Knee Injections of Platelet-rich Plasma (PRP) and Hyaluronic Acid in the Treatment of Knee Osteoarthritis</t>
-  </si>
-  <si>
     <t>Incidence of High Levels of Transpulmonary Pressure During the Use of Airway Pressure Release Ventilation.</t>
   </si>
   <si>
-    <t>Pilot Study of the Effects of the Desipramine on the Neurovegetative Parameters of the Child With Rett Syndrome</t>
+    <t>Prognostic Value of Biomarkers Associated With Endothelial Progenitor Cells Mobilization in Acute Coronary Syndromes</t>
+  </si>
+  <si>
+    <t>Early or Delayed Revascularization for Intermediate and High-risk Non ST-elevation Acute Coronary Syndromes?</t>
+  </si>
+  <si>
+    <t>An Innovative Treatment for Fistula-in-ano in Crohn Disease : Local Micro Reinjection of Autologous Fat and Stromal Vascular Fraction</t>
   </si>
   <si>
     <t>Open Lung Protective Ventilation During Cardiac Surgery With Cardiopulmonary Bypass : a Randomized Controlled Trial</t>
   </si>
   <si>
+    <t>Screening for Thoracic Aortic Aneurysm Among a Cohort of Patients With a Degenerative Abdominal Aortic Aneurysm : Prevalence, Description of the Different Thoracic Aortic Phenotypes by Aortic Volumetric Numerized Imaging and Their Relationship With Epidemiologic, Clinical, Biological and Genetic Factors</t>
+  </si>
+  <si>
+    <t>Innovative Treatment for Scarred Vocal Cords by Local Injection of Autologous Stromal Vascular Fraction</t>
+  </si>
+  <si>
     <t>EVALUATION OF AN INNOVATIVE TREATMENT FOR RADIOCARPAL OSTEOARTHRITIS USING INTRA-ARTICULAR INJECTION OF A MIXTURE OF AUTOLOGOUS MICROFAT AND AUTOLOGOUS PLATELET-RICH PLASMA</t>
   </si>
   <si>
-    <t>Prognostic Value of Biomarkers Associated With Endothelial Progenitor Cells Mobilization in Acute Coronary Syndromes</t>
-  </si>
-  <si>
-    <t>Innovative Treatment for Scarred Vocal Cords by Local Injection of Autologous Stromal Vascular Fraction</t>
-  </si>
-  <si>
-    <t>Screening for Thoracic Aortic Aneurysm Among a Cohort of Patients With a Degenerative Abdominal Aortic Aneurysm : Prevalence, Description of the Different Thoracic Aortic Phenotypes by Aortic Volumetric Numerized Imaging and Their Relationship With Epidemiologic, Clinical, Biological and Genetic Factors</t>
+    <t>Feasibility of Superior Rectal Artery Embolization for the Treatment of Hemorrhoidal Disease</t>
+  </si>
+  <si>
+    <t>Platelet Reactivity Inhibition Following Ticagrelor Loading Dose and One Year Outcome in Patients Undergoing Percutaneous Coronary Intervention for an Acute Coronary Syndrome</t>
+  </si>
+  <si>
+    <t>Clinical Evaluation of the Treatment of Intellectual Metastases by Radiosurgery Gamma Knife by Means of a Support System by Mask.</t>
   </si>
   <si>
     <t>Role of Circulating Cytotoxic Lymphocytes in Endothelial Cell Injury in Systemic Sclerosis</t>
   </si>
   <si>
-    <t>Early or Delayed Revascularization for Intermediate and High-risk Non ST-elevation Acute Coronary Syndromes?</t>
-  </si>
-  <si>
-    <t>Clinical Evaluation of the Treatment of Intellectual Metastases by Radiosurgery Gamma Knife by Means of a Support System by Mask.</t>
-  </si>
-  <si>
-    <t>Platelet Reactivity Inhibition Following Ticagrelor Loading Dose and One Year Outcome in Patients Undergoing Percutaneous Coronary Intervention for an Acute Coronary Syndrome</t>
-  </si>
-  <si>
-    <t>Feasibility of Superior Rectal Artery Embolization for the Treatment of Hemorrhoidal Disease</t>
-  </si>
-  <si>
-    <t>An Innovative Treatment for Fistula-in-ano in Crohn Disease : Local Micro Reinjection of Autologous Fat and Stromal Vascular Fraction</t>
+    <t>Expanding the Biomarkers in Familial Amyloid Neuropathy: Magnetic Resonance Imaging (MRI) and Motor Unit Estimation by Electrophysiological Study</t>
+  </si>
+  <si>
+    <t>Improving the Diagnostic of Tuberculosis</t>
+  </si>
+  <si>
+    <t>Prevention of Atelectasis, Via High Flow Nasal Cannula to Obtain a PEP, During General Anesthesia for MRI by Sevoflurane in Children, Evaluated by Lung MRI and Echography</t>
   </si>
   <si>
     <t>Definition of Links Between Non-invasives Methods and Intracerebral EEG With Simultaneous Recordings.</t>
   </si>
   <si>
+    <t>Venous to Arterial Carbon Dioxide Difference (P₍ᵥ-ₐ₎CO₂): Predictor of Septic Patient Prognosis Depending on the ScvO₂</t>
+  </si>
+  <si>
+    <t>Long-term Effects of Visual Spatial Working Memory Training Program Performed at Preschool Age in Very Preterm Infants With Visual Spatial Working Memory Deficit. A Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Usefulness of Sodium MRI in the Presurgical Assessment of Drug-resistant Partial Epilepsy</t>
+  </si>
+  <si>
     <t>Evaluation of the Expression and Functions of the KIR3DL2 Receptor and the Anti-inflammatory Activity of IPH4102 (Monoclonal Antibody IPH4102 Targeting KIR3DL2) in Blood Samples Taken From Patients With Axial Spondyloarthritis and Healthy Volunteers</t>
   </si>
   <si>
-    <t>Expanding the Biomarkers in Familial Amyloid Neuropathy: Magnetic Resonance Imaging (MRI) and Motor Unit Estimation by Electrophysiological Study</t>
-  </si>
-  <si>
-    <t>Long-term Effects of Visual Spatial Working Memory Training Program Performed at Preschool Age in Very Preterm Infants With Visual Spatial Working Memory Deficit. A Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Prevention of Atelectasis, Via High Flow Nasal Cannula to Obtain a PEP, During General Anesthesia for MRI by Sevoflurane in Children, Evaluated by Lung MRI and Echography</t>
-  </si>
-  <si>
-    <t>Venous to Arterial Carbon Dioxide Difference (P₍ᵥ-ₐ₎CO₂): Predictor of Septic Patient Prognosis Depending on the ScvO₂</t>
-  </si>
-  <si>
-    <t>Improving the Diagnostic of Tuberculosis</t>
-  </si>
-  <si>
-    <t>Usefulness of Sodium MRI in the Presurgical Assessment of Drug-resistant Partial Epilepsy</t>
-  </si>
-  <si>
     <t>A 2A Receptor (A2 AR) as a Novel Biomarkers for Physician Decision-making Improvement Evaluation's Patients With Suspected Acute Coronary Syndrome But Negative Troponin.</t>
   </si>
   <si>
+    <t>Assessment of Renal Artery Fibromuscular Dysplasia: From Diagnosis to Treatment</t>
+  </si>
+  <si>
     <t>QOL Efficacy of Adapted Physical Activity for Patients With Fibromyalgia : Single-center, Prospective, Randomized With Biological and Cerebral Evaluation</t>
   </si>
   <si>
+    <t>Advantage of Detection of phIGFBP-1 to Reduce Hospitalization Time for Stable Patients With a Risk of Preterm Labour.</t>
+  </si>
+  <si>
+    <t>Intradermal Delivery of Fractional CO2 Laser-assisted Hyaluronic Acid in Facial Skin Remodeling</t>
+  </si>
+  <si>
+    <t>Awake Prone Position to Reduce Ventilation Inhomogeneity in COVID-19 Acute Respiratory Failure: a Randomized Cross Over Electrical Impedance Tomography Study</t>
+  </si>
+  <si>
+    <t>Impact of Empaglifozine on Cardiac Ectopic Fat</t>
+  </si>
+  <si>
+    <t>Spirituality, Experience of Disease and Quality of Life in Cancer Patients</t>
+  </si>
+  <si>
+    <t>Post Operative Pain After Laparoscopic Hysterectomy Using Airseal® Versus Standard Insufflation System: A Randomized Prospective Study</t>
+  </si>
+  <si>
     <t>Impact of [68 Ga]-DOTANOC PET-CT on the Management of Gastroenteropancreatic Neuroendocrine Tumors (GEP-NETs): Prospective, Multicentric Study.</t>
   </si>
   <si>
-    <t>Post Operative Pain After Laparoscopic Hysterectomy Using Airseal® Versus Standard Insufflation System: A Randomized Prospective Study</t>
-  </si>
-  <si>
-    <t>Intradermal Delivery of Fractional CO2 Laser-assisted Hyaluronic Acid in Facial Skin Remodeling</t>
-  </si>
-  <si>
-    <t>Impact of Empaglifozine on Cardiac Ectopic Fat</t>
-  </si>
-  <si>
-    <t>Spirituality, Experience of Disease and Quality of Life in Cancer Patients</t>
-  </si>
-  <si>
-    <t>Advantage of Detection of phIGFBP-1 to Reduce Hospitalization Time for Stable Patients With a Risk of Preterm Labour.</t>
-  </si>
-  <si>
-    <t>Assessment of Renal Artery Fibromuscular Dysplasia: From Diagnosis to Treatment</t>
-  </si>
-  <si>
     <t>Randomized Study on the Evaluation of the Regular Practice of Standardized Postures Stretching Postural® in Secondary Prevention of Low Back Pains During Pregnancy.</t>
   </si>
   <si>
-    <t>Awake Prone Position to Reduce Ventilation Inhomogeneity in COVID-19 Acute Respiratory Failure: a Randomized Cross Over Electrical Impedance Tomography Study</t>
+    <t>Characterization of Tissular T Follicular Helper Cells in IgG4-RD</t>
+  </si>
+  <si>
+    <t>Assessment of the Interests of Mesure of Ultrasound Engagement on the Cesarean Rate :Study Eng - Echo Randomized Comparative Prospective Study Multicenter Center Open</t>
+  </si>
+  <si>
+    <t>Laparoscopic Sacrocolpexy Versus Lateral Suspension With a Mesh for the Treatment of Pelvic Organ Prolapse : a Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Effectivness of Distraction by Electric ride-on Cars for Peri Operative Anxiety in Ambulatory Pediatric Surgery: a Randomised Controlled Study</t>
   </si>
   <si>
     <t>Different Approaches to Thoracic Paravertebral Block: a Monocentric Randomized Study Comparing Ultrasounded-guided Method to Intrathoracic Visual Method</t>
   </si>
   <si>
-    <t>Assessment of the Interests of Mesure of Ultrasound Engagement on the Cesarean Rate :Study Eng - Echo Randomized Comparative Prospective Study Multicenter Center Open</t>
-  </si>
-  <si>
     <t>Effects of Combined Treatment by Botulinum Toxin A and Robot-Assisted Gait Training (Lokomat®) on Walking Ability in Patients With Chronic Stroke: a Prospective, Controlled, Randomized Study</t>
   </si>
   <si>
     <t>A Double-blind, Randomized Study Versus Placebo of Avdoralimab (IPH5401), an Anti-C5aR Antibody, in Patients With COVID-19 Severe Pneumonia</t>
   </si>
   <si>
-    <t>Characterization of Tissular T Follicular Helper Cells in IgG4-RD</t>
-  </si>
-  <si>
-    <t>Laparoscopic Sacrocolpexy Versus Lateral Suspension With a Mesh for the Treatment of Pelvic Organ Prolapse : a Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Effectivness of Distraction by Electric ride-on Cars for Peri Operative Anxiety in Ambulatory Pediatric Surgery: a Randomised Controlled Study</t>
+    <t>Etiology of Endocarditis in Negative Blood Cultures</t>
+  </si>
+  <si>
+    <t>Assessment of Whole Body Cryotherapy in Treatment of Active Axial Spondylarthritis</t>
+  </si>
+  <si>
+    <t>Medico-economic Impact of Screening Atopobium Vaginae and Gardnerella Vaginalis in Molecular Biology by "Point-of-care" During Pregnancy</t>
+  </si>
+  <si>
+    <t>Blood Biomarkers in Major Depression</t>
+  </si>
+  <si>
+    <t>Validation of Fibrosis Quantification Using T1 Mapping Against Histology as Reference and Comparison With Fibrosis Biomarkers</t>
+  </si>
+  <si>
+    <t>Cervical Preparation of Abortions Under Paracervical Block in the First Trimester: A Randomized Clinical Trial</t>
+  </si>
+  <si>
+    <t>Interventional Trial in Primary Care of Medico-social Mediation on the Prevention of the Return to Emergencies Among People in a Precarious Social Situation</t>
+  </si>
+  <si>
+    <t>Q Fever and Auto-immunity</t>
+  </si>
+  <si>
+    <t>Interest of a Geriatric Intervention Plan Associated to a Comprehensive Geriatric Assessment on Autonomy, Quality of Life and Survival of Patients Aged 70 Years Old and More Surgically Treated for a Resectable Cancer (Thoracic, Digestive or Urologic). Randomized Multicentric Study</t>
+  </si>
+  <si>
+    <t>Needs Assessment of Mediterranean Adolescents With Type 1 Diabetes About Therapeutic Education Sessions: A Qualitative Study</t>
+  </si>
+  <si>
+    <t>Evaluation of Optical Pumping Magnetometer Sensors for MagnetoEncephaloGraphy Imaging</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effectiveness of a Diagnostic Kit in the Etiological Diagnosis of Fevers of the Traveler</t>
+  </si>
+  <si>
+    <t>Microbiological Diagnosis of Infectious Keratitis to Pathogenic Fastidious Germs</t>
+  </si>
+  <si>
+    <t>Microbiological Diagnosis of Infectious Uveitis to Pathogenic Fastidious Germs</t>
+  </si>
+  <si>
+    <t>Improvement of the Etiological Diagnosis of the Pericarditis</t>
+  </si>
+  <si>
+    <t>RIVA-PSP: Efficacy of Rivastigmine on Motor, Cognitive and Behavioural Impairment in Progressive Supranuclear Palsy: A Randomised Double Blind Placebo-controlled Clinical Trial</t>
+  </si>
+  <si>
+    <t>Phase IA/IB of Metronomic Chemotherapy Based on Adaptative Bio-mathematical Model of Oral Vinorelbine in Patients With Non Small Cell Lung Cancer or Malignant Pleural Mesothelioma</t>
+  </si>
+  <si>
+    <t>Study " COFLORES ":Imaging of Coronary Reserve Without Tracers</t>
+  </si>
+  <si>
+    <t>Improving the Diagnosis of Pneumonia in Emergency Rooms</t>
+  </si>
+  <si>
+    <t>Investigation of Endemic and Emerging Diseases in Populations of Homeless Households in Marseille.</t>
+  </si>
+  <si>
+    <t>Causative Diagnosis on Prosthetic Joint Infections: Establishment of a Comprehensive Diagnostic Strategy</t>
+  </si>
+  <si>
+    <t>Is EMG-based Serious Games Effective in Improving Gait in Children With Cerebral Palsy ? Interest of Electromyography Feedback (EMG)</t>
+  </si>
+  <si>
+    <t>Interest of the 18F-DOPA-PET Imaging in Metastatic Melanoma Treated With B-RAF Inhibitors: a Pilot Study</t>
+  </si>
+  <si>
+    <t>Circulating microRNAs and Degenerative Abdominal Aorta Aneurysm: Diagnostic Specificity and Prognostic Value in Clinical Practice</t>
   </si>
   <si>
     <t>Study of Variations of Pleural and Esophageal Pressures Under Mechanical Ventilation After Lung Transplantation</t>
   </si>
   <si>
-    <t>RIVA-PSP: Efficacy of Rivastigmine on Motor, Cognitive and Behavioural Impairment in Progressive Supranuclear Palsy: A Randomised Double Blind Placebo-controlled Clinical Trial</t>
-  </si>
-  <si>
-    <t>Study " COFLORES ":Imaging of Coronary Reserve Without Tracers</t>
-  </si>
-  <si>
-    <t>Needs Assessment of Mediterranean Adolescents With Type 1 Diabetes About Therapeutic Education Sessions: A Qualitative Study</t>
-  </si>
-  <si>
-    <t>Is EMG-based Serious Games Effective in Improving Gait in Children With Cerebral Palsy ? Interest of Electromyography Feedback (EMG)</t>
-  </si>
-  <si>
-    <t>Q Fever and Auto-immunity</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effectiveness of a Diagnostic Kit in the Etiological Diagnosis of Fevers of the Traveler</t>
-  </si>
-  <si>
-    <t>Medico-economic Impact of Screening Atopobium Vaginae and Gardnerella Vaginalis in Molecular Biology by "Point-of-care" During Pregnancy</t>
-  </si>
-  <si>
-    <t>Interventional Trial in Primary Care of Medico-social Mediation on the Prevention of the Return to Emergencies Among People in a Precarious Social Situation</t>
+    <t>Lipophilic Micronutrients, Adipokines and Gestational Diabetes Mellitus</t>
+  </si>
+  <si>
+    <t>Exercise Stress MRI to Evaluate Aortic Function (Compliance, Distensibility, Pulse Wave Velocity) and Left Ventricular Function : Validation in Healthy Volunteers and in Selected Patients. A Pilot Study.</t>
   </si>
   <si>
     <t>Experimentation of a Protocol of Psychiatric Advance Directives: Randomized Controlled Multi-site Trial</t>
   </si>
   <si>
-    <t>Improving the Diagnosis of Pneumonia in Emergency Rooms</t>
-  </si>
-  <si>
-    <t>Phase IA/IB of Metronomic Chemotherapy Based on Adaptative Bio-mathematical Model of Oral Vinorelbine in Patients With Non Small Cell Lung Cancer or Malignant Pleural Mesothelioma</t>
-  </si>
-  <si>
-    <t>Etiology of Endocarditis in Negative Blood Cultures</t>
-  </si>
-  <si>
-    <t>Interest of the 18F-DOPA-PET Imaging in Metastatic Melanoma Treated With B-RAF Inhibitors: a Pilot Study</t>
-  </si>
-  <si>
-    <t>Exercise Stress MRI to Evaluate Aortic Function (Compliance, Distensibility, Pulse Wave Velocity) and Left Ventricular Function : Validation in Healthy Volunteers and in Selected Patients. A Pilot Study.</t>
-  </si>
-  <si>
-    <t>Cervical Preparation of Abortions Under Paracervical Block in the First Trimester: A Randomized Clinical Trial</t>
-  </si>
-  <si>
-    <t>Circulating microRNAs and Degenerative Abdominal Aorta Aneurysm: Diagnostic Specificity and Prognostic Value in Clinical Practice</t>
-  </si>
-  <si>
-    <t>Interest of a Geriatric Intervention Plan Associated to a Comprehensive Geriatric Assessment on Autonomy, Quality of Life and Survival of Patients Aged 70 Years Old and More Surgically Treated for a Resectable Cancer (Thoracic, Digestive or Urologic). Randomized Multicentric Study</t>
-  </si>
-  <si>
-    <t>Lipophilic Micronutrients, Adipokines and Gestational Diabetes Mellitus</t>
-  </si>
-  <si>
-    <t>Blood Biomarkers in Major Depression</t>
-  </si>
-  <si>
-    <t>Microbiological Diagnosis of Infectious Keratitis to Pathogenic Fastidious Germs</t>
-  </si>
-  <si>
-    <t>Microbiological Diagnosis of Infectious Uveitis to Pathogenic Fastidious Germs</t>
-  </si>
-  <si>
-    <t>Improvement of the Etiological Diagnosis of the Pericarditis</t>
-  </si>
-  <si>
-    <t>Investigation of Endemic and Emerging Diseases in Populations of Homeless Households in Marseille.</t>
-  </si>
-  <si>
-    <t>Assessment of Whole Body Cryotherapy in Treatment of Active Axial Spondylarthritis</t>
-  </si>
-  <si>
-    <t>Causative Diagnosis on Prosthetic Joint Infections: Establishment of a Comprehensive Diagnostic Strategy</t>
-  </si>
-  <si>
     <t>Description of Socio-cognitive and Clinic Changes for Type 1 Diabetes Adolescents Cohort With Therapeutic Patient Education Program</t>
   </si>
   <si>
-    <t>Validation of Fibrosis Quantification Using T1 Mapping Against Histology as Reference and Comparison With Fibrosis Biomarkers</t>
-  </si>
-  <si>
-    <t>Evaluation of Optical Pumping Magnetometer Sensors for MagnetoEncephaloGraphy Imaging</t>
+    <t>Implementation of Innovative Techniques in Routine Diagnosis of Childhood Acute Leukemia: Analysis of Genome and Transcriptome by Micro-array</t>
+  </si>
+  <si>
+    <t>Comparison of Diagnostic Performances of 68Ga-DOTATATE PET-CT and 18F-FDOPA PET-CT in Paragangliomas and Pheochromocytomas Evaluation: Monocentric Prospective Study</t>
+  </si>
+  <si>
+    <t>Disruption of Circadian Rhythm and Healthcare-related Infection in Patients With Severe Trauma</t>
+  </si>
+  <si>
+    <t>Intensive Preoperative Speech Rehabilitation in Drug-Resistant Temporal Epilepsy: A Case Study</t>
+  </si>
+  <si>
+    <t>Soluble CD146 and Proteinuria in Chronic Renal Disease</t>
+  </si>
+  <si>
+    <t>Role of Innate Lymphoid Cells in the Immunosuppression of Septic Shock</t>
+  </si>
+  <si>
+    <t>Pharmacokinetics and Pharmacogenetics-based Adaptive Dosing of 5-fu (5-Fluorouracile) in Head &amp; Neck Cancer Patient Undergoing Docetaxel, Cisplatin, 5-Fluorouracile (=TPF) Therapy</t>
+  </si>
+  <si>
+    <t>Impact of Alternative Blood Glucose Testing Site (Forearm) on Pain Reduction in Preterm Neonates.</t>
+  </si>
+  <si>
+    <t>Double-blind, Randomized, Multicenter Study Evaluating 200 Mg Versus 600 Mg of Mifegyne® on Pain in Medical Termination of Pregnancy (MToP) Up to 7 Weeks of Amenorreha (WA). DoMy Study.</t>
+  </si>
+  <si>
+    <t>Gastroenteric Anastomosis With Natural Orifice Translumenal Endoscopic Surgery (NOTES) Using the New Fashionned Tissue Apposing Stent Axios® for the Treatment of Antro-pyloric or Duodenal Obstructions : Prospective Evaluation of Feasibility, Efficacy and Tolerance.</t>
+  </si>
+  <si>
+    <t>" Virtual Brain "-Based Interpretation of Electrophysiological Signals in Epilepsy</t>
+  </si>
+  <si>
+    <t>EFFECT OF SMOKING ON MUCUS HYPERSECRETION MECHANISMS IN ASTHMA AND CHRONIC OBSTRUCTIVE PULMONARY DISEASE</t>
+  </si>
+  <si>
+    <t>Neuropsychological Development and Functional Outcome Sin Children With Hirschsprung Disease at School Age - Hirschsprung</t>
+  </si>
+  <si>
+    <t>Study of a Red Blood Cell Deformability Parameter in Patients With Sickle Cell Disease, at Basal State and During Vaso-occlusive Crisis</t>
+  </si>
+  <si>
+    <t>RENACTIF: Reduction of the Thrombotic Phenotype in Renal Insufficiency With N-AcetylCysteine A Randomized, Double-blind, Placebo-controlled, Cross-over Trial</t>
+  </si>
+  <si>
+    <t>C5a Receptor Expression in Circulating Myeloid Cells in ARDS Secondary to COVID-19</t>
+  </si>
+  <si>
+    <t>Evaluation of Bilateral Gamma Knife Thalamotomy in Patients Presenting With Severe Essential Tremor</t>
+  </si>
+  <si>
+    <t>Evaluation of PET-CT Using Somatostatin Agonists Labeled With Gallium68 in Neuroendocrine Tumors</t>
+  </si>
+  <si>
+    <t>Impact of a Procedure With Socio-aesthetic Care on Anxiety and Pain Scale in the Early Rest of Pulmonary Transplant.</t>
+  </si>
+  <si>
+    <t>Targeted High Throughput Sequencing in the Diagnosis of Pediatric Acute Leukemia</t>
+  </si>
+  <si>
+    <t>Quantification of the Immediate Impact of Weak Electric Fields on Brain Activity by SEEG Measurements in Drug-resistant Focal Epilepsy Patients</t>
+  </si>
+  <si>
+    <t>Evaluation of the Safety and Efficacy of Bilateral Subthalamic Nucleus (SNT) Radiosurgery in Idiopathic Severe Parkinson's Disease Fulfilling Inclusion Criteria for STN Deep Brain Stimulation and Presenting With a Contraindication to Intracerebral Electrode Implantation.</t>
+  </si>
+  <si>
+    <t>Regional Non-comparative Prospective Study of the Impact of Gamma Knife Radiosurgery on Tremor in Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>Intra Individual Evaluation of Uremic Toxin Levels in Hemodialysed Patients</t>
+  </si>
+  <si>
+    <t>Virtual Reality and Relaxation for the Treatment of Generalized Anxiety Disorders: a Comparative Study With Standard Relaxation</t>
+  </si>
+  <si>
+    <t>Diagnostic Value of 18F-fluorodeoxyglucose Positron Emission Tomography/Computed Tomography in Prosthetic Valve Endocarditis</t>
+  </si>
+  <si>
+    <t>Brainstem Assesment in a Cohort of Very Preterm Babies (Less Than 28 Weeks)</t>
+  </si>
+  <si>
+    <t>LateR-Ac Study: Late Effects of Radiosurgery on Acromegaly Study</t>
+  </si>
+  <si>
+    <t>Efficacy of a Preemptive Treatment by Ganciclovir or by Aciclovir in ICU Patients Requiring Prolonged Mechanical Ventilation and Presenting a Viral Replication (CMV and/or HSV) - Prospective, Randomized, Double-blinded Multicenter Trial</t>
+  </si>
+  <si>
+    <t>Combination of Everolimus and Octreotide LAR in Aggressive Recurrent Meningiomas.</t>
+  </si>
+  <si>
+    <t>Efficacy of Deep Transcranial Magnetic Stimulation (TMS) for Treatment-resistant Depression and Neuroanatomical Correlates: a Randomized Clinical Study Coupled With Positon Emission Tomography (PET)</t>
+  </si>
+  <si>
+    <t>Impact of Early Oral Stimulation on Reducing Cardiorespiratory Events and Transition to Oral Feeding in Preterm Infants</t>
+  </si>
+  <si>
+    <t>Significance of the High-risk Hpv Viral Load</t>
+  </si>
+  <si>
+    <t>A Phase II Clinical Trial Using Metronomic Oral Low-dose Cyclophosphamide Alternating With Low-dose Oral Methotrexate With Continuous Celecoxib and Weekly Vinblastine in Children and Adolescents With Relapsed or Progressing Solid Tumours.</t>
+  </si>
+  <si>
+    <t>Impact Hypercortisolism on Adipose Epicardial and on Myocardial Function</t>
+  </si>
+  <si>
+    <t>Consequence of Unilateral Vestibular Loss on Visual Abilities</t>
+  </si>
+  <si>
+    <t>Interest Of Renal Elastography In Children As A Diagnostic Tool Of Renal Fibrosis: Confrontation To Histological Features Of Renal Biopsies</t>
+  </si>
+  <si>
+    <t>Validation of Radioisotope Guided Lymphadenectomy for Loco-regional Staging in Patients With Intermediate or High-risk Prostate Cancer</t>
+  </si>
+  <si>
+    <t>Performance of 18F-Fluorodeoxyglucose Positron Emission Tomography (FDG-PET) in the Diagnosis of Indeterminate Adrenal Tumors on Conventional Imaging: A French Prospective Multicentric Study</t>
+  </si>
+  <si>
+    <t>Right and Left Ventricle Remodeling Predictors After Pulmonary Valve Replacement in Patients With Repaired Tetralogy of Fallot.</t>
+  </si>
+  <si>
+    <t>Interventionnal and Randomized Study Measuring Virtual Reality Cue Exposure for the Relapse Prevention of Tobacco Consumption Versus Cognitive and Behavioral Approaches Therapy</t>
   </si>
   <si>
     <t>Clinical Course and Changes in the Respiratory Microbiota Based on Antibiotic Treatment in Patients With Cystic Fibrosis</t>
   </si>
   <si>
-    <t>Diagnostic Value of 18F-fluorodeoxyglucose Positron Emission Tomography/Computed Tomography in Prosthetic Valve Endocarditis</t>
-  </si>
-  <si>
-    <t>Interest Of Renal Elastography In Children As A Diagnostic Tool Of Renal Fibrosis: Confrontation To Histological Features Of Renal Biopsies</t>
-  </si>
-  <si>
-    <t>Regional Non-comparative Prospective Study of the Impact of Gamma Knife Radiosurgery on Tremor in Multiple Sclerosis</t>
-  </si>
-  <si>
-    <t>Implementation of Innovative Techniques in Routine Diagnosis of Childhood Acute Leukemia: Analysis of Genome and Transcriptome by Micro-array</t>
-  </si>
-  <si>
-    <t>Virtual Reality and Relaxation for the Treatment of Generalized Anxiety Disorders: a Comparative Study With Standard Relaxation</t>
-  </si>
-  <si>
-    <t>Right and Left Ventricle Remodeling Predictors After Pulmonary Valve Replacement in Patients With Repaired Tetralogy of Fallot.</t>
-  </si>
-  <si>
-    <t>Role of Innate Lymphoid Cells in the Immunosuppression of Septic Shock</t>
-  </si>
-  <si>
-    <t>Intra Individual Evaluation of Uremic Toxin Levels in Hemodialysed Patients</t>
-  </si>
-  <si>
-    <t>Evaluation of the Safety and Efficacy of Bilateral Subthalamic Nucleus (SNT) Radiosurgery in Idiopathic Severe Parkinson's Disease Fulfilling Inclusion Criteria for STN Deep Brain Stimulation and Presenting With a Contraindication to Intracerebral Electrode Implantation.</t>
-  </si>
-  <si>
-    <t>Impact of Early Oral Stimulation on Reducing Cardiorespiratory Events and Transition to Oral Feeding in Preterm Infants</t>
-  </si>
-  <si>
-    <t>EFFECT OF SMOKING ON MUCUS HYPERSECRETION MECHANISMS IN ASTHMA AND CHRONIC OBSTRUCTIVE PULMONARY DISEASE</t>
-  </si>
-  <si>
-    <t>Validation of Radioisotope Guided Lymphadenectomy for Loco-regional Staging in Patients With Intermediate or High-risk Prostate Cancer</t>
-  </si>
-  <si>
-    <t>Intensive Preoperative Speech Rehabilitation in Drug-Resistant Temporal Epilepsy: A Case Study</t>
-  </si>
-  <si>
-    <t>Pharmacokinetics and Pharmacogenetics-based Adaptive Dosing of 5-fu (5-Fluorouracile) in Head &amp; Neck Cancer Patient Undergoing Docetaxel, Cisplatin, 5-Fluorouracile (=TPF) Therapy</t>
-  </si>
-  <si>
-    <t>Efficacy of Deep Transcranial Magnetic Stimulation (TMS) for Treatment-resistant Depression and Neuroanatomical Correlates: a Randomized Clinical Study Coupled With Positon Emission Tomography (PET)</t>
-  </si>
-  <si>
-    <t>Neuropsychological Development and Functional Outcome Sin Children With Hirschsprung Disease at School Age - Hirschsprung</t>
-  </si>
-  <si>
-    <t>Gastroenteric Anastomosis With Natural Orifice Translumenal Endoscopic Surgery (NOTES) Using the New Fashionned Tissue Apposing Stent Axios® for the Treatment of Antro-pyloric or Duodenal Obstructions : Prospective Evaluation of Feasibility, Efficacy and Tolerance.</t>
-  </si>
-  <si>
-    <t>Comparison of Diagnostic Performances of 68Ga-DOTATATE PET-CT and 18F-FDOPA PET-CT in Paragangliomas and Pheochromocytomas Evaluation: Monocentric Prospective Study</t>
-  </si>
-  <si>
-    <t>Targeted High Throughput Sequencing in the Diagnosis of Pediatric Acute Leukemia</t>
-  </si>
-  <si>
-    <t>RENACTIF: Reduction of the Thrombotic Phenotype in Renal Insufficiency With N-AcetylCysteine A Randomized, Double-blind, Placebo-controlled, Cross-over Trial</t>
-  </si>
-  <si>
-    <t>Study of a Red Blood Cell Deformability Parameter in Patients With Sickle Cell Disease, at Basal State and During Vaso-occlusive Crisis</t>
-  </si>
-  <si>
-    <t>" Virtual Brain "-Based Interpretation of Electrophysiological Signals in Epilepsy</t>
-  </si>
-  <si>
-    <t>Brainstem Assesment in a Cohort of Very Preterm Babies (Less Than 28 Weeks)</t>
-  </si>
-  <si>
-    <t>Double-blind, Randomized, Multicenter Study Evaluating 200 Mg Versus 600 Mg of Mifegyne® on Pain in Medical Termination of Pregnancy (MToP) Up to 7 Weeks of Amenorreha (WA). DoMy Study.</t>
-  </si>
-  <si>
-    <t>C5a Receptor Expression in Circulating Myeloid Cells in ARDS Secondary to COVID-19</t>
-  </si>
-  <si>
-    <t>Quantification of the Immediate Impact of Weak Electric Fields on Brain Activity by SEEG Measurements in Drug-resistant Focal Epilepsy Patients</t>
-  </si>
-  <si>
-    <t>Evaluation of Bilateral Gamma Knife Thalamotomy in Patients Presenting With Severe Essential Tremor</t>
-  </si>
-  <si>
-    <t>A Phase II Clinical Trial Using Metronomic Oral Low-dose Cyclophosphamide Alternating With Low-dose Oral Methotrexate With Continuous Celecoxib and Weekly Vinblastine in Children and Adolescents With Relapsed or Progressing Solid Tumours.</t>
-  </si>
-  <si>
-    <t>Impact Hypercortisolism on Adipose Epicardial and on Myocardial Function</t>
-  </si>
-  <si>
-    <t>Disruption of Circadian Rhythm and Healthcare-related Infection in Patients With Severe Trauma</t>
-  </si>
-  <si>
-    <t>Significance of the High-risk Hpv Viral Load</t>
-  </si>
-  <si>
-    <t>Efficacy of a Preemptive Treatment by Ganciclovir or by Aciclovir in ICU Patients Requiring Prolonged Mechanical Ventilation and Presenting a Viral Replication (CMV and/or HSV) - Prospective, Randomized, Double-blinded Multicenter Trial</t>
-  </si>
-  <si>
-    <t>Performance of 18F-Fluorodeoxyglucose Positron Emission Tomography (FDG-PET) in the Diagnosis of Indeterminate Adrenal Tumors on Conventional Imaging: A French Prospective Multicentric Study</t>
-  </si>
-  <si>
-    <t>Combination of Everolimus and Octreotide LAR in Aggressive Recurrent Meningiomas.</t>
-  </si>
-  <si>
-    <t>Interventionnal and Randomized Study Measuring Virtual Reality Cue Exposure for the Relapse Prevention of Tobacco Consumption Versus Cognitive and Behavioral Approaches Therapy</t>
-  </si>
-  <si>
-    <t>Soluble CD146 and Proteinuria in Chronic Renal Disease</t>
-  </si>
-  <si>
-    <t>Evaluation of PET-CT Using Somatostatin Agonists Labeled With Gallium68 in Neuroendocrine Tumors</t>
-  </si>
-  <si>
-    <t>Impact of a Procedure With Socio-aesthetic Care on Anxiety and Pain Scale in the Early Rest of Pulmonary Transplant.</t>
-  </si>
-  <si>
-    <t>Consequence of Unilateral Vestibular Loss on Visual Abilities</t>
-  </si>
-  <si>
-    <t>LateR-Ac Study: Late Effects of Radiosurgery on Acromegaly Study</t>
-  </si>
-  <si>
-    <t>Impact of Alternative Blood Glucose Testing Site (Forearm) on Pain Reduction in Preterm Neonates.</t>
+    <t>Single Center, Randomized, Comparative, Prospective Interventional Study Evaluating the Impact of Brief Psychotherapy by Narrative Exposure Therapy (NET) on the Reduction of Symptoms of Post Traumatic Stress Disorder in Refugee and Asylum Seeking Women in the Program SINDIANE in Marseille</t>
   </si>
   <si>
     <t>Personalized Multichannel Transcranial Direct Current Electrical Stimulation (tDCS) in Drug-resistant Epilepsy: Evaluation of Therapeutic and Neurophysiological Effects</t>
   </si>
   <si>
-    <t>Single Center, Randomized, Comparative, Prospective Interventional Study Evaluating the Impact of Brief Psychotherapy by Narrative Exposure Therapy (NET) on the Reduction of Symptoms of Post Traumatic Stress Disorder in Refugee and Asylum Seeking Women in the Program SINDIANE in Marseille</t>
+    <t>Executive Control Analysis in Patients Suffering From Parkinson Disease and Treated by Deep Brain Stimulation (Chronometric and Electromyographic Approach During a Simon Task)</t>
   </si>
   <si>
     <t>Interest of Using the Sevoflurane in the Prevention of Newborns Pain</t>
@@ -1309,21 +1312,18 @@
     <t>Interest of Circulating Endothelial Biomarkers in Vascular Pregnancy Complications</t>
   </si>
   <si>
+    <t>Constitution of a Standardized Neural Imaging Database in Healthy Subjects</t>
+  </si>
+  <si>
+    <t>Investigations of New Markers in Patients With Shock</t>
+  </si>
+  <si>
+    <t>Beta-thalassemia and Microparticles</t>
+  </si>
+  <si>
     <t>Major Depression and Messenger RNAs</t>
   </si>
   <si>
-    <t>Constitution of a Standardized Neural Imaging Database in Healthy Subjects</t>
-  </si>
-  <si>
-    <t>Investigations of New Markers in Patients With Shock</t>
-  </si>
-  <si>
-    <t>Executive Control Analysis in Patients Suffering From Parkinson Disease and Treated by Deep Brain Stimulation (Chronometric and Electromyographic Approach During a Simon Task)</t>
-  </si>
-  <si>
-    <t>Beta-thalassemia and Microparticles</t>
-  </si>
-  <si>
     <t>Effects of Various Bariatric Surgical Procedures on Intestinal Triglyceride-rich-lipoprotein (TRL) Metabolism in Obese Patients</t>
   </si>
   <si>
@@ -1333,12 +1333,12 @@
     <t>Impact of Bariatric Surgery on Epicardial Adipose Tissue and on Myocardial Function</t>
   </si>
   <si>
+    <t>Dual Source Computed Tomography (DSCT) During Injection of Dipyridamole : a New Technique for Myocardial Ischemia Assessment</t>
+  </si>
+  <si>
     <t>Input of a Multidisciplinary Device Including a Psychological Approach, to Accompany the Announce of Diagnosis for Young Children With Serious Constitutional Hemorrhagic Disease and Their Families</t>
   </si>
   <si>
-    <t>Dual Source Computed Tomography (DSCT) During Injection of Dipyridamole : a New Technique for Myocardial Ischemia Assessment</t>
-  </si>
-  <si>
     <t>TEMOBIC</t>
   </si>
   <si>
@@ -1348,24 +1348,24 @@
     <t>LU-PUCE</t>
   </si>
   <si>
+    <t>PremedX</t>
+  </si>
+  <si>
     <t>PC-QOL</t>
   </si>
   <si>
-    <t>PremedX</t>
-  </si>
-  <si>
     <t>CHLORHEX</t>
   </si>
   <si>
+    <t>NEOCORD</t>
+  </si>
+  <si>
+    <t>G4-FH</t>
+  </si>
+  <si>
     <t>QUAFI</t>
   </si>
   <si>
-    <t>G4-FH</t>
-  </si>
-  <si>
-    <t>NEOCORD</t>
-  </si>
-  <si>
     <t>PIG-A</t>
   </si>
   <si>
@@ -1375,222 +1375,222 @@
     <t>AMIPREP</t>
   </si>
   <si>
+    <t>EMBORRHOID</t>
+  </si>
+  <si>
     <t>Mask</t>
   </si>
   <si>
-    <t>EMBORRHOID</t>
+    <t>PREVAT-PED</t>
   </si>
   <si>
     <t>MEG-SEEG</t>
   </si>
   <si>
+    <t>EXPRET</t>
+  </si>
+  <si>
+    <t>EPIREMED</t>
+  </si>
+  <si>
+    <t>EPISODIUM</t>
+  </si>
+  <si>
     <t>KIR3DL2</t>
   </si>
   <si>
-    <t>EPIREMED</t>
-  </si>
-  <si>
-    <t>PREVAT-PED</t>
-  </si>
-  <si>
-    <t>EXPRET</t>
-  </si>
-  <si>
-    <t>EPISODIUM</t>
+    <t>DysArt</t>
+  </si>
+  <si>
+    <t>ProneSpontCov</t>
+  </si>
+  <si>
+    <t>EMPACEF</t>
+  </si>
+  <si>
+    <t>SPIQOL</t>
+  </si>
+  <si>
+    <t>AIRSEAL</t>
   </si>
   <si>
     <t>GEP-NOC</t>
   </si>
   <si>
-    <t>AIRSEAL</t>
-  </si>
-  <si>
-    <t>EMPACEF</t>
-  </si>
-  <si>
-    <t>SPIQOL</t>
-  </si>
-  <si>
-    <t>DysArt</t>
-  </si>
-  <si>
     <t>GEMALODO</t>
   </si>
   <si>
-    <t>ProneSpontCov</t>
+    <t>TIFOLH4</t>
+  </si>
+  <si>
+    <t>eng - echo</t>
+  </si>
+  <si>
+    <t>SUSPENSION</t>
+  </si>
+  <si>
+    <t>PTIBOLID</t>
   </si>
   <si>
     <t>VAP BLOCK</t>
   </si>
   <si>
-    <t>eng - echo</t>
-  </si>
-  <si>
     <t>Lokomat</t>
   </si>
   <si>
     <t>FORCE</t>
   </si>
   <si>
-    <t>TIFOLH4</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
-  </si>
-  <si>
-    <t>PTIBOLID</t>
+    <t>ENDOC</t>
+  </si>
+  <si>
+    <t>AuTop</t>
+  </si>
+  <si>
+    <t>WHIPPLE</t>
+  </si>
+  <si>
+    <t>BPCEN</t>
+  </si>
+  <si>
+    <t>M2PRUSSE</t>
+  </si>
+  <si>
+    <t>Q Fever</t>
+  </si>
+  <si>
+    <t>epigac</t>
+  </si>
+  <si>
+    <t>BADET</t>
+  </si>
+  <si>
+    <t>OPM</t>
+  </si>
+  <si>
+    <t>Keratite</t>
+  </si>
+  <si>
+    <t>PERICARDITE</t>
   </si>
   <si>
     <t>RIVA-PSP</t>
   </si>
   <si>
-    <t>BADET</t>
+    <t>NVB Metro</t>
+  </si>
+  <si>
+    <t>SDF</t>
   </si>
   <si>
     <t>SERIOUS GAME</t>
   </si>
   <si>
-    <t>Q Fever</t>
-  </si>
-  <si>
-    <t>AuTop</t>
-  </si>
-  <si>
-    <t>M2PRUSSE</t>
+    <t>DIAVOY</t>
+  </si>
+  <si>
+    <t>ACTA-miRNA</t>
+  </si>
+  <si>
+    <t>2011-23</t>
   </si>
   <si>
     <t>DAiP</t>
   </si>
   <si>
-    <t>NVB Metro</t>
-  </si>
-  <si>
-    <t>ENDOC</t>
-  </si>
-  <si>
-    <t>WHIPPLE</t>
-  </si>
-  <si>
-    <t>BPCEN</t>
-  </si>
-  <si>
-    <t>DIAVOY</t>
-  </si>
-  <si>
-    <t>ACTA-miRNA</t>
-  </si>
-  <si>
-    <t>epigac</t>
-  </si>
-  <si>
-    <t>2011-23</t>
-  </si>
-  <si>
-    <t>Keratite</t>
-  </si>
-  <si>
-    <t>PERICARDITE</t>
-  </si>
-  <si>
-    <t>SDF</t>
-  </si>
-  <si>
-    <t>OPM</t>
+    <t>DOTATATE</t>
+  </si>
+  <si>
+    <t>REPREO SCED</t>
+  </si>
+  <si>
+    <t>CPinMRC</t>
+  </si>
+  <si>
+    <t>CriSIs</t>
+  </si>
+  <si>
+    <t>5-FU</t>
+  </si>
+  <si>
+    <t>NOBOBO</t>
+  </si>
+  <si>
+    <t>DoMy</t>
+  </si>
+  <si>
+    <t>VIBRATIONS</t>
+  </si>
+  <si>
+    <t>Visage 3</t>
+  </si>
+  <si>
+    <t>Hirschsprung</t>
+  </si>
+  <si>
+    <t>Drepaforme</t>
+  </si>
+  <si>
+    <t>RENACTIF</t>
+  </si>
+  <si>
+    <t>C5-COV</t>
+  </si>
+  <si>
+    <t>SHU</t>
+  </si>
+  <si>
+    <t>VIMBIL</t>
+  </si>
+  <si>
+    <t>DOTATATENET</t>
+  </si>
+  <si>
+    <t>GALVANI PS-2</t>
   </si>
   <si>
     <t>GK-SEP</t>
   </si>
   <si>
+    <t>EVITUPH</t>
+  </si>
+  <si>
     <t>Relax-TAG</t>
   </si>
   <si>
-    <t>CriSIs</t>
+    <t>LateRAc</t>
+  </si>
+  <si>
+    <t>PTH</t>
+  </si>
+  <si>
+    <t>CEVOREM</t>
   </si>
   <si>
     <t>NCVG</t>
   </si>
   <si>
-    <t>EVITUPH</t>
+    <t>PsychoVHL</t>
+  </si>
+  <si>
+    <t>SFCE METRO 01</t>
+  </si>
+  <si>
+    <t>Hyper-Cor</t>
+  </si>
+  <si>
+    <t>SVorthoptie</t>
   </si>
   <si>
     <t>SENTINELLE</t>
   </si>
   <si>
-    <t>REPREO SCED</t>
-  </si>
-  <si>
-    <t>5-FU</t>
-  </si>
-  <si>
-    <t>Hirschsprung</t>
-  </si>
-  <si>
-    <t>DOTATATE</t>
-  </si>
-  <si>
-    <t>RENACTIF</t>
-  </si>
-  <si>
-    <t>Visage 3</t>
-  </si>
-  <si>
-    <t>Drepaforme</t>
-  </si>
-  <si>
-    <t>VIBRATIONS</t>
-  </si>
-  <si>
-    <t>DoMy</t>
-  </si>
-  <si>
-    <t>SHU</t>
-  </si>
-  <si>
-    <t>C5-COV</t>
-  </si>
-  <si>
-    <t>GALVANI PS-2</t>
-  </si>
-  <si>
-    <t>VIMBIL</t>
-  </si>
-  <si>
-    <t>PsychoVHL</t>
-  </si>
-  <si>
-    <t>SFCE METRO 01</t>
-  </si>
-  <si>
-    <t>Hyper-Cor</t>
-  </si>
-  <si>
-    <t>PTH</t>
-  </si>
-  <si>
-    <t>CEVOREM</t>
-  </si>
-  <si>
-    <t>CPinMRC</t>
-  </si>
-  <si>
-    <t>DOTATATENET</t>
-  </si>
-  <si>
-    <t>SVorthoptie</t>
-  </si>
-  <si>
-    <t>LateRAc</t>
-  </si>
-  <si>
-    <t>NOBOBO</t>
+    <t>SINDIANE</t>
   </si>
   <si>
     <t>GALVANI PS-1</t>
   </si>
   <si>
-    <t>SINDIANE</t>
-  </si>
-  <si>
     <t>ACADHEM</t>
   </si>
   <si>
@@ -1603,13 +1603,13 @@
     <t>PROCEDURE</t>
   </si>
   <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
+    <t>DIETARY_SUPPLEMENT</t>
+  </si>
+  <si>
     <t>BIOLOGICAL</t>
-  </si>
-  <si>
-    <t>DIETARY_SUPPLEMENT</t>
-  </si>
-  <si>
-    <t>DEVICE</t>
   </si>
   <si>
     <t>BEHAVIORAL</t>
@@ -2070,11 +2070,8 @@
       <c r="G4" t="s">
         <v>250</v>
       </c>
-      <c r="H4" t="s">
-        <v>441</v>
-      </c>
       <c r="I4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2099,10 +2096,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -2114,7 +2111,7 @@
         <v>252</v>
       </c>
       <c r="I6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2134,7 +2131,7 @@
         <v>253</v>
       </c>
       <c r="I7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2173,8 +2170,11 @@
       <c r="G9" t="s">
         <v>255</v>
       </c>
+      <c r="H9" t="s">
+        <v>441</v>
+      </c>
       <c r="I9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2194,7 +2194,7 @@
         <v>256</v>
       </c>
       <c r="I10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2219,10 +2219,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -2234,7 +2234,7 @@
         <v>258</v>
       </c>
       <c r="I12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2259,10 +2259,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -2279,10 +2279,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -2294,15 +2294,15 @@
         <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -2314,15 +2314,15 @@
         <v>262</v>
       </c>
       <c r="I16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -2333,19 +2333,16 @@
       <c r="G17" t="s">
         <v>263</v>
       </c>
-      <c r="H17" t="s">
-        <v>442</v>
-      </c>
       <c r="I17" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -2356,6 +2353,9 @@
       <c r="G18" t="s">
         <v>264</v>
       </c>
+      <c r="H18" t="s">
+        <v>442</v>
+      </c>
       <c r="I18" t="s">
         <v>527</v>
       </c>
@@ -2393,9 +2393,6 @@
       <c r="F20" t="s">
         <v>234</v>
       </c>
-      <c r="G20" t="s">
-        <v>266</v>
-      </c>
       <c r="I20" t="s">
         <v>527</v>
       </c>
@@ -2414,10 +2411,10 @@
         <v>234</v>
       </c>
       <c r="G21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I21" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2434,10 +2431,10 @@
         <v>234</v>
       </c>
       <c r="G22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I22" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2470,16 +2467,19 @@
       <c r="F24" t="s">
         <v>234</v>
       </c>
+      <c r="G24" t="s">
+        <v>268</v>
+      </c>
       <c r="I24" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>40</v>
@@ -2487,19 +2487,19 @@
       <c r="F25" t="s">
         <v>235</v>
       </c>
-      <c r="H25" t="s">
-        <v>443</v>
+      <c r="G25" t="s">
+        <v>269</v>
       </c>
       <c r="I25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -2508,18 +2508,18 @@
         <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I26" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -2527,11 +2527,11 @@
       <c r="F27" t="s">
         <v>235</v>
       </c>
-      <c r="G27" t="s">
-        <v>270</v>
+      <c r="H27" t="s">
+        <v>443</v>
       </c>
       <c r="I27" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2591,15 +2591,15 @@
         <v>273</v>
       </c>
       <c r="I30" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
@@ -2607,19 +2607,16 @@
       <c r="F31" t="s">
         <v>235</v>
       </c>
-      <c r="G31" t="s">
-        <v>274</v>
-      </c>
       <c r="I31" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
@@ -2628,7 +2625,7 @@
         <v>235</v>
       </c>
       <c r="G32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I32" t="s">
         <v>527</v>
@@ -2636,10 +2633,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -2647,8 +2644,11 @@
       <c r="F33" t="s">
         <v>235</v>
       </c>
+      <c r="G33" t="s">
+        <v>275</v>
+      </c>
       <c r="I33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2668,7 +2668,7 @@
         <v>276</v>
       </c>
       <c r="I34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2688,15 +2688,15 @@
         <v>277</v>
       </c>
       <c r="I35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -2704,6 +2704,9 @@
       <c r="F36" t="s">
         <v>236</v>
       </c>
+      <c r="G36" t="s">
+        <v>278</v>
+      </c>
       <c r="I36" t="s">
         <v>527</v>
       </c>
@@ -2722,10 +2725,10 @@
         <v>236</v>
       </c>
       <c r="G37" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I37" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2742,10 +2745,10 @@
         <v>236</v>
       </c>
       <c r="G38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I38" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2762,10 +2765,10 @@
         <v>236</v>
       </c>
       <c r="G39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I39" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2782,10 +2785,10 @@
         <v>236</v>
       </c>
       <c r="G40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I40" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2802,7 +2805,7 @@
         <v>236</v>
       </c>
       <c r="G41" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I41" t="s">
         <v>528</v>
@@ -2810,10 +2813,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
@@ -2821,19 +2824,16 @@
       <c r="F42" t="s">
         <v>236</v>
       </c>
-      <c r="G42" t="s">
-        <v>283</v>
-      </c>
       <c r="I42" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
@@ -2865,7 +2865,7 @@
         <v>285</v>
       </c>
       <c r="I44" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2884,19 +2884,16 @@
       <c r="G45" t="s">
         <v>286</v>
       </c>
-      <c r="H45" t="s">
-        <v>444</v>
-      </c>
       <c r="I45" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
@@ -2907,16 +2904,19 @@
       <c r="G46" t="s">
         <v>287</v>
       </c>
+      <c r="H46" t="s">
+        <v>444</v>
+      </c>
       <c r="I46" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
@@ -2947,8 +2947,11 @@
       <c r="G48" t="s">
         <v>289</v>
       </c>
+      <c r="H48" t="s">
+        <v>445</v>
+      </c>
       <c r="I48" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2968,15 +2971,15 @@
         <v>290</v>
       </c>
       <c r="I49" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
@@ -2987,11 +2990,8 @@
       <c r="G50" t="s">
         <v>291</v>
       </c>
-      <c r="H50" t="s">
-        <v>445</v>
-      </c>
       <c r="I50" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3011,7 +3011,7 @@
         <v>292</v>
       </c>
       <c r="I51" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3031,7 +3031,7 @@
         <v>293</v>
       </c>
       <c r="I52" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3051,7 +3051,7 @@
         <v>294</v>
       </c>
       <c r="I53" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3071,15 +3071,15 @@
         <v>295</v>
       </c>
       <c r="I54" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
@@ -3111,7 +3111,7 @@
         <v>297</v>
       </c>
       <c r="I56" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3151,7 +3151,7 @@
         <v>299</v>
       </c>
       <c r="I58" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3176,10 +3176,10 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
         <v>75</v>
@@ -3190,16 +3190,19 @@
       <c r="G60" t="s">
         <v>301</v>
       </c>
+      <c r="H60" t="s">
+        <v>446</v>
+      </c>
       <c r="I60" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>76</v>
@@ -3210,9 +3213,6 @@
       <c r="G61" t="s">
         <v>302</v>
       </c>
-      <c r="H61" t="s">
-        <v>446</v>
-      </c>
       <c r="I61" t="s">
         <v>526</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>303</v>
       </c>
       <c r="I62" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3254,15 +3254,15 @@
         <v>304</v>
       </c>
       <c r="I63" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
         <v>79</v>
@@ -3274,15 +3274,15 @@
         <v>305</v>
       </c>
       <c r="I64" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
         <v>80</v>
@@ -3313,16 +3313,19 @@
       <c r="G66" t="s">
         <v>307</v>
       </c>
+      <c r="H66" t="s">
+        <v>447</v>
+      </c>
       <c r="I66" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
         <v>82</v>
@@ -3333,11 +3336,8 @@
       <c r="G67" t="s">
         <v>308</v>
       </c>
-      <c r="H67" t="s">
-        <v>447</v>
-      </c>
       <c r="I67" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3360,7 +3360,7 @@
         <v>448</v>
       </c>
       <c r="I68" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3383,7 +3383,7 @@
         <v>449</v>
       </c>
       <c r="I69" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3399,22 +3399,16 @@
       <c r="F70" t="s">
         <v>240</v>
       </c>
-      <c r="G70" t="s">
-        <v>311</v>
-      </c>
-      <c r="H70" t="s">
-        <v>450</v>
-      </c>
       <c r="I70" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
         <v>86</v>
@@ -3423,7 +3417,7 @@
         <v>240</v>
       </c>
       <c r="G71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I71" t="s">
         <v>527</v>
@@ -3439,22 +3433,25 @@
       <c r="C72" t="s">
         <v>87</v>
       </c>
+      <c r="D72" t="s">
+        <v>230</v>
+      </c>
       <c r="F72" t="s">
         <v>240</v>
       </c>
       <c r="G72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I72" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
         <v>88</v>
@@ -3463,7 +3460,7 @@
         <v>240</v>
       </c>
       <c r="G73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I73" t="s">
         <v>527</v>
@@ -3482,16 +3479,19 @@
       <c r="F74" t="s">
         <v>240</v>
       </c>
+      <c r="G74" t="s">
+        <v>314</v>
+      </c>
       <c r="I74" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
@@ -3522,8 +3522,11 @@
       <c r="G76" t="s">
         <v>316</v>
       </c>
+      <c r="H76" t="s">
+        <v>450</v>
+      </c>
       <c r="I76" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3548,17 +3551,14 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
         <v>93</v>
       </c>
-      <c r="D78" t="s">
-        <v>230</v>
-      </c>
       <c r="F78" t="s">
         <v>240</v>
       </c>
@@ -3566,15 +3566,15 @@
         <v>318</v>
       </c>
       <c r="I78" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
         <v>94</v>
@@ -3585,19 +3585,16 @@
       <c r="G79" t="s">
         <v>319</v>
       </c>
-      <c r="H79" t="s">
-        <v>451</v>
-      </c>
       <c r="I79" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
@@ -3608,19 +3605,16 @@
       <c r="G80" t="s">
         <v>320</v>
       </c>
-      <c r="H80" t="s">
-        <v>452</v>
-      </c>
       <c r="I80" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
@@ -3632,15 +3626,15 @@
         <v>321</v>
       </c>
       <c r="I81" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
         <v>97</v>
@@ -3651,8 +3645,11 @@
       <c r="G82" t="s">
         <v>322</v>
       </c>
+      <c r="H82" t="s">
+        <v>451</v>
+      </c>
       <c r="I82" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3677,10 +3674,10 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
         <v>99</v>
@@ -3697,10 +3694,10 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
         <v>100</v>
@@ -3711,8 +3708,11 @@
       <c r="G85" t="s">
         <v>325</v>
       </c>
+      <c r="H85" t="s">
+        <v>452</v>
+      </c>
       <c r="I85" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3735,7 +3735,7 @@
         <v>453</v>
       </c>
       <c r="I86" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3778,15 +3778,15 @@
         <v>454</v>
       </c>
       <c r="I88" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
         <v>104</v>
@@ -3798,7 +3798,7 @@
         <v>329</v>
       </c>
       <c r="I89" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3817,11 +3817,8 @@
       <c r="G90" t="s">
         <v>330</v>
       </c>
-      <c r="H90" t="s">
-        <v>455</v>
-      </c>
       <c r="I90" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3840,19 +3837,16 @@
       <c r="G91" t="s">
         <v>331</v>
       </c>
-      <c r="H91" t="s">
-        <v>456</v>
-      </c>
       <c r="I91" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
         <v>107</v>
@@ -3863,16 +3857,19 @@
       <c r="G92" t="s">
         <v>332</v>
       </c>
+      <c r="H92" t="s">
+        <v>455</v>
+      </c>
       <c r="I92" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
         <v>108</v>
@@ -3884,18 +3881,18 @@
         <v>333</v>
       </c>
       <c r="H93" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I93" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
         <v>109</v>
@@ -3903,14 +3900,11 @@
       <c r="F94" t="s">
         <v>242</v>
       </c>
-      <c r="G94" t="s">
-        <v>334</v>
-      </c>
       <c r="H94" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I94" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3927,7 +3921,7 @@
         <v>242</v>
       </c>
       <c r="G95" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I95" t="s">
         <v>527</v>
@@ -3935,10 +3929,10 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C96" t="s">
         <v>111</v>
@@ -3947,10 +3941,13 @@
         <v>242</v>
       </c>
       <c r="G96" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+      <c r="H96" t="s">
+        <v>458</v>
       </c>
       <c r="I96" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3966,11 +3963,14 @@
       <c r="F97" t="s">
         <v>242</v>
       </c>
+      <c r="G97" t="s">
+        <v>336</v>
+      </c>
       <c r="H97" t="s">
         <v>459</v>
       </c>
       <c r="I97" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4013,15 +4013,15 @@
         <v>338</v>
       </c>
       <c r="I99" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
         <v>115</v>
@@ -4032,8 +4032,11 @@
       <c r="G100" t="s">
         <v>339</v>
       </c>
+      <c r="H100" t="s">
+        <v>461</v>
+      </c>
       <c r="I100" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4052,11 +4055,8 @@
       <c r="G101" t="s">
         <v>340</v>
       </c>
-      <c r="H101" t="s">
-        <v>461</v>
-      </c>
       <c r="I101" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4075,11 +4075,8 @@
       <c r="G102" t="s">
         <v>341</v>
       </c>
-      <c r="H102" t="s">
-        <v>462</v>
-      </c>
       <c r="I102" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4104,10 +4101,10 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
         <v>119</v>
@@ -4119,18 +4116,18 @@
         <v>343</v>
       </c>
       <c r="H104" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I104" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s">
         <v>120</v>
@@ -4142,10 +4139,10 @@
         <v>344</v>
       </c>
       <c r="H105" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I105" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4164,16 +4161,19 @@
       <c r="G106" t="s">
         <v>345</v>
       </c>
+      <c r="H106" t="s">
+        <v>464</v>
+      </c>
       <c r="I106" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
         <v>122</v>
@@ -4188,7 +4188,7 @@
         <v>465</v>
       </c>
       <c r="I107" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4211,7 +4211,7 @@
         <v>466</v>
       </c>
       <c r="I108" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4257,7 +4257,7 @@
         <v>468</v>
       </c>
       <c r="I110" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4303,15 +4303,15 @@
         <v>470</v>
       </c>
       <c r="I112" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
         <v>128</v>
@@ -4326,7 +4326,7 @@
         <v>471</v>
       </c>
       <c r="I113" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4349,7 +4349,7 @@
         <v>472</v>
       </c>
       <c r="I114" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4372,15 +4372,15 @@
         <v>473</v>
       </c>
       <c r="I115" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
         <v>131</v>
@@ -4395,7 +4395,7 @@
         <v>474</v>
       </c>
       <c r="I116" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4428,6 +4428,12 @@
       <c r="F118" t="s">
         <v>245</v>
       </c>
+      <c r="G118" t="s">
+        <v>356</v>
+      </c>
+      <c r="H118" t="s">
+        <v>475</v>
+      </c>
       <c r="I118" t="s">
         <v>527</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>245</v>
       </c>
       <c r="G119" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I119" t="s">
         <v>527</v>
@@ -4454,10 +4460,10 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
         <v>135</v>
@@ -4466,10 +4472,10 @@
         <v>245</v>
       </c>
       <c r="G120" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H120" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I120" t="s">
         <v>526</v>
@@ -4477,10 +4483,10 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
         <v>136</v>
@@ -4489,10 +4495,10 @@
         <v>245</v>
       </c>
       <c r="G121" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I121" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4509,13 +4515,10 @@
         <v>245</v>
       </c>
       <c r="G122" t="s">
-        <v>359</v>
-      </c>
-      <c r="H122" t="s">
-        <v>476</v>
+        <v>360</v>
       </c>
       <c r="I122" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4531,9 +4534,6 @@
       <c r="F123" t="s">
         <v>245</v>
       </c>
-      <c r="G123" t="s">
-        <v>360</v>
-      </c>
       <c r="H123" t="s">
         <v>477</v>
       </c>
@@ -4543,10 +4543,10 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
         <v>139</v>
@@ -4561,7 +4561,7 @@
         <v>478</v>
       </c>
       <c r="I124" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4580,6 +4580,9 @@
       <c r="G125" t="s">
         <v>362</v>
       </c>
+      <c r="H125" t="s">
+        <v>479</v>
+      </c>
       <c r="I125" t="s">
         <v>527</v>
       </c>
@@ -4597,16 +4600,22 @@
       <c r="F126" t="s">
         <v>245</v>
       </c>
+      <c r="G126" t="s">
+        <v>363</v>
+      </c>
+      <c r="H126" t="s">
+        <v>480</v>
+      </c>
       <c r="I126" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
         <v>142</v>
@@ -4615,13 +4624,13 @@
         <v>245</v>
       </c>
       <c r="G127" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H127" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I127" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4638,21 +4647,21 @@
         <v>245</v>
       </c>
       <c r="G128" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H128" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="I128" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
         <v>144</v>
@@ -4661,13 +4670,13 @@
         <v>245</v>
       </c>
       <c r="G129" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H129" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="I129" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4684,7 +4693,7 @@
         <v>245</v>
       </c>
       <c r="G130" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I130" t="s">
         <v>527</v>
@@ -4692,10 +4701,10 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C131" t="s">
         <v>146</v>
@@ -4704,13 +4713,13 @@
         <v>245</v>
       </c>
       <c r="G131" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H131" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I131" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4727,10 +4736,7 @@
         <v>245</v>
       </c>
       <c r="G132" t="s">
-        <v>368</v>
-      </c>
-      <c r="H132" t="s">
-        <v>483</v>
+        <v>369</v>
       </c>
       <c r="I132" t="s">
         <v>527</v>
@@ -4750,7 +4756,10 @@
         <v>245</v>
       </c>
       <c r="G133" t="s">
-        <v>369</v>
+        <v>370</v>
+      </c>
+      <c r="H133" t="s">
+        <v>485</v>
       </c>
       <c r="I133" t="s">
         <v>531</v>
@@ -4769,19 +4778,22 @@
       <c r="F134" t="s">
         <v>245</v>
       </c>
+      <c r="G134" t="s">
+        <v>371</v>
+      </c>
       <c r="H134" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="I134" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
         <v>150</v>
@@ -4790,18 +4802,21 @@
         <v>245</v>
       </c>
       <c r="G135" t="s">
-        <v>370</v>
+        <v>372</v>
+      </c>
+      <c r="H135" t="s">
+        <v>487</v>
       </c>
       <c r="I135" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
         <v>151</v>
@@ -4809,14 +4824,8 @@
       <c r="F136" t="s">
         <v>245</v>
       </c>
-      <c r="G136" t="s">
-        <v>371</v>
-      </c>
-      <c r="H136" t="s">
-        <v>485</v>
-      </c>
       <c r="I136" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4832,11 +4841,11 @@
       <c r="F137" t="s">
         <v>245</v>
       </c>
-      <c r="H137" t="s">
-        <v>486</v>
+      <c r="G137" t="s">
+        <v>373</v>
       </c>
       <c r="I137" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4852,14 +4861,8 @@
       <c r="F138" t="s">
         <v>245</v>
       </c>
-      <c r="G138" t="s">
-        <v>372</v>
-      </c>
-      <c r="H138" t="s">
-        <v>487</v>
-      </c>
       <c r="I138" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4876,10 +4879,7 @@
         <v>245</v>
       </c>
       <c r="G139" t="s">
-        <v>373</v>
-      </c>
-      <c r="H139" t="s">
-        <v>488</v>
+        <v>374</v>
       </c>
       <c r="I139" t="s">
         <v>527</v>
@@ -4899,10 +4899,10 @@
         <v>245</v>
       </c>
       <c r="G140" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H140" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I140" t="s">
         <v>527</v>
@@ -4910,10 +4910,10 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C141" t="s">
         <v>156</v>
@@ -4922,10 +4922,10 @@
         <v>245</v>
       </c>
       <c r="G141" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I141" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4941,12 +4941,6 @@
       <c r="F142" t="s">
         <v>245</v>
       </c>
-      <c r="G142" t="s">
-        <v>376</v>
-      </c>
-      <c r="H142" t="s">
-        <v>490</v>
-      </c>
       <c r="I142" t="s">
         <v>527</v>
       </c>
@@ -4967,8 +4961,11 @@
       <c r="G143" t="s">
         <v>377</v>
       </c>
+      <c r="H143" t="s">
+        <v>489</v>
+      </c>
       <c r="I143" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4984,14 +4981,11 @@
       <c r="F144" t="s">
         <v>245</v>
       </c>
-      <c r="G144" t="s">
-        <v>378</v>
-      </c>
       <c r="H144" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I144" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5007,12 +5001,6 @@
       <c r="F145" t="s">
         <v>245</v>
       </c>
-      <c r="G145" t="s">
-        <v>379</v>
-      </c>
-      <c r="H145" t="s">
-        <v>492</v>
-      </c>
       <c r="I145" t="s">
         <v>527</v>
       </c>
@@ -5031,10 +5019,10 @@
         <v>245</v>
       </c>
       <c r="G146" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I146" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5050,8 +5038,14 @@
       <c r="F147" t="s">
         <v>245</v>
       </c>
+      <c r="G147" t="s">
+        <v>379</v>
+      </c>
+      <c r="H147" t="s">
+        <v>491</v>
+      </c>
       <c r="I147" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5068,10 +5062,10 @@
         <v>245</v>
       </c>
       <c r="G148" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I148" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5087,6 +5081,12 @@
       <c r="F149" t="s">
         <v>245</v>
       </c>
+      <c r="G149" t="s">
+        <v>381</v>
+      </c>
+      <c r="H149" t="s">
+        <v>492</v>
+      </c>
       <c r="I149" t="s">
         <v>527</v>
       </c>
@@ -5108,15 +5108,15 @@
         <v>382</v>
       </c>
       <c r="I150" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C151" t="s">
         <v>166</v>
@@ -5127,8 +5127,11 @@
       <c r="G151" t="s">
         <v>383</v>
       </c>
+      <c r="H151" t="s">
+        <v>493</v>
+      </c>
       <c r="I151" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5147,11 +5150,8 @@
       <c r="G152" t="s">
         <v>384</v>
       </c>
-      <c r="H152" t="s">
-        <v>493</v>
-      </c>
       <c r="I152" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5171,7 +5171,7 @@
         <v>385</v>
       </c>
       <c r="I153" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5190,16 +5190,19 @@
       <c r="G154" t="s">
         <v>386</v>
       </c>
+      <c r="H154" t="s">
+        <v>494</v>
+      </c>
       <c r="I154" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B155" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
         <v>170</v>
@@ -5211,7 +5214,7 @@
         <v>387</v>
       </c>
       <c r="I155" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5231,10 +5234,10 @@
         <v>388</v>
       </c>
       <c r="H156" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I156" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5253,16 +5256,19 @@
       <c r="G157" t="s">
         <v>389</v>
       </c>
+      <c r="H157" t="s">
+        <v>496</v>
+      </c>
       <c r="I157" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
         <v>173</v>
@@ -5274,7 +5280,7 @@
         <v>390</v>
       </c>
       <c r="H158" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I158" t="s">
         <v>532</v>
@@ -5296,16 +5302,19 @@
       <c r="G159" t="s">
         <v>391</v>
       </c>
+      <c r="H159" t="s">
+        <v>498</v>
+      </c>
       <c r="I159" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C160" t="s">
         <v>175</v>
@@ -5317,10 +5326,10 @@
         <v>392</v>
       </c>
       <c r="H160" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="I160" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5336,11 +5345,14 @@
       <c r="F161" t="s">
         <v>246</v>
       </c>
+      <c r="G161" t="s">
+        <v>393</v>
+      </c>
       <c r="H161" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="I161" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5357,13 +5369,10 @@
         <v>246</v>
       </c>
       <c r="G162" t="s">
-        <v>393</v>
-      </c>
-      <c r="H162" t="s">
-        <v>498</v>
+        <v>394</v>
       </c>
       <c r="I162" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5380,10 +5389,13 @@
         <v>246</v>
       </c>
       <c r="G163" t="s">
-        <v>394</v>
+        <v>395</v>
+      </c>
+      <c r="H163" t="s">
+        <v>501</v>
       </c>
       <c r="I163" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5400,10 +5412,10 @@
         <v>246</v>
       </c>
       <c r="G164" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I164" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5419,19 +5431,19 @@
       <c r="F165" t="s">
         <v>246</v>
       </c>
-      <c r="G165" t="s">
-        <v>396</v>
+      <c r="H165" t="s">
+        <v>502</v>
       </c>
       <c r="I165" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C166" t="s">
         <v>181</v>
@@ -5443,10 +5455,10 @@
         <v>397</v>
       </c>
       <c r="H166" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I166" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5466,10 +5478,10 @@
         <v>398</v>
       </c>
       <c r="H167" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="I167" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5489,10 +5501,10 @@
         <v>399</v>
       </c>
       <c r="H168" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="I168" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5508,9 +5520,6 @@
       <c r="F169" t="s">
         <v>246</v>
       </c>
-      <c r="G169" t="s">
-        <v>400</v>
-      </c>
       <c r="I169" t="s">
         <v>531</v>
       </c>
@@ -5529,13 +5538,13 @@
         <v>246</v>
       </c>
       <c r="G170" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H170" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="I170" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5551,11 +5560,11 @@
       <c r="F171" t="s">
         <v>246</v>
       </c>
-      <c r="G171" t="s">
-        <v>402</v>
+      <c r="H171" t="s">
+        <v>507</v>
       </c>
       <c r="I171" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5572,7 +5581,7 @@
         <v>246</v>
       </c>
       <c r="I172" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5589,13 +5598,13 @@
         <v>246</v>
       </c>
       <c r="G173" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H173" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="I173" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -5612,7 +5621,10 @@
         <v>246</v>
       </c>
       <c r="G174" t="s">
-        <v>404</v>
+        <v>402</v>
+      </c>
+      <c r="H174" t="s">
+        <v>509</v>
       </c>
       <c r="I174" t="s">
         <v>527</v>
@@ -5632,13 +5644,10 @@
         <v>246</v>
       </c>
       <c r="G175" t="s">
-        <v>405</v>
-      </c>
-      <c r="H175" t="s">
-        <v>504</v>
+        <v>403</v>
       </c>
       <c r="I175" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5654,11 +5663,11 @@
       <c r="F176" t="s">
         <v>246</v>
       </c>
-      <c r="H176" t="s">
-        <v>505</v>
+      <c r="G176" t="s">
+        <v>404</v>
       </c>
       <c r="I176" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -5675,13 +5684,13 @@
         <v>246</v>
       </c>
       <c r="G177" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H177" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="I177" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5698,13 +5707,10 @@
         <v>246</v>
       </c>
       <c r="G178" t="s">
-        <v>407</v>
-      </c>
-      <c r="H178" t="s">
-        <v>507</v>
+        <v>406</v>
       </c>
       <c r="I178" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5721,10 +5727,13 @@
         <v>246</v>
       </c>
       <c r="G179" t="s">
-        <v>408</v>
+        <v>407</v>
+      </c>
+      <c r="H179" t="s">
+        <v>511</v>
       </c>
       <c r="I179" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -5741,13 +5750,13 @@
         <v>246</v>
       </c>
       <c r="G180" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H180" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="I180" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5763,8 +5772,14 @@
       <c r="F181" t="s">
         <v>246</v>
       </c>
+      <c r="G181" t="s">
+        <v>409</v>
+      </c>
+      <c r="H181" t="s">
+        <v>513</v>
+      </c>
       <c r="I181" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -5780,8 +5795,8 @@
       <c r="F182" t="s">
         <v>246</v>
       </c>
-      <c r="H182" t="s">
-        <v>509</v>
+      <c r="G182" t="s">
+        <v>410</v>
       </c>
       <c r="I182" t="s">
         <v>529</v>
@@ -5801,10 +5816,7 @@
         <v>246</v>
       </c>
       <c r="G183" t="s">
-        <v>410</v>
-      </c>
-      <c r="H183" t="s">
-        <v>510</v>
+        <v>411</v>
       </c>
       <c r="I183" t="s">
         <v>527</v>
@@ -5824,21 +5836,21 @@
         <v>246</v>
       </c>
       <c r="G184" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H184" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="I184" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C185" t="s">
         <v>200</v>
@@ -5847,13 +5859,13 @@
         <v>246</v>
       </c>
       <c r="G185" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H185" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="I185" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -5869,19 +5881,22 @@
       <c r="F186" t="s">
         <v>246</v>
       </c>
+      <c r="G186" t="s">
+        <v>414</v>
+      </c>
       <c r="H186" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="I186" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C187" t="s">
         <v>202</v>
@@ -5890,13 +5905,10 @@
         <v>246</v>
       </c>
       <c r="G187" t="s">
-        <v>413</v>
-      </c>
-      <c r="H187" t="s">
-        <v>514</v>
+        <v>415</v>
       </c>
       <c r="I187" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -5913,21 +5925,18 @@
         <v>246</v>
       </c>
       <c r="G188" t="s">
-        <v>414</v>
-      </c>
-      <c r="H188" t="s">
-        <v>515</v>
+        <v>416</v>
       </c>
       <c r="I188" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C189" t="s">
         <v>204</v>
@@ -5935,11 +5944,11 @@
       <c r="F189" t="s">
         <v>246</v>
       </c>
-      <c r="G189" t="s">
-        <v>415</v>
+      <c r="H189" t="s">
+        <v>517</v>
       </c>
       <c r="I189" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -5956,7 +5965,7 @@
         <v>246</v>
       </c>
       <c r="G190" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I190" t="s">
         <v>527</v>
@@ -5964,10 +5973,10 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C191" t="s">
         <v>206</v>
@@ -5975,14 +5984,11 @@
       <c r="F191" t="s">
         <v>246</v>
       </c>
-      <c r="G191" t="s">
-        <v>417</v>
-      </c>
       <c r="H191" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="I191" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6001,8 +6007,11 @@
       <c r="G192" t="s">
         <v>418</v>
       </c>
+      <c r="H192" t="s">
+        <v>519</v>
+      </c>
       <c r="I192" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6022,18 +6031,18 @@
         <v>419</v>
       </c>
       <c r="H193" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="I193" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C194" t="s">
         <v>209</v>
@@ -6044,8 +6053,11 @@
       <c r="G194" t="s">
         <v>420</v>
       </c>
+      <c r="H194" t="s">
+        <v>521</v>
+      </c>
       <c r="I194" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6064,19 +6076,16 @@
       <c r="G195" t="s">
         <v>421</v>
       </c>
-      <c r="H195" t="s">
-        <v>518</v>
-      </c>
       <c r="I195" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C196" t="s">
         <v>211</v>
@@ -6088,18 +6097,18 @@
         <v>422</v>
       </c>
       <c r="H196" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="I196" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B197" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C197" t="s">
         <v>212</v>
@@ -6130,19 +6139,16 @@
       <c r="G198" t="s">
         <v>424</v>
       </c>
-      <c r="H198" t="s">
-        <v>520</v>
-      </c>
       <c r="I198" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C199" t="s">
         <v>214</v>
@@ -6153,11 +6159,8 @@
       <c r="G199" t="s">
         <v>425</v>
       </c>
-      <c r="H199" t="s">
-        <v>521</v>
-      </c>
       <c r="I199" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6176,11 +6179,8 @@
       <c r="G200" t="s">
         <v>426</v>
       </c>
-      <c r="H200" t="s">
-        <v>522</v>
-      </c>
       <c r="I200" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6203,7 +6203,7 @@
         <v>523</v>
       </c>
       <c r="I201" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6226,15 +6226,15 @@
         <v>524</v>
       </c>
       <c r="I202" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C203" t="s">
         <v>218</v>
@@ -6243,15 +6243,15 @@
         <v>429</v>
       </c>
       <c r="I203" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B204" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C204" t="s">
         <v>219</v>
@@ -6260,7 +6260,7 @@
         <v>430</v>
       </c>
       <c r="I204" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6277,7 +6277,7 @@
         <v>431</v>
       </c>
       <c r="I205" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -6311,7 +6311,7 @@
         <v>433</v>
       </c>
       <c r="I207" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -6328,7 +6328,7 @@
         <v>434</v>
       </c>
       <c r="I208" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6345,7 +6345,7 @@
         <v>435</v>
       </c>
       <c r="I209" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -6412,11 +6412,8 @@
       <c r="G213" t="s">
         <v>439</v>
       </c>
-      <c r="H213" t="s">
-        <v>525</v>
-      </c>
       <c r="I213" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -6432,8 +6429,11 @@
       <c r="G214" t="s">
         <v>440</v>
       </c>
+      <c r="H214" t="s">
+        <v>525</v>
+      </c>
       <c r="I214" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/002cp4060/liste_essais_cliniques_identifies_002cp4060.xlsx
+++ b/publipostage2/002cp4060/liste_essais_cliniques_identifies_002cp4060.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="545">
   <si>
     <t>statut</t>
   </si>
@@ -55,16 +55,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00299650</t>
@@ -73,175 +73,181 @@
     <t>NCT00769912</t>
   </si>
   <si>
+    <t>NCT00947778</t>
+  </si>
+  <si>
+    <t>NCT00769236</t>
+  </si>
+  <si>
+    <t>NCT00683566</t>
+  </si>
+  <si>
+    <t>NCT00725868</t>
+  </si>
+  <si>
     <t>NCT00947817</t>
   </si>
   <si>
-    <t>NCT00947778</t>
+    <t>NCT04755023</t>
+  </si>
+  <si>
+    <t>NCT00623272</t>
+  </si>
+  <si>
+    <t>NCT03405948</t>
   </si>
   <si>
     <t>NCT00726206</t>
   </si>
   <si>
-    <t>NCT00769236</t>
-  </si>
-  <si>
-    <t>NCT00725868</t>
-  </si>
-  <si>
-    <t>NCT04755023</t>
-  </si>
-  <si>
-    <t>NCT00683566</t>
-  </si>
-  <si>
-    <t>NCT00623272</t>
-  </si>
-  <si>
-    <t>NCT03405948</t>
-  </si>
-  <si>
     <t>NCT00702429</t>
   </si>
   <si>
+    <t>NCT00950209</t>
+  </si>
+  <si>
+    <t>NCT00682409</t>
+  </si>
+  <si>
+    <t>NCT00769574</t>
+  </si>
+  <si>
     <t>NCT01118364</t>
   </si>
   <si>
+    <t>NCT00682903</t>
+  </si>
+  <si>
+    <t>NCT00824889</t>
+  </si>
+  <si>
+    <t>NCT00699868</t>
+  </si>
+  <si>
+    <t>NCT00842166</t>
+  </si>
+  <si>
+    <t>NCT01177436</t>
+  </si>
+  <si>
+    <t>NCT00684281</t>
+  </si>
+  <si>
     <t>NCT00697398</t>
   </si>
   <si>
-    <t>NCT00682903</t>
-  </si>
-  <si>
-    <t>NCT00950209</t>
-  </si>
-  <si>
-    <t>NCT00699868</t>
-  </si>
-  <si>
-    <t>NCT00684281</t>
-  </si>
-  <si>
-    <t>NCT00682409</t>
-  </si>
-  <si>
-    <t>NCT01177436</t>
-  </si>
-  <si>
-    <t>NCT00824889</t>
-  </si>
-  <si>
-    <t>NCT00842166</t>
-  </si>
-  <si>
-    <t>NCT00769574</t>
+    <t>NCT01687452</t>
+  </si>
+  <si>
+    <t>NCT00684034</t>
+  </si>
+  <si>
+    <t>NCT01505790</t>
+  </si>
+  <si>
+    <t>NCT00875407</t>
+  </si>
+  <si>
+    <t>NCT01177475</t>
   </si>
   <si>
     <t>NCT00920673</t>
   </si>
   <si>
+    <t>NCT00920114</t>
+  </si>
+  <si>
     <t>NCT01090232</t>
   </si>
   <si>
-    <t>NCT00920114</t>
-  </si>
-  <si>
-    <t>NCT00684034</t>
-  </si>
-  <si>
     <t>NCT00823589</t>
   </si>
   <si>
-    <t>NCT01687452</t>
-  </si>
-  <si>
-    <t>NCT00875407</t>
-  </si>
-  <si>
-    <t>NCT01177475</t>
-  </si>
-  <si>
-    <t>NCT01505790</t>
+    <t>NCT01058161</t>
+  </si>
+  <si>
+    <t>NCT01177423</t>
+  </si>
+  <si>
+    <t>NCT01626612</t>
+  </si>
+  <si>
+    <t>NCT00731016</t>
+  </si>
+  <si>
+    <t>NCT01286714</t>
+  </si>
+  <si>
+    <t>NCT01032564</t>
   </si>
   <si>
     <t>NCT00920335</t>
   </si>
   <si>
-    <t>NCT00731016</t>
-  </si>
-  <si>
     <t>NCT01900457</t>
   </si>
   <si>
-    <t>NCT01058161</t>
-  </si>
-  <si>
-    <t>NCT01177423</t>
-  </si>
-  <si>
-    <t>NCT01286714</t>
-  </si>
-  <si>
-    <t>NCT01626612</t>
-  </si>
-  <si>
     <t>NCT00484653</t>
   </si>
   <si>
-    <t>NCT01032564</t>
+    <t>NCT01626534</t>
+  </si>
+  <si>
+    <t>NCT01125319</t>
+  </si>
+  <si>
+    <t>NCT00767962</t>
+  </si>
+  <si>
+    <t>NCT01172015</t>
   </si>
   <si>
     <t>NCT01813279</t>
   </si>
   <si>
-    <t>NCT01626534</t>
+    <t>NCT01865422</t>
+  </si>
+  <si>
+    <t>NCT01946334</t>
+  </si>
+  <si>
+    <t>NCT01901003</t>
+  </si>
+  <si>
+    <t>NCT01295333</t>
+  </si>
+  <si>
+    <t>NCT01687361</t>
   </si>
   <si>
     <t>NCT01284803</t>
   </si>
   <si>
-    <t>NCT01901003</t>
-  </si>
-  <si>
-    <t>NCT00767962</t>
-  </si>
-  <si>
-    <t>NCT01865422</t>
-  </si>
-  <si>
-    <t>NCT01946334</t>
-  </si>
-  <si>
-    <t>NCT01125319</t>
-  </si>
-  <si>
-    <t>NCT01172015</t>
-  </si>
-  <si>
-    <t>NCT01687361</t>
-  </si>
-  <si>
-    <t>NCT01295333</t>
+    <t>NCT02038426</t>
+  </si>
+  <si>
+    <t>NCT01964742</t>
+  </si>
+  <si>
+    <t>NCT01613365</t>
+  </si>
+  <si>
+    <t>NCT02042664</t>
+  </si>
+  <si>
+    <t>NCT01865435</t>
+  </si>
+  <si>
+    <t>NCT02164214</t>
   </si>
   <si>
     <t>NCT01284686</t>
   </si>
   <si>
-    <t>NCT02164214</t>
-  </si>
-  <si>
-    <t>NCT02042664</t>
-  </si>
-  <si>
-    <t>NCT01964742</t>
-  </si>
-  <si>
     <t>NCT01693796</t>
   </si>
   <si>
-    <t>NCT01865435</t>
-  </si>
-  <si>
-    <t>NCT01613365</t>
+    <t>NCT01954381</t>
   </si>
   <si>
     <t>NCT01687348</t>
@@ -250,274 +256,286 @@
     <t>NCT02585739</t>
   </si>
   <si>
-    <t>NCT01954381</t>
-  </si>
-  <si>
-    <t>NCT02038426</t>
-  </si>
-  <si>
     <t>NCT01287728</t>
   </si>
   <si>
+    <t>NCT02899039</t>
+  </si>
+  <si>
+    <t>NCT01999829</t>
+  </si>
+  <si>
+    <t>NCT02885883</t>
+  </si>
+  <si>
     <t>NCT01284673</t>
   </si>
   <si>
-    <t>NCT01999829</t>
-  </si>
-  <si>
-    <t>NCT02899039</t>
-  </si>
-  <si>
-    <t>NCT02885883</t>
+    <t>NCT02727868</t>
+  </si>
+  <si>
+    <t>NCT02471924</t>
   </si>
   <si>
     <t>NCT02879344</t>
   </si>
   <si>
+    <t>NCT00990691</t>
+  </si>
+  <si>
+    <t>NCT01697423</t>
+  </si>
+  <si>
+    <t>NCT02866513</t>
+  </si>
+  <si>
+    <t>NCT01675726</t>
+  </si>
+  <si>
+    <t>NCT02608255</t>
+  </si>
+  <si>
     <t>NCT02352129</t>
   </si>
   <si>
-    <t>NCT00990691</t>
-  </si>
-  <si>
-    <t>NCT01675726</t>
-  </si>
-  <si>
-    <t>NCT01697423</t>
-  </si>
-  <si>
-    <t>NCT02471924</t>
-  </si>
-  <si>
-    <t>NCT02727868</t>
-  </si>
-  <si>
-    <t>NCT02608255</t>
-  </si>
-  <si>
-    <t>NCT02866513</t>
+    <t>NCT01599533</t>
+  </si>
+  <si>
+    <t>NCT03164122</t>
+  </si>
+  <si>
+    <t>NCT02636127</t>
+  </si>
+  <si>
+    <t>NCT02750579</t>
+  </si>
+  <si>
+    <t>NCT02866578</t>
+  </si>
+  <si>
+    <t>NCT02622464</t>
   </si>
   <si>
     <t>NCT02117037</t>
   </si>
   <si>
-    <t>NCT02750579</t>
+    <t>NCT02732769</t>
   </si>
   <si>
     <t>NCT02520843</t>
   </si>
   <si>
-    <t>NCT02866578</t>
-  </si>
-  <si>
-    <t>NCT01599533</t>
-  </si>
-  <si>
-    <t>NCT02622464</t>
-  </si>
-  <si>
-    <t>NCT03164122</t>
+    <t>NCT02428725</t>
   </si>
   <si>
     <t>NCT02303925</t>
   </si>
   <si>
-    <t>NCT02428725</t>
-  </si>
-  <si>
-    <t>NCT02732769</t>
-  </si>
-  <si>
-    <t>NCT02636127</t>
-  </si>
-  <si>
     <t>NCT03588468</t>
   </si>
   <si>
     <t>NCT02861768</t>
   </si>
   <si>
+    <t>NCT03322618</t>
+  </si>
+  <si>
+    <t>NCT02892890</t>
+  </si>
+  <si>
     <t>NCT03592589</t>
   </si>
   <si>
     <t>NCT02875964</t>
   </si>
   <si>
-    <t>NCT02892890</t>
+    <t>NCT02757794</t>
+  </si>
+  <si>
+    <t>NCT02304029</t>
+  </si>
+  <si>
+    <t>NCT03218007</t>
   </si>
   <si>
     <t>NCT03292120</t>
   </si>
   <si>
-    <t>NCT02757794</t>
-  </si>
-  <si>
-    <t>NCT02304029</t>
-  </si>
-  <si>
-    <t>NCT03322618</t>
-  </si>
-  <si>
-    <t>NCT03218007</t>
+    <t>NCT04632602</t>
+  </si>
+  <si>
+    <t>NCT02608203</t>
+  </si>
+  <si>
+    <t>NCT03118336</t>
+  </si>
+  <si>
+    <t>NCT03640806</t>
+  </si>
+  <si>
+    <t>NCT01987024</t>
+  </si>
+  <si>
+    <t>NCT03245983</t>
+  </si>
+  <si>
+    <t>NCT03979586</t>
+  </si>
+  <si>
+    <t>NCT03418402</t>
+  </si>
+  <si>
+    <t>NCT03765853</t>
   </si>
   <si>
     <t>NCT02586870</t>
   </si>
   <si>
-    <t>NCT03640806</t>
-  </si>
-  <si>
-    <t>NCT01987024</t>
-  </si>
-  <si>
-    <t>NCT03979586</t>
-  </si>
-  <si>
-    <t>NCT04632602</t>
-  </si>
-  <si>
-    <t>NCT03118336</t>
-  </si>
-  <si>
-    <t>NCT03245983</t>
-  </si>
-  <si>
-    <t>NCT03418402</t>
-  </si>
-  <si>
-    <t>NCT02608203</t>
-  </si>
-  <si>
-    <t>NCT03765853</t>
+    <t>NCT04371367</t>
+  </si>
+  <si>
+    <t>NCT03582852</t>
+  </si>
+  <si>
+    <t>NCT03961581</t>
+  </si>
+  <si>
+    <t>NCT03659266</t>
+  </si>
+  <si>
+    <t>NCT02761304</t>
+  </si>
+  <si>
+    <t>NCT04579276</t>
   </si>
   <si>
     <t>NCT02872441</t>
   </si>
   <si>
-    <t>NCT02761304</t>
-  </si>
-  <si>
-    <t>NCT03582852</t>
-  </si>
-  <si>
-    <t>NCT03961581</t>
-  </si>
-  <si>
-    <t>NCT04579276</t>
-  </si>
-  <si>
-    <t>NCT03659266</t>
-  </si>
-  <si>
-    <t>NCT04371367</t>
+    <t>NCT02288832</t>
+  </si>
+  <si>
+    <t>NCT02848703</t>
+  </si>
+  <si>
+    <t>NCT02822807</t>
+  </si>
+  <si>
+    <t>NCT02868411</t>
+  </si>
+  <si>
+    <t>NCT02839642</t>
+  </si>
+  <si>
+    <t>NCT02859779</t>
+  </si>
+  <si>
+    <t>NCT02555007</t>
   </si>
   <si>
     <t>NCT02858609</t>
   </si>
   <si>
+    <t>NCT01957228</t>
+  </si>
+  <si>
+    <t>NCT02868450</t>
+  </si>
+  <si>
+    <t>NCT02858687</t>
+  </si>
+  <si>
+    <t>NCT02473315</t>
+  </si>
+  <si>
+    <t>NCT03630822</t>
+  </si>
+  <si>
+    <t>NCT02866201</t>
+  </si>
+  <si>
+    <t>NCT02851771</t>
+  </si>
+  <si>
+    <t>NCT03043014</t>
+  </si>
+  <si>
+    <t>NCT02819206</t>
+  </si>
+  <si>
     <t>NCT02816307</t>
   </si>
   <si>
-    <t>NCT02473315</t>
-  </si>
-  <si>
-    <t>NCT02288832</t>
+    <t>NCT02422043</t>
+  </si>
+  <si>
+    <t>NCT03628261</t>
+  </si>
+  <si>
+    <t>NCT02827175</t>
+  </si>
+  <si>
+    <t>NCT02858661</t>
+  </si>
+  <si>
+    <t>NCT02819128</t>
+  </si>
+  <si>
+    <t>NCT02834104</t>
+  </si>
+  <si>
+    <t>NCT03660215</t>
+  </si>
+  <si>
+    <t>NCT02018835</t>
+  </si>
+  <si>
+    <t>NCT02819232</t>
+  </si>
+  <si>
+    <t>NCT01678469</t>
+  </si>
+  <si>
+    <t>NCT04694313</t>
+  </si>
+  <si>
+    <t>NCT02868346</t>
+  </si>
+  <si>
+    <t>NCT02828085</t>
   </si>
   <si>
     <t>NCT02209142</t>
   </si>
   <si>
-    <t>NCT02834104</t>
-  </si>
-  <si>
-    <t>NCT02868450</t>
-  </si>
-  <si>
-    <t>NCT03043014</t>
-  </si>
-  <si>
-    <t>NCT03660215</t>
-  </si>
-  <si>
-    <t>NCT02822807</t>
+    <t>NCT03179644</t>
+  </si>
+  <si>
+    <t>NCT03974958</t>
+  </si>
+  <si>
+    <t>NCT02038348</t>
   </si>
   <si>
     <t>NCT02000011</t>
   </si>
   <si>
-    <t>NCT02859779</t>
-  </si>
-  <si>
-    <t>NCT04694313</t>
-  </si>
-  <si>
-    <t>NCT02827175</t>
-  </si>
-  <si>
-    <t>NCT02819232</t>
-  </si>
-  <si>
-    <t>NCT02819206</t>
-  </si>
-  <si>
-    <t>NCT02828085</t>
-  </si>
-  <si>
-    <t>NCT02839642</t>
-  </si>
-  <si>
-    <t>NCT02555007</t>
-  </si>
-  <si>
-    <t>NCT02858687</t>
-  </si>
-  <si>
-    <t>NCT02848703</t>
-  </si>
-  <si>
-    <t>NCT02858661</t>
-  </si>
-  <si>
-    <t>NCT02851771</t>
-  </si>
-  <si>
-    <t>NCT02819128</t>
-  </si>
-  <si>
-    <t>NCT01957228</t>
-  </si>
-  <si>
-    <t>NCT02868411</t>
-  </si>
-  <si>
-    <t>NCT03628261</t>
-  </si>
-  <si>
-    <t>NCT02866201</t>
-  </si>
-  <si>
-    <t>NCT02868346</t>
-  </si>
-  <si>
-    <t>NCT02038348</t>
-  </si>
-  <si>
-    <t>NCT03974958</t>
-  </si>
-  <si>
-    <t>NCT03179644</t>
-  </si>
-  <si>
-    <t>NCT01678469</t>
-  </si>
-  <si>
-    <t>NCT02018835</t>
-  </si>
-  <si>
-    <t>NCT03630822</t>
-  </si>
-  <si>
-    <t>NCT02422043</t>
+    <t>NCT03659045</t>
+  </si>
+  <si>
+    <t>NCT03341949</t>
+  </si>
+  <si>
+    <t>NCT05250713</t>
+  </si>
+  <si>
+    <t>NCT01991249</t>
+  </si>
+  <si>
+    <t>NCT02307747</t>
+  </si>
+  <si>
+    <t>NCT02571790</t>
   </si>
   <si>
     <t>NCT02038361</t>
@@ -526,166 +544,157 @@
     <t>NCT02186678</t>
   </si>
   <si>
-    <t>NCT02307747</t>
+    <t>NCT03339908</t>
+  </si>
+  <si>
+    <t>NCT01693965</t>
+  </si>
+  <si>
+    <t>NCT03297203</t>
+  </si>
+  <si>
+    <t>NCT02904967</t>
+  </si>
+  <si>
+    <t>NCT04369820</t>
+  </si>
+  <si>
+    <t>NCT01613625</t>
+  </si>
+  <si>
+    <t>NCT03852108</t>
+  </si>
+  <si>
+    <t>NCT02732392</t>
+  </si>
+  <si>
+    <t>NCT02559466</t>
+  </si>
+  <si>
+    <t>NCT02827955</t>
+  </si>
+  <si>
+    <t>NCT03636932</t>
+  </si>
+  <si>
+    <t>NCT02669056</t>
   </si>
   <si>
     <t>NCT05325047</t>
   </si>
   <si>
-    <t>NCT03341949</t>
-  </si>
-  <si>
-    <t>NCT03297203</t>
+    <t>NCT02150408</t>
+  </si>
+  <si>
+    <t>NCT03406741</t>
+  </si>
+  <si>
+    <t>NCT03581331</t>
+  </si>
+  <si>
+    <t>NCT01285817</t>
+  </si>
+  <si>
+    <t>NCT01284699</t>
   </si>
   <si>
     <t>NCT02484677</t>
   </si>
   <si>
+    <t>NCT01916005</t>
+  </si>
+  <si>
+    <t>NCT00682812</t>
+  </si>
+  <si>
+    <t>NCT02885363</t>
+  </si>
+  <si>
+    <t>NCT02562157</t>
+  </si>
+  <si>
+    <t>NCT02900014</t>
+  </si>
+  <si>
+    <t>NCT01947218</t>
+  </si>
+  <si>
+    <t>NCT02120040</t>
+  </si>
+  <si>
+    <t>NCT02904863</t>
+  </si>
+  <si>
+    <t>NCT02186691</t>
+  </si>
+  <si>
+    <t>NCT02205060</t>
+  </si>
+  <si>
+    <t>NCT02296216</t>
+  </si>
+  <si>
     <t>NCT02872415</t>
   </si>
   <si>
-    <t>NCT03659045</t>
-  </si>
-  <si>
-    <t>NCT02562157</t>
+    <t>NCT03977532</t>
+  </si>
+  <si>
+    <t>NCT01116765</t>
+  </si>
+  <si>
+    <t>NCT02152358</t>
+  </si>
+  <si>
+    <t>NCT02874118</t>
   </si>
   <si>
     <t>NCT02603640</t>
   </si>
   <si>
-    <t>NCT01947218</t>
-  </si>
-  <si>
-    <t>NCT02874118</t>
-  </si>
-  <si>
-    <t>NCT03406741</t>
-  </si>
-  <si>
-    <t>NCT03977532</t>
-  </si>
-  <si>
-    <t>NCT03636932</t>
-  </si>
-  <si>
-    <t>NCT02904967</t>
-  </si>
-  <si>
-    <t>NCT04369820</t>
-  </si>
-  <si>
-    <t>NCT02904863</t>
-  </si>
-  <si>
-    <t>NCT02900014</t>
-  </si>
-  <si>
-    <t>NCT02827955</t>
-  </si>
-  <si>
-    <t>NCT02150408</t>
-  </si>
-  <si>
-    <t>NCT03852108</t>
-  </si>
-  <si>
-    <t>NCT01991249</t>
-  </si>
-  <si>
-    <t>NCT05250713</t>
-  </si>
-  <si>
-    <t>NCT01284699</t>
-  </si>
-  <si>
-    <t>NCT03339908</t>
+    <t>NCT02335996</t>
+  </si>
+  <si>
+    <t>NCT01284829</t>
   </si>
   <si>
     <t>NCT02480699</t>
   </si>
   <si>
-    <t>NCT02571790</t>
-  </si>
-  <si>
-    <t>NCT01916005</t>
-  </si>
-  <si>
-    <t>NCT02669056</t>
-  </si>
-  <si>
-    <t>NCT02296216</t>
-  </si>
-  <si>
-    <t>NCT02152358</t>
-  </si>
-  <si>
     <t>NCT02333565</t>
   </si>
   <si>
-    <t>NCT02559466</t>
-  </si>
-  <si>
-    <t>NCT01116765</t>
-  </si>
-  <si>
-    <t>NCT02885363</t>
-  </si>
-  <si>
-    <t>NCT00682812</t>
-  </si>
-  <si>
-    <t>NCT02120040</t>
-  </si>
-  <si>
-    <t>NCT01285817</t>
-  </si>
-  <si>
-    <t>NCT02335996</t>
-  </si>
-  <si>
-    <t>NCT03581331</t>
-  </si>
-  <si>
-    <t>NCT01613625</t>
-  </si>
-  <si>
-    <t>NCT02732392</t>
-  </si>
-  <si>
-    <t>NCT01284829</t>
-  </si>
-  <si>
-    <t>NCT02186691</t>
-  </si>
-  <si>
-    <t>NCT02205060</t>
-  </si>
-  <si>
-    <t>NCT01693965</t>
+    <t>NCT04782869</t>
   </si>
   <si>
     <t>NCT05407337</t>
   </si>
   <si>
-    <t>NCT04782869</t>
+    <t>NCT00420693</t>
+  </si>
+  <si>
+    <t>NCT01284738</t>
+  </si>
+  <si>
+    <t>NCT00485784</t>
+  </si>
+  <si>
+    <t>NCT00919685</t>
   </si>
   <si>
     <t>NCT00922909</t>
   </si>
   <si>
-    <t>NCT00420693</t>
-  </si>
-  <si>
-    <t>NCT00485784</t>
-  </si>
-  <si>
     <t>NCT00484523</t>
   </si>
   <si>
-    <t>NCT00919685</t>
-  </si>
-  <si>
-    <t>NCT01284738</t>
+    <t>NCT00893568</t>
+  </si>
+  <si>
+    <t>NCT02834130</t>
+  </si>
+  <si>
+    <t>NCT00949520</t>
   </si>
   <si>
     <t>NCT00998231</t>
@@ -694,21 +703,39 @@
     <t>NCT01277068</t>
   </si>
   <si>
-    <t>NCT00893568</t>
-  </si>
-  <si>
     <t>NCT01284816</t>
   </si>
   <si>
-    <t>NCT00949520</t>
-  </si>
-  <si>
-    <t>NCT02834130</t>
+    <t>2007-002791-33</t>
   </si>
   <si>
     <t>2007-006739-30</t>
   </si>
   <si>
+    <t>2016-002648-18</t>
+  </si>
+  <si>
+    <t>2016-003196-21</t>
+  </si>
+  <si>
+    <t>2016-001319-19</t>
+  </si>
+  <si>
+    <t>2018-003232-80</t>
+  </si>
+  <si>
+    <t>2010-021792-81</t>
+  </si>
+  <si>
+    <t>2014-005536-34</t>
+  </si>
+  <si>
+    <t>2012-003312-30</t>
+  </si>
+  <si>
+    <t>2014-003694-42</t>
+  </si>
+  <si>
     <t>2008</t>
   </si>
   <si>
@@ -766,61 +793,73 @@
     <t>Evaluation of of a Prefixed 50% N2O- 50%O2 Mixture in Legal Abortion Under Local Analgesia</t>
   </si>
   <si>
+    <t>Analysis of Language and Auditory Abilities in Cochlear Implanted Children: Assessment by an Auditory Learning Programmed Method</t>
+  </si>
+  <si>
+    <t>Evaluation of Intestinal Secretion of Antibodies and Auto-antibodies Associated With Crohn's Disease</t>
+  </si>
+  <si>
+    <t>State Dependent Resonance in the BG-cortical Loops</t>
+  </si>
+  <si>
+    <t>Blood Endothelium Biomarkers to Predict Major Adverse Cardiovascular Events After Percutaneous Coronary Intervention.</t>
+  </si>
+  <si>
     <t>Impact of Endothelial Cell Activation and Modifications of Haemostasis Induced by Infective Endocarditis on the Risk of Embolism.</t>
   </si>
   <si>
-    <t>Analysis of Language and Auditory Abilities in Cochlear Implanted Children: Assessment by an Auditory Learning Programmed Method</t>
+    <t>Primary Chemotherapy by BCNU-TMZ Combination in Newly Diagnosed Anaplastic Oligodendrocytic Tumors: Phase II Trial With Translational Molecular Analysis</t>
+  </si>
+  <si>
+    <t>Left Ventricular Function Assessment After Acute Myocardial Infarction: Comparison Between bi-, Three-dimensional and Cardiac Magnetic Resonance</t>
+  </si>
+  <si>
+    <t>Efficiency of Botulinum Toxin Injection for Spastic Equinovarus Foot in Post Stroke Hemiparetic Patients Randomized Controlled Trial Versus Placebo</t>
   </si>
   <si>
     <t>Correlation Between the Analysis of the Rapid Cortical Oscillations, the General Movements of the Preterm's and the Cerebral Palsy</t>
   </si>
   <si>
-    <t>Evaluation of Intestinal Secretion of Antibodies and Auto-antibodies Associated With Crohn's Disease</t>
-  </si>
-  <si>
-    <t>Blood Endothelium Biomarkers to Predict Major Adverse Cardiovascular Events After Percutaneous Coronary Intervention.</t>
-  </si>
-  <si>
-    <t>Primary Chemotherapy by BCNU-TMZ Combination in Newly Diagnosed Anaplastic Oligodendrocytic Tumors: Phase II Trial With Translational Molecular Analysis</t>
-  </si>
-  <si>
-    <t>State Dependent Resonance in the BG-cortical Loops</t>
-  </si>
-  <si>
-    <t>Left Ventricular Function Assessment After Acute Myocardial Infarction: Comparison Between bi-, Three-dimensional and Cardiac Magnetic Resonance</t>
-  </si>
-  <si>
-    <t>Efficiency of Botulinum Toxin Injection for Spastic Equinovarus Foot in Post Stroke Hemiparetic Patients Randomized Controlled Trial Versus Placebo</t>
-  </si>
-  <si>
     <t>Immunoregulation of Periodontal Disease</t>
   </si>
   <si>
+    <t>Acute Effect of Intensive Insulin Infusion on Intestinal Triglyceride-rich-lipoprotein-apoB48 Metabolism in Type 2 Diabetic Patients</t>
+  </si>
+  <si>
+    <t>Assessment of New Biomarkers in the Management and Triage of Patients With Chest Pain and Suspicion of Non ST Elevation Acute Coronary Syndrome.</t>
+  </si>
+  <si>
     <t>Effect of Cannabis on Simulated and Actual Driving in Healthy Subjects</t>
   </si>
   <si>
+    <t>Use of a Bearable Continuous Interstitial Glucose Monitoring Device (GuardianR) During Teaching Sessions to Functional Insulin Therapy Concept in Patients Suffering From Type 1 Diabetes: Evaluation at 6 and 12 Months</t>
+  </si>
+  <si>
+    <t>Exploratory Study of Natural Killer Cells in Human Skin</t>
+  </si>
+  <si>
+    <t>Cellular Immunity, Cytomegalovirus Infection and Septic Shock in ICU Patients</t>
+  </si>
+  <si>
+    <t>PCA-3 Gene Project</t>
+  </si>
+  <si>
+    <t>Early Diagnosis of Alzheimer's Disease: Clinical, Neuropsychological and Neuroimaging Follow-up of a Cohort of Patients With an Isolated Memory Impairment</t>
+  </si>
+  <si>
     <t>Repetitive Trans-cranial Magnetic Stimulation of the Motor Cortex in Fibromyalgia: A Prospective Randomized Blinded Placebo-controlled Study Evaluating the Clinical Efficiency and the Metabolic Correlate in 18FDG-PET</t>
   </si>
   <si>
-    <t>Use of a Bearable Continuous Interstitial Glucose Monitoring Device (GuardianR) During Teaching Sessions to Functional Insulin Therapy Concept in Patients Suffering From Type 1 Diabetes: Evaluation at 6 and 12 Months</t>
-  </si>
-  <si>
-    <t>Acute Effect of Intensive Insulin Infusion on Intestinal Triglyceride-rich-lipoprotein-apoB48 Metabolism in Type 2 Diabetic Patients</t>
-  </si>
-  <si>
-    <t>Cellular Immunity, Cytomegalovirus Infection and Septic Shock in ICU Patients</t>
-  </si>
-  <si>
-    <t>Early Diagnosis of Alzheimer's Disease: Clinical, Neuropsychological and Neuroimaging Follow-up of a Cohort of Patients With an Isolated Memory Impairment</t>
-  </si>
-  <si>
-    <t>PCA-3 Gene Project</t>
-  </si>
-  <si>
-    <t>Exploratory Study of Natural Killer Cells in Human Skin</t>
-  </si>
-  <si>
-    <t>Assessment of New Biomarkers in the Management and Triage of Patients With Chest Pain and Suspicion of Non ST Elevation Acute Coronary Syndrome.</t>
+    <t>Microparticles, Vector of Genetic Information During HIV Infection ?</t>
+  </si>
+  <si>
+    <t>Redox State in the Course of Chronic Renal Insufficiency and Hemodialysis: Implications in Morbimortality</t>
+  </si>
+  <si>
+    <t>Impact of Clopidogrel Dose Adjustment According to Platelet Reactivity Monitoring in Patients With High on Treatment Platelet Reactivity Undergoing Percutaneous Coronary Intervention</t>
+  </si>
+  <si>
+    <t>Effect of Intake in Bioactive Molecules From Natural or Pasteurised Milk on Gut Maturation in Very Premature Newborns</t>
   </si>
   <si>
     <t>Age Influence on the Modifications of the Oral, Pharyngeal and Laryngeal Axis Alignment in Children Induced by Head Extension: an MRI Study</t>
@@ -829,97 +868,91 @@
     <t>Host Responses in Kidney-transplant Recipients With Chronic Hepatitis E Virus Infection</t>
   </si>
   <si>
-    <t>Redox State in the Course of Chronic Renal Insufficiency and Hemodialysis: Implications in Morbimortality</t>
-  </si>
-  <si>
     <t>Immune Status of Elderly Population Admitted in an Acute Geriatric Unit</t>
   </si>
   <si>
-    <t>Microparticles, Vector of Genetic Information During HIV Infection ?</t>
-  </si>
-  <si>
-    <t>Effect of Intake in Bioactive Molecules From Natural or Pasteurised Milk on Gut Maturation in Very Premature Newborns</t>
-  </si>
-  <si>
-    <t>Impact of Clopidogrel Dose Adjustment According to Platelet Reactivity Monitoring in Patients With High on Treatment Platelet Reactivity Undergoing Percutaneous Coronary Intervention</t>
+    <t>High-Field MRI Characterization of Wrist and Hand Cartilage Abnormalities in Inflammatory and Chronic Rheumatisms</t>
+  </si>
+  <si>
+    <t>Efficiency Evaluation of Intradiploic Intra-osseus Anesthesia Versus Inferior Alveolar Nerve Block</t>
+  </si>
+  <si>
+    <t>De-escalation of Empirical Antimicrobial Therapy Study in Severe Sepsis: A Randomized Clinical Trial (DEA Study)</t>
+  </si>
+  <si>
+    <t>Treatment of the Hutchinson-Gilford Progeria Syndrome With a Combination of Pravastatin and Zoledronic Acid</t>
+  </si>
+  <si>
+    <t>Assessment of Fistula Closure by OTSC Clip After Bariatric Surgery</t>
   </si>
   <si>
     <t>Adult Intracranial Ependydomas : Prognostic and Diagnostic Factors Assessment and Molecular Characterization</t>
   </si>
   <si>
-    <t>Treatment of the Hutchinson-Gilford Progeria Syndrome With a Combination of Pravastatin and Zoledronic Acid</t>
-  </si>
-  <si>
     <t>Vestibular and Multisensory Influence on Bodily and Spatial Representations. Behavioral and Electrophysiological Investigations in Vestibular-defective Patients and Healthy Volunteers</t>
   </si>
   <si>
-    <t>High-Field MRI Characterization of Wrist and Hand Cartilage Abnormalities in Inflammatory and Chronic Rheumatisms</t>
-  </si>
-  <si>
-    <t>Efficiency Evaluation of Intradiploic Intra-osseus Anesthesia Versus Inferior Alveolar Nerve Block</t>
-  </si>
-  <si>
-    <t>Assessment of Fistula Closure by OTSC Clip After Bariatric Surgery</t>
-  </si>
-  <si>
-    <t>De-escalation of Empirical Antimicrobial Therapy Study in Severe Sepsis: A Randomized Clinical Trial (DEA Study)</t>
-  </si>
-  <si>
     <t>Identification and Impact of Vaginal Flora Anomalies Among Pregnant Woman</t>
   </si>
   <si>
+    <t>Evaluation of Ticagrelor Anti Platelet and Pleiotropic Effects in Patients Undergoing Percutaneous Coronary Intervention for an Acute Coronary Syndrome.</t>
+  </si>
+  <si>
+    <t>Secondary Adult's Hemophagocytic Lymphohistiocytosis and Innate Immunity</t>
+  </si>
+  <si>
+    <t>A Prospective Randomised Study of Efficacy, Safety and Costs of Talc Pleurodesis Under Medical Thoracoscopy and Pleurodesis Under Video-assisted Thoracoscopy Surgery for Recurrent Primary Spontaneous Pneumothorax</t>
+  </si>
+  <si>
+    <t>NK-ITP STUDY : NATURAL KILLER CELLS IN IMMUNOLOGIC THROMBOCYTOPENIC PURPURA OF ADULTS.</t>
+  </si>
+  <si>
     <t>Assessment of the Subcutaneous Reinjection of Human Autologous Adipose-derived Stromal Vascular Fraction (Celution® System) in the Hands of Patients Suffering From Systemic Sclerosis</t>
   </si>
   <si>
-    <t>Evaluation of Ticagrelor Anti Platelet and Pleiotropic Effects in Patients Undergoing Percutaneous Coronary Intervention for an Acute Coronary Syndrome.</t>
+    <t>French Linguistic and Metric Validations of Parent-proxy QOL Chronic Cough Specific Questionnaire (PC-QOL)</t>
+  </si>
+  <si>
+    <t>Does Body Position Influence Pressure Recording by High-resolution Manometry ?</t>
+  </si>
+  <si>
+    <t>SEDATIVE PREMEDICATION: EFFICACY ON PATIENT EXPERIENCE</t>
+  </si>
+  <si>
+    <t>Assessing the Impact of the Early and Systematic Hormonal Replacement After Radio-isotopic Ablation of Graves'hyperthyroïdism on Quality of Life, Efficiency and Tolerance</t>
+  </si>
+  <si>
+    <t>Can Branched Chain Amino Acids Supplementation Reduce Muscle Damage Induced by Neuromuscular Electrical Stimulation ? A Combined Functional and Metabolic Non-invasive Investigation in Healthy Humans.</t>
   </si>
   <si>
     <t>Feasibility and Acceptability of an Educational Intervention to Improve the Management of Depression in Primary Care</t>
   </si>
   <si>
-    <t>SEDATIVE PREMEDICATION: EFFICACY ON PATIENT EXPERIENCE</t>
-  </si>
-  <si>
-    <t>A Prospective Randomised Study of Efficacy, Safety and Costs of Talc Pleurodesis Under Medical Thoracoscopy and Pleurodesis Under Video-assisted Thoracoscopy Surgery for Recurrent Primary Spontaneous Pneumothorax</t>
-  </si>
-  <si>
-    <t>French Linguistic and Metric Validations of Parent-proxy QOL Chronic Cough Specific Questionnaire (PC-QOL)</t>
-  </si>
-  <si>
-    <t>Does Body Position Influence Pressure Recording by High-resolution Manometry ?</t>
-  </si>
-  <si>
-    <t>Secondary Adult's Hemophagocytic Lymphohistiocytosis and Innate Immunity</t>
-  </si>
-  <si>
-    <t>NK-ITP STUDY : NATURAL KILLER CELLS IN IMMUNOLOGIC THROMBOCYTOPENIC PURPURA OF ADULTS.</t>
-  </si>
-  <si>
-    <t>Can Branched Chain Amino Acids Supplementation Reduce Muscle Damage Induced by Neuromuscular Electrical Stimulation ? A Combined Functional and Metabolic Non-invasive Investigation in Healthy Humans.</t>
-  </si>
-  <si>
-    <t>Assessing the Impact of the Early and Systematic Hormonal Replacement After Radio-isotopic Ablation of Graves'hyperthyroïdism on Quality of Life, Efficiency and Tolerance</t>
+    <t>Ultrasonography Assessment of Peripheral Entheses in Axial Spondyloarthritis and in Healthy Subjects, Athletes or Not.</t>
+  </si>
+  <si>
+    <t>Analysis of Host Genetic Factors in the Occurrence of Anemia and on the Virological Response to a Peg-interferon/Ribavirin Therapy in HIV-HCV Co-infected Patients</t>
+  </si>
+  <si>
+    <t>Oropharyngeal and Nasopharyngeal Decontamination With Chlorhexidine Gluconate in the Reduction of the Postoperative Morbidity and Mortality After Major Pulmonary Resections: a Multicentric, Prospective, Randomized, Double-blind, Placebo-controlled Clinical Trial</t>
+  </si>
+  <si>
+    <t>Effect of GLP-1 Receptor (GLP-1R) Agonists on Cardiac Function and on Epicardial Adipose Tissue (EAT) Volume and on Myocardial TG Content in Obese Diabetics</t>
+  </si>
+  <si>
+    <t>IN UTERO SMOKING AND PREMATURE CELLULAR SENESCENCE</t>
+  </si>
+  <si>
+    <t>DOES ETANERCEPT INFLUENCE TWEAK MODULATION OF INFLAMMATION DURING INFLAMMATORY RHEUMATISMS (PSORIATIC ARTHRITIS AND RHEUMATOID ARTHRITIS)?</t>
   </si>
   <si>
     <t>Pathophysiology of Neuronal Oscillations Within Subthalamo-cortical Loops in Parkinson's Disease</t>
   </si>
   <si>
-    <t>DOES ETANERCEPT INFLUENCE TWEAK MODULATION OF INFLAMMATION DURING INFLAMMATORY RHEUMATISMS (PSORIATIC ARTHRITIS AND RHEUMATOID ARTHRITIS)?</t>
-  </si>
-  <si>
-    <t>Effect of GLP-1 Receptor (GLP-1R) Agonists on Cardiac Function and on Epicardial Adipose Tissue (EAT) Volume and on Myocardial TG Content in Obese Diabetics</t>
-  </si>
-  <si>
-    <t>Analysis of Host Genetic Factors in the Occurrence of Anemia and on the Virological Response to a Peg-interferon/Ribavirin Therapy in HIV-HCV Co-infected Patients</t>
-  </si>
-  <si>
     <t>Evaluation of Thyroid Exposure to Radiation Doses During Paediatric Cardiac Catheterisations Performed for Diagnosis or the Treatment of Congenital Heart Disease</t>
   </si>
   <si>
-    <t>IN UTERO SMOKING AND PREMATURE CELLULAR SENESCENCE</t>
-  </si>
-  <si>
-    <t>Oropharyngeal and Nasopharyngeal Decontamination With Chlorhexidine Gluconate in the Reduction of the Postoperative Morbidity and Mortality After Major Pulmonary Resections: a Multicentric, Prospective, Randomized, Double-blind, Placebo-controlled Clinical Trial</t>
+    <t>Impact of Adalimumab Therapy on Brachial Endothelial Function and Large Artery Stiffness in Patients With Rheumatoid Arthritis</t>
   </si>
   <si>
     <t>Lidocaine Pharmacokinetics During Tumescent Infiltrative Anaesthesia for Mastectomy.</t>
@@ -928,247 +961,259 @@
     <t>Cluster Headache and SPINK-1 Gene</t>
   </si>
   <si>
-    <t>Impact of Adalimumab Therapy on Brachial Endothelial Function and Large Artery Stiffness in Patients With Rheumatoid Arthritis</t>
-  </si>
-  <si>
-    <t>Ultrasonography Assessment of Peripheral Entheses in Axial Spondyloarthritis and in Healthy Subjects, Athletes or Not.</t>
-  </si>
-  <si>
     <t>The Value of Bacterial Loads by Real Time PCR in Predicting Recurrence of Abnormal Vaginal Flora After Oral Metronidazole Therapy</t>
   </si>
   <si>
+    <t>Follicular Helper T Cells: Biological Marker and Involvement in the Physiopathology of the IgG4-related Disease</t>
+  </si>
+  <si>
+    <t>Prevention of Atrial Fibrillation Following Valvular Replacement With Cardiopulmonary Bypass: a Prospective, Randomized Clinical Study Comparing Oral Caffeine With Placebo</t>
+  </si>
+  <si>
+    <t>Non-invasive Quantification of Atrial Fibrosis by MRI in Atrial Fibrillation</t>
+  </si>
+  <si>
     <t>Characterization of the Cord Blood Stem Cell in Situation of Neonatal Asphyxia</t>
   </si>
   <si>
-    <t>Prevention of Atrial Fibrillation Following Valvular Replacement With Cardiopulmonary Bypass: a Prospective, Randomized Clinical Study Comparing Oral Caffeine With Placebo</t>
-  </si>
-  <si>
-    <t>Follicular Helper T Cells: Biological Marker and Involvement in the Physiopathology of the IgG4-related Disease</t>
-  </si>
-  <si>
-    <t>Non-invasive Quantification of Atrial Fibrosis by MRI in Atrial Fibrillation</t>
+    <t>Assessment of the Mutation of Pig-A Gene as Biomarker of Genotoxic Exposure in Humans</t>
+  </si>
+  <si>
+    <t>Predicting Hypotension Related to Spinal Anesthesia for Caesarean Section With Ultrasonography</t>
+  </si>
+  <si>
+    <t>Pilot Study of the Effects of the Desipramine on the Neurovegetative Parameters of the Child With Rett Syndrome</t>
+  </si>
+  <si>
+    <t>Comparative Assessment of Intra-articular Knee Injections of Platelet-rich Plasma (PRP) and Hyaluronic Acid in the Treatment of Knee Osteoarthritis</t>
+  </si>
+  <si>
+    <t>Incidence of High Levels of Transpulmonary Pressure During the Use of Airway Pressure Release Ventilation.</t>
+  </si>
+  <si>
+    <t>QUALITY OF LIFE OF CHILDREN BORN VERY PRETERM AT SCHOOL-AGE</t>
+  </si>
+  <si>
+    <t>A Prospective Pilot Study to Evaluate a New Marker of Ischemia in Chest Pain Triage</t>
   </si>
   <si>
     <t>Prognostic Value of Myocardial Fibrosis Quantified Using CMR in Patient With Dilated Cardiomyopathy</t>
   </si>
   <si>
-    <t>Pilot Study of the Effects of the Desipramine on the Neurovegetative Parameters of the Child With Rett Syndrome</t>
-  </si>
-  <si>
-    <t>QUALITY OF LIFE OF CHILDREN BORN VERY PRETERM AT SCHOOL-AGE</t>
-  </si>
-  <si>
-    <t>Comparative Assessment of Intra-articular Knee Injections of Platelet-rich Plasma (PRP) and Hyaluronic Acid in the Treatment of Knee Osteoarthritis</t>
-  </si>
-  <si>
-    <t>Predicting Hypotension Related to Spinal Anesthesia for Caesarean Section With Ultrasonography</t>
-  </si>
-  <si>
-    <t>Assessment of the Mutation of Pig-A Gene as Biomarker of Genotoxic Exposure in Humans</t>
-  </si>
-  <si>
-    <t>A Prospective Pilot Study to Evaluate a New Marker of Ischemia in Chest Pain Triage</t>
-  </si>
-  <si>
-    <t>Incidence of High Levels of Transpulmonary Pressure During the Use of Airway Pressure Release Ventilation.</t>
+    <t>Screening for Thoracic Aortic Aneurysm Among a Cohort of Patients With a Degenerative Abdominal Aortic Aneurysm : Prevalence, Description of the Different Thoracic Aortic Phenotypes by Aortic Volumetric Numerized Imaging and Their Relationship With Epidemiologic, Clinical, Biological and Genetic Factors</t>
+  </si>
+  <si>
+    <t>EVALUATION OF AN INNOVATIVE TREATMENT FOR RADIOCARPAL OSTEOARTHRITIS USING INTRA-ARTICULAR INJECTION OF A MIXTURE OF AUTOLOGOUS MICROFAT AND AUTOLOGOUS PLATELET-RICH PLASMA</t>
+  </si>
+  <si>
+    <t>Role of Circulating Cytotoxic Lymphocytes in Endothelial Cell Injury in Systemic Sclerosis</t>
+  </si>
+  <si>
+    <t>Early or Delayed Revascularization for Intermediate and High-risk Non ST-elevation Acute Coronary Syndromes?</t>
+  </si>
+  <si>
+    <t>Open Lung Protective Ventilation During Cardiac Surgery With Cardiopulmonary Bypass : a Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Innovative Treatment for Scarred Vocal Cords by Local Injection of Autologous Stromal Vascular Fraction</t>
   </si>
   <si>
     <t>Prognostic Value of Biomarkers Associated With Endothelial Progenitor Cells Mobilization in Acute Coronary Syndromes</t>
   </si>
   <si>
-    <t>Early or Delayed Revascularization for Intermediate and High-risk Non ST-elevation Acute Coronary Syndromes?</t>
+    <t>Clinical Evaluation of the Treatment of Intellectual Metastases by Radiosurgery Gamma Knife by Means of a Support System by Mask.</t>
   </si>
   <si>
     <t>An Innovative Treatment for Fistula-in-ano in Crohn Disease : Local Micro Reinjection of Autologous Fat and Stromal Vascular Fraction</t>
   </si>
   <si>
-    <t>Open Lung Protective Ventilation During Cardiac Surgery With Cardiopulmonary Bypass : a Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Screening for Thoracic Aortic Aneurysm Among a Cohort of Patients With a Degenerative Abdominal Aortic Aneurysm : Prevalence, Description of the Different Thoracic Aortic Phenotypes by Aortic Volumetric Numerized Imaging and Their Relationship With Epidemiologic, Clinical, Biological and Genetic Factors</t>
-  </si>
-  <si>
-    <t>Innovative Treatment for Scarred Vocal Cords by Local Injection of Autologous Stromal Vascular Fraction</t>
-  </si>
-  <si>
-    <t>EVALUATION OF AN INNOVATIVE TREATMENT FOR RADIOCARPAL OSTEOARTHRITIS USING INTRA-ARTICULAR INJECTION OF A MIXTURE OF AUTOLOGOUS MICROFAT AND AUTOLOGOUS PLATELET-RICH PLASMA</t>
+    <t>Platelet Reactivity Inhibition Following Ticagrelor Loading Dose and One Year Outcome in Patients Undergoing Percutaneous Coronary Intervention for an Acute Coronary Syndrome</t>
   </si>
   <si>
     <t>Feasibility of Superior Rectal Artery Embolization for the Treatment of Hemorrhoidal Disease</t>
   </si>
   <si>
-    <t>Platelet Reactivity Inhibition Following Ticagrelor Loading Dose and One Year Outcome in Patients Undergoing Percutaneous Coronary Intervention for an Acute Coronary Syndrome</t>
-  </si>
-  <si>
-    <t>Clinical Evaluation of the Treatment of Intellectual Metastases by Radiosurgery Gamma Knife by Means of a Support System by Mask.</t>
-  </si>
-  <si>
-    <t>Role of Circulating Cytotoxic Lymphocytes in Endothelial Cell Injury in Systemic Sclerosis</t>
-  </si>
-  <si>
     <t>Expanding the Biomarkers in Familial Amyloid Neuropathy: Magnetic Resonance Imaging (MRI) and Motor Unit Estimation by Electrophysiological Study</t>
   </si>
   <si>
     <t>Improving the Diagnostic of Tuberculosis</t>
   </si>
   <si>
+    <t>Evaluation of the Expression and Functions of the KIR3DL2 Receptor and the Anti-inflammatory Activity of IPH4102 (Monoclonal Antibody IPH4102 Targeting KIR3DL2) in Blood Samples Taken From Patients With Axial Spondyloarthritis and Healthy Volunteers</t>
+  </si>
+  <si>
     <t>Prevention of Atelectasis, Via High Flow Nasal Cannula to Obtain a PEP, During General Anesthesia for MRI by Sevoflurane in Children, Evaluated by Lung MRI and Echography</t>
   </si>
   <si>
     <t>Definition of Links Between Non-invasives Methods and Intracerebral EEG With Simultaneous Recordings.</t>
   </si>
   <si>
+    <t>Long-term Effects of Visual Spatial Working Memory Training Program Performed at Preschool Age in Very Preterm Infants With Visual Spatial Working Memory Deficit. A Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Usefulness of Sodium MRI in the Presurgical Assessment of Drug-resistant Partial Epilepsy</t>
+  </si>
+  <si>
+    <t>A 2A Receptor (A2 AR) as a Novel Biomarkers for Physician Decision-making Improvement Evaluation's Patients With Suspected Acute Coronary Syndrome But Negative Troponin.</t>
+  </si>
+  <si>
     <t>Venous to Arterial Carbon Dioxide Difference (P₍ᵥ-ₐ₎CO₂): Predictor of Septic Patient Prognosis Depending on the ScvO₂</t>
   </si>
   <si>
-    <t>Long-term Effects of Visual Spatial Working Memory Training Program Performed at Preschool Age in Very Preterm Infants With Visual Spatial Working Memory Deficit. A Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Usefulness of Sodium MRI in the Presurgical Assessment of Drug-resistant Partial Epilepsy</t>
-  </si>
-  <si>
-    <t>Evaluation of the Expression and Functions of the KIR3DL2 Receptor and the Anti-inflammatory Activity of IPH4102 (Monoclonal Antibody IPH4102 Targeting KIR3DL2) in Blood Samples Taken From Patients With Axial Spondyloarthritis and Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>A 2A Receptor (A2 AR) as a Novel Biomarkers for Physician Decision-making Improvement Evaluation's Patients With Suspected Acute Coronary Syndrome But Negative Troponin.</t>
+    <t>Awake Prone Position to Reduce Ventilation Inhomogeneity in COVID-19 Acute Respiratory Failure: a Randomized Cross Over Electrical Impedance Tomography Study</t>
+  </si>
+  <si>
+    <t>Impact of [68 Ga]-DOTANOC PET-CT on the Management of Gastroenteropancreatic Neuroendocrine Tumors (GEP-NETs): Prospective, Multicentric Study.</t>
+  </si>
+  <si>
+    <t>Impact of Empaglifozine on Cardiac Ectopic Fat</t>
+  </si>
+  <si>
+    <t>QOL Efficacy of Adapted Physical Activity for Patients With Fibromyalgia : Single-center, Prospective, Randomized With Biological and Cerebral Evaluation</t>
+  </si>
+  <si>
+    <t>Advantage of Detection of phIGFBP-1 to Reduce Hospitalization Time for Stable Patients With a Risk of Preterm Labour.</t>
+  </si>
+  <si>
+    <t>Spirituality, Experience of Disease and Quality of Life in Cancer Patients</t>
+  </si>
+  <si>
+    <t>Intradermal Delivery of Fractional CO2 Laser-assisted Hyaluronic Acid in Facial Skin Remodeling</t>
+  </si>
+  <si>
+    <t>Post Operative Pain After Laparoscopic Hysterectomy Using Airseal® Versus Standard Insufflation System: A Randomized Prospective Study</t>
+  </si>
+  <si>
+    <t>Randomized Study on the Evaluation of the Regular Practice of Standardized Postures Stretching Postural® in Secondary Prevention of Low Back Pains During Pregnancy.</t>
   </si>
   <si>
     <t>Assessment of Renal Artery Fibromuscular Dysplasia: From Diagnosis to Treatment</t>
   </si>
   <si>
-    <t>QOL Efficacy of Adapted Physical Activity for Patients With Fibromyalgia : Single-center, Prospective, Randomized With Biological and Cerebral Evaluation</t>
-  </si>
-  <si>
-    <t>Advantage of Detection of phIGFBP-1 to Reduce Hospitalization Time for Stable Patients With a Risk of Preterm Labour.</t>
-  </si>
-  <si>
-    <t>Intradermal Delivery of Fractional CO2 Laser-assisted Hyaluronic Acid in Facial Skin Remodeling</t>
-  </si>
-  <si>
-    <t>Awake Prone Position to Reduce Ventilation Inhomogeneity in COVID-19 Acute Respiratory Failure: a Randomized Cross Over Electrical Impedance Tomography Study</t>
-  </si>
-  <si>
-    <t>Impact of Empaglifozine on Cardiac Ectopic Fat</t>
-  </si>
-  <si>
-    <t>Spirituality, Experience of Disease and Quality of Life in Cancer Patients</t>
-  </si>
-  <si>
-    <t>Post Operative Pain After Laparoscopic Hysterectomy Using Airseal® Versus Standard Insufflation System: A Randomized Prospective Study</t>
-  </si>
-  <si>
-    <t>Impact of [68 Ga]-DOTANOC PET-CT on the Management of Gastroenteropancreatic Neuroendocrine Tumors (GEP-NETs): Prospective, Multicentric Study.</t>
-  </si>
-  <si>
-    <t>Randomized Study on the Evaluation of the Regular Practice of Standardized Postures Stretching Postural® in Secondary Prevention of Low Back Pains During Pregnancy.</t>
+    <t>A Double-blind, Randomized Study Versus Placebo of Avdoralimab (IPH5401), an Anti-C5aR Antibody, in Patients With COVID-19 Severe Pneumonia</t>
+  </si>
+  <si>
+    <t>Laparoscopic Sacrocolpexy Versus Lateral Suspension With a Mesh for the Treatment of Pelvic Organ Prolapse : a Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Effectivness of Distraction by Electric ride-on Cars for Peri Operative Anxiety in Ambulatory Pediatric Surgery: a Randomised Controlled Study</t>
+  </si>
+  <si>
+    <t>Effects of Combined Treatment by Botulinum Toxin A and Robot-Assisted Gait Training (Lokomat®) on Walking Ability in Patients With Chronic Stroke: a Prospective, Controlled, Randomized Study</t>
+  </si>
+  <si>
+    <t>Assessment of the Interests of Mesure of Ultrasound Engagement on the Cesarean Rate :Study Eng - Echo Randomized Comparative Prospective Study Multicenter Center Open</t>
+  </si>
+  <si>
+    <t>Different Approaches to Thoracic Paravertebral Block: a Monocentric Randomized Study Comparing Ultrasounded-guided Method to Intrathoracic Visual Method</t>
   </si>
   <si>
     <t>Characterization of Tissular T Follicular Helper Cells in IgG4-RD</t>
   </si>
   <si>
-    <t>Assessment of the Interests of Mesure of Ultrasound Engagement on the Cesarean Rate :Study Eng - Echo Randomized Comparative Prospective Study Multicenter Center Open</t>
-  </si>
-  <si>
-    <t>Laparoscopic Sacrocolpexy Versus Lateral Suspension With a Mesh for the Treatment of Pelvic Organ Prolapse : a Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Effectivness of Distraction by Electric ride-on Cars for Peri Operative Anxiety in Ambulatory Pediatric Surgery: a Randomised Controlled Study</t>
-  </si>
-  <si>
-    <t>Different Approaches to Thoracic Paravertebral Block: a Monocentric Randomized Study Comparing Ultrasounded-guided Method to Intrathoracic Visual Method</t>
-  </si>
-  <si>
-    <t>Effects of Combined Treatment by Botulinum Toxin A and Robot-Assisted Gait Training (Lokomat®) on Walking Ability in Patients With Chronic Stroke: a Prospective, Controlled, Randomized Study</t>
-  </si>
-  <si>
-    <t>A Double-blind, Randomized Study Versus Placebo of Avdoralimab (IPH5401), an Anti-C5aR Antibody, in Patients With COVID-19 Severe Pneumonia</t>
+    <t>Medico-economic Impact of Screening Atopobium Vaginae and Gardnerella Vaginalis in Molecular Biology by "Point-of-care" During Pregnancy</t>
+  </si>
+  <si>
+    <t>Study " COFLORES ":Imaging of Coronary Reserve Without Tracers</t>
+  </si>
+  <si>
+    <t>Q Fever and Auto-immunity</t>
+  </si>
+  <si>
+    <t>RIVA-PSP: Efficacy of Rivastigmine on Motor, Cognitive and Behavioural Impairment in Progressive Supranuclear Palsy: A Randomised Double Blind Placebo-controlled Clinical Trial</t>
+  </si>
+  <si>
+    <t>Needs Assessment of Mediterranean Adolescents With Type 1 Diabetes About Therapeutic Education Sessions: A Qualitative Study</t>
+  </si>
+  <si>
+    <t>Phase IA/IB of Metronomic Chemotherapy Based on Adaptative Bio-mathematical Model of Oral Vinorelbine in Patients With Non Small Cell Lung Cancer or Malignant Pleural Mesothelioma</t>
+  </si>
+  <si>
+    <t>Causative Diagnosis on Prosthetic Joint Infections: Establishment of a Comprehensive Diagnostic Strategy</t>
+  </si>
+  <si>
+    <t>Assessment of Whole Body Cryotherapy in Treatment of Active Axial Spondylarthritis</t>
+  </si>
+  <si>
+    <t>Experimentation of a Protocol of Psychiatric Advance Directives: Randomized Controlled Multi-site Trial</t>
+  </si>
+  <si>
+    <t>Improving the Diagnosis of Pneumonia in Emergency Rooms</t>
+  </si>
+  <si>
+    <t>Cervical Preparation of Abortions Under Paracervical Block in the First Trimester: A Randomized Clinical Trial</t>
+  </si>
+  <si>
+    <t>Microbiological Diagnosis of Infectious Uveitis to Pathogenic Fastidious Germs</t>
   </si>
   <si>
     <t>Etiology of Endocarditis in Negative Blood Cultures</t>
   </si>
   <si>
-    <t>Assessment of Whole Body Cryotherapy in Treatment of Active Axial Spondylarthritis</t>
-  </si>
-  <si>
-    <t>Medico-economic Impact of Screening Atopobium Vaginae and Gardnerella Vaginalis in Molecular Biology by "Point-of-care" During Pregnancy</t>
+    <t>Description of Socio-cognitive and Clinic Changes for Type 1 Diabetes Adolescents Cohort With Therapeutic Patient Education Program</t>
+  </si>
+  <si>
+    <t>Is EMG-based Serious Games Effective in Improving Gait in Children With Cerebral Palsy ? Interest of Electromyography Feedback (EMG)</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effectiveness of a Diagnostic Kit in the Etiological Diagnosis of Fevers of the Traveler</t>
+  </si>
+  <si>
+    <t>Investigation of Endemic and Emerging Diseases in Populations of Homeless Households in Marseille.</t>
+  </si>
+  <si>
+    <t>Validation of Fibrosis Quantification Using T1 Mapping Against Histology as Reference and Comparison With Fibrosis Biomarkers</t>
+  </si>
+  <si>
+    <t>Interventional Trial in Primary Care of Medico-social Mediation on the Prevention of the Return to Emergencies Among People in a Precarious Social Situation</t>
+  </si>
+  <si>
+    <t>Exercise Stress MRI to Evaluate Aortic Function (Compliance, Distensibility, Pulse Wave Velocity) and Left Ventricular Function : Validation in Healthy Volunteers and in Selected Patients. A Pilot Study.</t>
+  </si>
+  <si>
+    <t>Microbiological Diagnosis of Infectious Keratitis to Pathogenic Fastidious Germs</t>
+  </si>
+  <si>
+    <t>Lipophilic Micronutrients, Adipokines and Gestational Diabetes Mellitus</t>
+  </si>
+  <si>
+    <t>Evaluation of Optical Pumping Magnetometer Sensors for MagnetoEncephaloGraphy Imaging</t>
+  </si>
+  <si>
+    <t>Improvement of the Etiological Diagnosis of the Pericarditis</t>
   </si>
   <si>
     <t>Blood Biomarkers in Major Depression</t>
   </si>
   <si>
-    <t>Validation of Fibrosis Quantification Using T1 Mapping Against Histology as Reference and Comparison With Fibrosis Biomarkers</t>
-  </si>
-  <si>
-    <t>Cervical Preparation of Abortions Under Paracervical Block in the First Trimester: A Randomized Clinical Trial</t>
-  </si>
-  <si>
-    <t>Interventional Trial in Primary Care of Medico-social Mediation on the Prevention of the Return to Emergencies Among People in a Precarious Social Situation</t>
-  </si>
-  <si>
-    <t>Q Fever and Auto-immunity</t>
+    <t>Study of Variations of Pleural and Esophageal Pressures Under Mechanical Ventilation After Lung Transplantation</t>
+  </si>
+  <si>
+    <t>Circulating microRNAs and Degenerative Abdominal Aorta Aneurysm: Diagnostic Specificity and Prognostic Value in Clinical Practice</t>
+  </si>
+  <si>
+    <t>Interest of the 18F-DOPA-PET Imaging in Metastatic Melanoma Treated With B-RAF Inhibitors: a Pilot Study</t>
   </si>
   <si>
     <t>Interest of a Geriatric Intervention Plan Associated to a Comprehensive Geriatric Assessment on Autonomy, Quality of Life and Survival of Patients Aged 70 Years Old and More Surgically Treated for a Resectable Cancer (Thoracic, Digestive or Urologic). Randomized Multicentric Study</t>
   </si>
   <si>
-    <t>Needs Assessment of Mediterranean Adolescents With Type 1 Diabetes About Therapeutic Education Sessions: A Qualitative Study</t>
-  </si>
-  <si>
-    <t>Evaluation of Optical Pumping Magnetometer Sensors for MagnetoEncephaloGraphy Imaging</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effectiveness of a Diagnostic Kit in the Etiological Diagnosis of Fevers of the Traveler</t>
-  </si>
-  <si>
-    <t>Microbiological Diagnosis of Infectious Keratitis to Pathogenic Fastidious Germs</t>
-  </si>
-  <si>
-    <t>Microbiological Diagnosis of Infectious Uveitis to Pathogenic Fastidious Germs</t>
-  </si>
-  <si>
-    <t>Improvement of the Etiological Diagnosis of the Pericarditis</t>
-  </si>
-  <si>
-    <t>RIVA-PSP: Efficacy of Rivastigmine on Motor, Cognitive and Behavioural Impairment in Progressive Supranuclear Palsy: A Randomised Double Blind Placebo-controlled Clinical Trial</t>
-  </si>
-  <si>
-    <t>Phase IA/IB of Metronomic Chemotherapy Based on Adaptative Bio-mathematical Model of Oral Vinorelbine in Patients With Non Small Cell Lung Cancer or Malignant Pleural Mesothelioma</t>
-  </si>
-  <si>
-    <t>Study " COFLORES ":Imaging of Coronary Reserve Without Tracers</t>
-  </si>
-  <si>
-    <t>Improving the Diagnosis of Pneumonia in Emergency Rooms</t>
-  </si>
-  <si>
-    <t>Investigation of Endemic and Emerging Diseases in Populations of Homeless Households in Marseille.</t>
-  </si>
-  <si>
-    <t>Causative Diagnosis on Prosthetic Joint Infections: Establishment of a Comprehensive Diagnostic Strategy</t>
-  </si>
-  <si>
-    <t>Is EMG-based Serious Games Effective in Improving Gait in Children With Cerebral Palsy ? Interest of Electromyography Feedback (EMG)</t>
-  </si>
-  <si>
-    <t>Interest of the 18F-DOPA-PET Imaging in Metastatic Melanoma Treated With B-RAF Inhibitors: a Pilot Study</t>
-  </si>
-  <si>
-    <t>Circulating microRNAs and Degenerative Abdominal Aorta Aneurysm: Diagnostic Specificity and Prognostic Value in Clinical Practice</t>
-  </si>
-  <si>
-    <t>Study of Variations of Pleural and Esophageal Pressures Under Mechanical Ventilation After Lung Transplantation</t>
-  </si>
-  <si>
-    <t>Lipophilic Micronutrients, Adipokines and Gestational Diabetes Mellitus</t>
-  </si>
-  <si>
-    <t>Exercise Stress MRI to Evaluate Aortic Function (Compliance, Distensibility, Pulse Wave Velocity) and Left Ventricular Function : Validation in Healthy Volunteers and in Selected Patients. A Pilot Study.</t>
-  </si>
-  <si>
-    <t>Experimentation of a Protocol of Psychiatric Advance Directives: Randomized Controlled Multi-site Trial</t>
-  </si>
-  <si>
-    <t>Description of Socio-cognitive and Clinic Changes for Type 1 Diabetes Adolescents Cohort With Therapeutic Patient Education Program</t>
+    <t>Double-blind, Randomized, Multicenter Study Evaluating 200 Mg Versus 600 Mg of Mifegyne® on Pain in Medical Termination of Pregnancy (MToP) Up to 7 Weeks of Amenorreha (WA). DoMy Study.</t>
+  </si>
+  <si>
+    <t>Soluble CD146 and Proteinuria in Chronic Renal Disease</t>
+  </si>
+  <si>
+    <t>Quantification of the Immediate Impact of Weak Electric Fields on Brain Activity by SEEG Measurements in Drug-resistant Focal Epilepsy Patients</t>
+  </si>
+  <si>
+    <t>Targeted High Throughput Sequencing in the Diagnosis of Pediatric Acute Leukemia</t>
+  </si>
+  <si>
+    <t>Disruption of Circadian Rhythm and Healthcare-related Infection in Patients With Severe Trauma</t>
+  </si>
+  <si>
+    <t>Virtual Reality and Relaxation for the Treatment of Generalized Anxiety Disorders: a Comparative Study With Standard Relaxation</t>
   </si>
   <si>
     <t>Implementation of Innovative Techniques in Routine Diagnosis of Childhood Acute Leukemia: Analysis of Genome and Transcriptome by Micro-array</t>
@@ -1177,148 +1222,139 @@
     <t>Comparison of Diagnostic Performances of 68Ga-DOTATATE PET-CT and 18F-FDOPA PET-CT in Paragangliomas and Pheochromocytomas Evaluation: Monocentric Prospective Study</t>
   </si>
   <si>
-    <t>Disruption of Circadian Rhythm and Healthcare-related Infection in Patients With Severe Trauma</t>
+    <t>Regional Non-comparative Prospective Study of the Impact of Gamma Knife Radiosurgery on Tremor in Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>Clinical Course and Changes in the Respiratory Microbiota Based on Antibiotic Treatment in Patients With Cystic Fibrosis</t>
+  </si>
+  <si>
+    <t>Role of Innate Lymphoid Cells in the Immunosuppression of Septic Shock</t>
+  </si>
+  <si>
+    <t>C5a Receptor Expression in Circulating Myeloid Cells in ARDS Secondary to COVID-19</t>
+  </si>
+  <si>
+    <t>Interest Of Renal Elastography In Children As A Diagnostic Tool Of Renal Fibrosis: Confrontation To Histological Features Of Renal Biopsies</t>
+  </si>
+  <si>
+    <t>Impact of a Procedure With Socio-aesthetic Care on Anxiety and Pain Scale in the Early Rest of Pulmonary Transplant.</t>
+  </si>
+  <si>
+    <t>Validation of Radioisotope Guided Lymphadenectomy for Loco-regional Staging in Patients With Intermediate or High-risk Prostate Cancer</t>
+  </si>
+  <si>
+    <t>Efficacy of Deep Transcranial Magnetic Stimulation (TMS) for Treatment-resistant Depression and Neuroanatomical Correlates: a Randomized Clinical Study Coupled With Positon Emission Tomography (PET)</t>
+  </si>
+  <si>
+    <t>Evaluation of Bilateral Gamma Knife Thalamotomy in Patients Presenting With Severe Essential Tremor</t>
+  </si>
+  <si>
+    <t>RENACTIF: Reduction of the Thrombotic Phenotype in Renal Insufficiency With N-AcetylCysteine A Randomized, Double-blind, Placebo-controlled, Cross-over Trial</t>
+  </si>
+  <si>
+    <t>Brainstem Assesment in a Cohort of Very Preterm Babies (Less Than 28 Weeks)</t>
   </si>
   <si>
     <t>Intensive Preoperative Speech Rehabilitation in Drug-Resistant Temporal Epilepsy: A Case Study</t>
   </si>
   <si>
-    <t>Soluble CD146 and Proteinuria in Chronic Renal Disease</t>
-  </si>
-  <si>
-    <t>Role of Innate Lymphoid Cells in the Immunosuppression of Septic Shock</t>
+    <t>Evaluation of PET-CT Using Somatostatin Agonists Labeled With Gallium68 in Neuroendocrine Tumors</t>
+  </si>
+  <si>
+    <t>Neuropsychological Development and Functional Outcome Sin Children With Hirschsprung Disease at School Age - Hirschsprung</t>
+  </si>
+  <si>
+    <t>Consequence of Unilateral Vestibular Loss on Visual Abilities</t>
+  </si>
+  <si>
+    <t>A Phase II Clinical Trial Using Metronomic Oral Low-dose Cyclophosphamide Alternating With Low-dose Oral Methotrexate With Continuous Celecoxib and Weekly Vinblastine in Children and Adolescents With Relapsed or Progressing Solid Tumours.</t>
+  </si>
+  <si>
+    <t>Evaluation of the Safety and Efficacy of Bilateral Subthalamic Nucleus (SNT) Radiosurgery in Idiopathic Severe Parkinson's Disease Fulfilling Inclusion Criteria for STN Deep Brain Stimulation and Presenting With a Contraindication to Intracerebral Electrode Implantation.</t>
   </si>
   <si>
     <t>Pharmacokinetics and Pharmacogenetics-based Adaptive Dosing of 5-fu (5-Fluorouracile) in Head &amp; Neck Cancer Patient Undergoing Docetaxel, Cisplatin, 5-Fluorouracile (=TPF) Therapy</t>
   </si>
   <si>
+    <t>Diagnostic Value of 18F-fluorodeoxyglucose Positron Emission Tomography/Computed Tomography in Prosthetic Valve Endocarditis</t>
+  </si>
+  <si>
+    <t>Significance of the High-risk Hpv Viral Load</t>
+  </si>
+  <si>
+    <t>Gastroenteric Anastomosis With Natural Orifice Translumenal Endoscopic Surgery (NOTES) Using the New Fashionned Tissue Apposing Stent Axios® for the Treatment of Antro-pyloric or Duodenal Obstructions : Prospective Evaluation of Feasibility, Efficacy and Tolerance.</t>
+  </si>
+  <si>
+    <t>EFFECT OF SMOKING ON MUCUS HYPERSECRETION MECHANISMS IN ASTHMA AND CHRONIC OBSTRUCTIVE PULMONARY DISEASE</t>
+  </si>
+  <si>
+    <t>Right and Left Ventricle Remodeling Predictors After Pulmonary Valve Replacement in Patients With Repaired Tetralogy of Fallot.</t>
+  </si>
+  <si>
+    <t>Interventionnal and Randomized Study Measuring Virtual Reality Cue Exposure for the Relapse Prevention of Tobacco Consumption Versus Cognitive and Behavioral Approaches Therapy</t>
+  </si>
+  <si>
+    <t>LateR-Ac Study: Late Effects of Radiosurgery on Acromegaly Study</t>
+  </si>
+  <si>
     <t>Impact of Alternative Blood Glucose Testing Site (Forearm) on Pain Reduction in Preterm Neonates.</t>
   </si>
   <si>
-    <t>Double-blind, Randomized, Multicenter Study Evaluating 200 Mg Versus 600 Mg of Mifegyne® on Pain in Medical Termination of Pregnancy (MToP) Up to 7 Weeks of Amenorreha (WA). DoMy Study.</t>
-  </si>
-  <si>
-    <t>Gastroenteric Anastomosis With Natural Orifice Translumenal Endoscopic Surgery (NOTES) Using the New Fashionned Tissue Apposing Stent Axios® for the Treatment of Antro-pyloric or Duodenal Obstructions : Prospective Evaluation of Feasibility, Efficacy and Tolerance.</t>
+    <t>Study of a Red Blood Cell Deformability Parameter in Patients With Sickle Cell Disease, at Basal State and During Vaso-occlusive Crisis</t>
+  </si>
+  <si>
+    <t>Impact of Early Oral Stimulation on Reducing Cardiorespiratory Events and Transition to Oral Feeding in Preterm Infants</t>
+  </si>
+  <si>
+    <t>Efficacy of a Preemptive Treatment by Ganciclovir or by Aciclovir in ICU Patients Requiring Prolonged Mechanical Ventilation and Presenting a Viral Replication (CMV and/or HSV) - Prospective, Randomized, Double-blinded Multicenter Trial</t>
   </si>
   <si>
     <t>" Virtual Brain "-Based Interpretation of Electrophysiological Signals in Epilepsy</t>
   </si>
   <si>
-    <t>EFFECT OF SMOKING ON MUCUS HYPERSECRETION MECHANISMS IN ASTHMA AND CHRONIC OBSTRUCTIVE PULMONARY DISEASE</t>
-  </si>
-  <si>
-    <t>Neuropsychological Development and Functional Outcome Sin Children With Hirschsprung Disease at School Age - Hirschsprung</t>
-  </si>
-  <si>
-    <t>Study of a Red Blood Cell Deformability Parameter in Patients With Sickle Cell Disease, at Basal State and During Vaso-occlusive Crisis</t>
-  </si>
-  <si>
-    <t>RENACTIF: Reduction of the Thrombotic Phenotype in Renal Insufficiency With N-AcetylCysteine A Randomized, Double-blind, Placebo-controlled, Cross-over Trial</t>
-  </si>
-  <si>
-    <t>C5a Receptor Expression in Circulating Myeloid Cells in ARDS Secondary to COVID-19</t>
-  </si>
-  <si>
-    <t>Evaluation of Bilateral Gamma Knife Thalamotomy in Patients Presenting With Severe Essential Tremor</t>
-  </si>
-  <si>
-    <t>Evaluation of PET-CT Using Somatostatin Agonists Labeled With Gallium68 in Neuroendocrine Tumors</t>
-  </si>
-  <si>
-    <t>Impact of a Procedure With Socio-aesthetic Care on Anxiety and Pain Scale in the Early Rest of Pulmonary Transplant.</t>
-  </si>
-  <si>
-    <t>Targeted High Throughput Sequencing in the Diagnosis of Pediatric Acute Leukemia</t>
-  </si>
-  <si>
-    <t>Quantification of the Immediate Impact of Weak Electric Fields on Brain Activity by SEEG Measurements in Drug-resistant Focal Epilepsy Patients</t>
-  </si>
-  <si>
-    <t>Evaluation of the Safety and Efficacy of Bilateral Subthalamic Nucleus (SNT) Radiosurgery in Idiopathic Severe Parkinson's Disease Fulfilling Inclusion Criteria for STN Deep Brain Stimulation and Presenting With a Contraindication to Intracerebral Electrode Implantation.</t>
-  </si>
-  <si>
-    <t>Regional Non-comparative Prospective Study of the Impact of Gamma Knife Radiosurgery on Tremor in Multiple Sclerosis</t>
+    <t>Impact Hypercortisolism on Adipose Epicardial and on Myocardial Function</t>
+  </si>
+  <si>
+    <t>Performance of 18F-Fluorodeoxyglucose Positron Emission Tomography (FDG-PET) in the Diagnosis of Indeterminate Adrenal Tumors on Conventional Imaging: A French Prospective Multicentric Study</t>
   </si>
   <si>
     <t>Intra Individual Evaluation of Uremic Toxin Levels in Hemodialysed Patients</t>
   </si>
   <si>
-    <t>Virtual Reality and Relaxation for the Treatment of Generalized Anxiety Disorders: a Comparative Study With Standard Relaxation</t>
-  </si>
-  <si>
-    <t>Diagnostic Value of 18F-fluorodeoxyglucose Positron Emission Tomography/Computed Tomography in Prosthetic Valve Endocarditis</t>
-  </si>
-  <si>
-    <t>Brainstem Assesment in a Cohort of Very Preterm Babies (Less Than 28 Weeks)</t>
-  </si>
-  <si>
-    <t>LateR-Ac Study: Late Effects of Radiosurgery on Acromegaly Study</t>
-  </si>
-  <si>
-    <t>Efficacy of a Preemptive Treatment by Ganciclovir or by Aciclovir in ICU Patients Requiring Prolonged Mechanical Ventilation and Presenting a Viral Replication (CMV and/or HSV) - Prospective, Randomized, Double-blinded Multicenter Trial</t>
-  </si>
-  <si>
     <t>Combination of Everolimus and Octreotide LAR in Aggressive Recurrent Meningiomas.</t>
   </si>
   <si>
-    <t>Efficacy of Deep Transcranial Magnetic Stimulation (TMS) for Treatment-resistant Depression and Neuroanatomical Correlates: a Randomized Clinical Study Coupled With Positon Emission Tomography (PET)</t>
-  </si>
-  <si>
-    <t>Impact of Early Oral Stimulation on Reducing Cardiorespiratory Events and Transition to Oral Feeding in Preterm Infants</t>
-  </si>
-  <si>
-    <t>Significance of the High-risk Hpv Viral Load</t>
-  </si>
-  <si>
-    <t>A Phase II Clinical Trial Using Metronomic Oral Low-dose Cyclophosphamide Alternating With Low-dose Oral Methotrexate With Continuous Celecoxib and Weekly Vinblastine in Children and Adolescents With Relapsed or Progressing Solid Tumours.</t>
-  </si>
-  <si>
-    <t>Impact Hypercortisolism on Adipose Epicardial and on Myocardial Function</t>
-  </si>
-  <si>
-    <t>Consequence of Unilateral Vestibular Loss on Visual Abilities</t>
-  </si>
-  <si>
-    <t>Interest Of Renal Elastography In Children As A Diagnostic Tool Of Renal Fibrosis: Confrontation To Histological Features Of Renal Biopsies</t>
-  </si>
-  <si>
-    <t>Validation of Radioisotope Guided Lymphadenectomy for Loco-regional Staging in Patients With Intermediate or High-risk Prostate Cancer</t>
-  </si>
-  <si>
-    <t>Performance of 18F-Fluorodeoxyglucose Positron Emission Tomography (FDG-PET) in the Diagnosis of Indeterminate Adrenal Tumors on Conventional Imaging: A French Prospective Multicentric Study</t>
-  </si>
-  <si>
-    <t>Right and Left Ventricle Remodeling Predictors After Pulmonary Valve Replacement in Patients With Repaired Tetralogy of Fallot.</t>
-  </si>
-  <si>
-    <t>Interventionnal and Randomized Study Measuring Virtual Reality Cue Exposure for the Relapse Prevention of Tobacco Consumption Versus Cognitive and Behavioral Approaches Therapy</t>
-  </si>
-  <si>
-    <t>Clinical Course and Changes in the Respiratory Microbiota Based on Antibiotic Treatment in Patients With Cystic Fibrosis</t>
+    <t>Personalized Multichannel Transcranial Direct Current Electrical Stimulation (tDCS) in Drug-resistant Epilepsy: Evaluation of Therapeutic and Neurophysiological Effects</t>
   </si>
   <si>
     <t>Single Center, Randomized, Comparative, Prospective Interventional Study Evaluating the Impact of Brief Psychotherapy by Narrative Exposure Therapy (NET) on the Reduction of Symptoms of Post Traumatic Stress Disorder in Refugee and Asylum Seeking Women in the Program SINDIANE in Marseille</t>
   </si>
   <si>
-    <t>Personalized Multichannel Transcranial Direct Current Electrical Stimulation (tDCS) in Drug-resistant Epilepsy: Evaluation of Therapeutic and Neurophysiological Effects</t>
+    <t>Interest of Using the Sevoflurane in the Prevention of Newborns Pain</t>
+  </si>
+  <si>
+    <t>Beta-thalassemia and Microparticles</t>
+  </si>
+  <si>
+    <t>Interest of Circulating Endothelial Biomarkers in Vascular Pregnancy Complications</t>
+  </si>
+  <si>
+    <t>Investigations of New Markers in Patients With Shock</t>
   </si>
   <si>
     <t>Executive Control Analysis in Patients Suffering From Parkinson Disease and Treated by Deep Brain Stimulation (Chronometric and Electromyographic Approach During a Simon Task)</t>
   </si>
   <si>
-    <t>Interest of Using the Sevoflurane in the Prevention of Newborns Pain</t>
-  </si>
-  <si>
-    <t>Interest of Circulating Endothelial Biomarkers in Vascular Pregnancy Complications</t>
-  </si>
-  <si>
     <t>Constitution of a Standardized Neural Imaging Database in Healthy Subjects</t>
   </si>
   <si>
-    <t>Investigations of New Markers in Patients With Shock</t>
-  </si>
-  <si>
-    <t>Beta-thalassemia and Microparticles</t>
+    <t>Post Traumatic Stress Disorder and Neural Mechanisms Involved in Its Treatment</t>
+  </si>
+  <si>
+    <t>Input of a Multidisciplinary Device Including a Psychological Approach, to Accompany the Announce of Diagnosis for Young Children With Serious Constitutional Hemorrhagic Disease and Their Families</t>
+  </si>
+  <si>
+    <t>Dual Source Computed Tomography (DSCT) During Injection of Dipyridamole : a New Technique for Myocardial Ischemia Assessment</t>
   </si>
   <si>
     <t>Major Depression and Messenger RNAs</t>
@@ -1327,18 +1363,9 @@
     <t>Effects of Various Bariatric Surgical Procedures on Intestinal Triglyceride-rich-lipoprotein (TRL) Metabolism in Obese Patients</t>
   </si>
   <si>
-    <t>Post Traumatic Stress Disorder and Neural Mechanisms Involved in Its Treatment</t>
-  </si>
-  <si>
     <t>Impact of Bariatric Surgery on Epicardial Adipose Tissue and on Myocardial Function</t>
   </si>
   <si>
-    <t>Dual Source Computed Tomography (DSCT) During Injection of Dipyridamole : a New Technique for Myocardial Ischemia Assessment</t>
-  </si>
-  <si>
-    <t>Input of a Multidisciplinary Device Including a Psychological Approach, to Accompany the Announce of Diagnosis for Young Children With Serious Constitutional Hemorrhagic Disease and Their Families</t>
-  </si>
-  <si>
     <t>TEMOBIC</t>
   </si>
   <si>
@@ -1348,37 +1375,43 @@
     <t>LU-PUCE</t>
   </si>
   <si>
+    <t>PC-QOL</t>
+  </si>
+  <si>
     <t>PremedX</t>
   </si>
   <si>
-    <t>PC-QOL</t>
-  </si>
-  <si>
     <t>CHLORHEX</t>
   </si>
   <si>
+    <t>G4-FH</t>
+  </si>
+  <si>
+    <t>QUAFI</t>
+  </si>
+  <si>
     <t>NEOCORD</t>
   </si>
   <si>
-    <t>G4-FH</t>
-  </si>
-  <si>
-    <t>QUAFI</t>
-  </si>
-  <si>
     <t>PIG-A</t>
   </si>
   <si>
+    <t>AMIPREP</t>
+  </si>
+  <si>
     <t>PROVECS</t>
   </si>
   <si>
-    <t>AMIPREP</t>
+    <t>Mask</t>
   </si>
   <si>
     <t>EMBORRHOID</t>
   </si>
   <si>
-    <t>Mask</t>
+    <t>KIR3DL2</t>
+  </si>
+  <si>
+    <t>EXPRET</t>
   </si>
   <si>
     <t>PREVAT-PED</t>
@@ -1387,210 +1420,204 @@
     <t>MEG-SEEG</t>
   </si>
   <si>
-    <t>EXPRET</t>
-  </si>
-  <si>
     <t>EPIREMED</t>
   </si>
   <si>
     <t>EPISODIUM</t>
   </si>
   <si>
-    <t>KIR3DL2</t>
+    <t>ProneSpontCov</t>
+  </si>
+  <si>
+    <t>GEP-NOC</t>
+  </si>
+  <si>
+    <t>EMPACEF</t>
+  </si>
+  <si>
+    <t>SPIQOL</t>
+  </si>
+  <si>
+    <t>AIRSEAL</t>
+  </si>
+  <si>
+    <t>GEMALODO</t>
   </si>
   <si>
     <t>DysArt</t>
   </si>
   <si>
-    <t>ProneSpontCov</t>
-  </si>
-  <si>
-    <t>EMPACEF</t>
-  </si>
-  <si>
-    <t>SPIQOL</t>
-  </si>
-  <si>
-    <t>AIRSEAL</t>
-  </si>
-  <si>
-    <t>GEP-NOC</t>
-  </si>
-  <si>
-    <t>GEMALODO</t>
+    <t>FORCE</t>
+  </si>
+  <si>
+    <t>SUSPENSION</t>
+  </si>
+  <si>
+    <t>PTIBOLID</t>
+  </si>
+  <si>
+    <t>Lokomat</t>
+  </si>
+  <si>
+    <t>eng - echo</t>
+  </si>
+  <si>
+    <t>VAP BLOCK</t>
   </si>
   <si>
     <t>TIFOLH4</t>
   </si>
   <si>
-    <t>eng - echo</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
-  </si>
-  <si>
-    <t>PTIBOLID</t>
-  </si>
-  <si>
-    <t>VAP BLOCK</t>
-  </si>
-  <si>
-    <t>Lokomat</t>
-  </si>
-  <si>
-    <t>FORCE</t>
+    <t>AuTop</t>
+  </si>
+  <si>
+    <t>Q Fever</t>
+  </si>
+  <si>
+    <t>RIVA-PSP</t>
+  </si>
+  <si>
+    <t>BADET</t>
+  </si>
+  <si>
+    <t>NVB Metro</t>
+  </si>
+  <si>
+    <t>WHIPPLE</t>
+  </si>
+  <si>
+    <t>DAiP</t>
+  </si>
+  <si>
+    <t>DIAVOY</t>
+  </si>
+  <si>
+    <t>BPCEN</t>
   </si>
   <si>
     <t>ENDOC</t>
   </si>
   <si>
-    <t>AuTop</t>
-  </si>
-  <si>
-    <t>WHIPPLE</t>
-  </si>
-  <si>
-    <t>BPCEN</t>
+    <t>SERIOUS GAME</t>
+  </si>
+  <si>
+    <t>SDF</t>
   </si>
   <si>
     <t>M2PRUSSE</t>
   </si>
   <si>
-    <t>Q Fever</t>
+    <t>Keratite</t>
+  </si>
+  <si>
+    <t>2011-23</t>
+  </si>
+  <si>
+    <t>OPM</t>
+  </si>
+  <si>
+    <t>PERICARDITE</t>
+  </si>
+  <si>
+    <t>ACTA-miRNA</t>
   </si>
   <si>
     <t>epigac</t>
   </si>
   <si>
-    <t>BADET</t>
-  </si>
-  <si>
-    <t>OPM</t>
-  </si>
-  <si>
-    <t>Keratite</t>
-  </si>
-  <si>
-    <t>PERICARDITE</t>
-  </si>
-  <si>
-    <t>RIVA-PSP</t>
-  </si>
-  <si>
-    <t>NVB Metro</t>
-  </si>
-  <si>
-    <t>SDF</t>
-  </si>
-  <si>
-    <t>SERIOUS GAME</t>
-  </si>
-  <si>
-    <t>DIAVOY</t>
-  </si>
-  <si>
-    <t>ACTA-miRNA</t>
-  </si>
-  <si>
-    <t>2011-23</t>
-  </si>
-  <si>
-    <t>DAiP</t>
+    <t>DoMy</t>
+  </si>
+  <si>
+    <t>CPinMRC</t>
+  </si>
+  <si>
+    <t>GALVANI PS-2</t>
+  </si>
+  <si>
+    <t>Relax-TAG</t>
   </si>
   <si>
     <t>DOTATATE</t>
   </si>
   <si>
+    <t>GK-SEP</t>
+  </si>
+  <si>
+    <t>CriSIs</t>
+  </si>
+  <si>
+    <t>C5-COV</t>
+  </si>
+  <si>
+    <t>SENTINELLE</t>
+  </si>
+  <si>
+    <t>VIMBIL</t>
+  </si>
+  <si>
+    <t>RENACTIF</t>
+  </si>
+  <si>
     <t>REPREO SCED</t>
   </si>
   <si>
-    <t>CPinMRC</t>
-  </si>
-  <si>
-    <t>CriSIs</t>
+    <t>DOTATATENET</t>
+  </si>
+  <si>
+    <t>Hirschsprung</t>
+  </si>
+  <si>
+    <t>SVorthoptie</t>
+  </si>
+  <si>
+    <t>SFCE METRO 01</t>
   </si>
   <si>
     <t>5-FU</t>
   </si>
   <si>
+    <t>NCVG</t>
+  </si>
+  <si>
+    <t>PsychoVHL</t>
+  </si>
+  <si>
+    <t>SHU</t>
+  </si>
+  <si>
+    <t>LateRAc</t>
+  </si>
+  <si>
     <t>NOBOBO</t>
   </si>
   <si>
-    <t>DoMy</t>
+    <t>Drepaforme</t>
+  </si>
+  <si>
+    <t>PTH</t>
+  </si>
+  <si>
+    <t>Visage 3</t>
   </si>
   <si>
     <t>VIBRATIONS</t>
   </si>
   <si>
-    <t>Visage 3</t>
-  </si>
-  <si>
-    <t>Hirschsprung</t>
-  </si>
-  <si>
-    <t>Drepaforme</t>
-  </si>
-  <si>
-    <t>RENACTIF</t>
-  </si>
-  <si>
-    <t>C5-COV</t>
-  </si>
-  <si>
-    <t>SHU</t>
-  </si>
-  <si>
-    <t>VIMBIL</t>
-  </si>
-  <si>
-    <t>DOTATATENET</t>
-  </si>
-  <si>
-    <t>GALVANI PS-2</t>
-  </si>
-  <si>
-    <t>GK-SEP</t>
+    <t>Hyper-Cor</t>
   </si>
   <si>
     <t>EVITUPH</t>
   </si>
   <si>
-    <t>Relax-TAG</t>
-  </si>
-  <si>
-    <t>LateRAc</t>
-  </si>
-  <si>
-    <t>PTH</t>
-  </si>
-  <si>
     <t>CEVOREM</t>
   </si>
   <si>
-    <t>NCVG</t>
-  </si>
-  <si>
-    <t>PsychoVHL</t>
-  </si>
-  <si>
-    <t>SFCE METRO 01</t>
-  </si>
-  <si>
-    <t>Hyper-Cor</t>
-  </si>
-  <si>
-    <t>SVorthoptie</t>
-  </si>
-  <si>
-    <t>SENTINELLE</t>
+    <t>GALVANI PS-1</t>
   </si>
   <si>
     <t>SINDIANE</t>
   </si>
   <si>
-    <t>GALVANI PS-1</t>
-  </si>
-  <si>
     <t>ACADHEM</t>
   </si>
   <si>
@@ -1603,12 +1630,12 @@
     <t>PROCEDURE</t>
   </si>
   <si>
+    <t>DIETARY_SUPPLEMENT</t>
+  </si>
+  <si>
     <t>DEVICE</t>
   </si>
   <si>
-    <t>DIETARY_SUPPLEMENT</t>
-  </si>
-  <si>
     <t>BIOLOGICAL</t>
   </si>
   <si>
@@ -1618,10 +1645,10 @@
     <t>GENETIC</t>
   </si>
   <si>
+    <t>DIAGNOSTIC_TEST</t>
+  </si>
+  <si>
     <t>RADIATION</t>
-  </si>
-  <si>
-    <t>DIAGNOSTIC_TEST</t>
   </si>
 </sst>
 </file>
@@ -2025,13 +2052,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="I2" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2045,13 +2072,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="I3" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2065,13 +2092,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="I4" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2085,13 +2112,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G5" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="I5" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2105,13 +2132,13 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G6" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="I6" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2125,13 +2152,13 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="I7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2145,13 +2172,13 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G8" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="I8" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2165,16 +2192,16 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="H9" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="I9" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2188,53 +2215,53 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="I10" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G11" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="I11" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G12" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="I12" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2248,53 +2275,53 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="G13" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="I13" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
+      <c r="D14" t="s">
+        <v>230</v>
+      </c>
       <c r="F14" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="I14" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>234</v>
-      </c>
-      <c r="G15" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="I15" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2308,56 +2335,53 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G16" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="I16" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G17" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="I17" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G18" t="s">
-        <v>264</v>
-      </c>
-      <c r="H18" t="s">
-        <v>442</v>
+        <v>272</v>
       </c>
       <c r="I18" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2371,30 +2395,36 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G19" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="I19" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>234</v>
+        <v>243</v>
+      </c>
+      <c r="G20" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20" t="s">
+        <v>451</v>
       </c>
       <c r="I20" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2408,13 +2438,10 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>234</v>
-      </c>
-      <c r="G21" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="I21" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2428,13 +2455,13 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G22" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="I22" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2448,30 +2475,33 @@
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>234</v>
+        <v>243</v>
+      </c>
+      <c r="G23" t="s">
+        <v>276</v>
       </c>
       <c r="I23" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="G24" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="I24" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2485,73 +2515,70 @@
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="G25" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I25" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="I26" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
-      </c>
-      <c r="H27" t="s">
-        <v>443</v>
+        <v>244</v>
+      </c>
+      <c r="G27" t="s">
+        <v>280</v>
       </c>
       <c r="I27" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>235</v>
-      </c>
-      <c r="G28" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="I28" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2565,13 +2592,13 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="G29" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I29" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2585,13 +2612,13 @@
         <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="G30" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="I30" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2605,30 +2632,33 @@
         <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>235</v>
+        <v>244</v>
+      </c>
+      <c r="H31" t="s">
+        <v>452</v>
       </c>
       <c r="I31" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="I32" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2642,13 +2672,13 @@
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="G33" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="I33" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2662,13 +2692,13 @@
         <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G34" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="I34" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2682,13 +2712,13 @@
         <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G35" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="I35" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2702,13 +2732,13 @@
         <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G36" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="I36" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2722,13 +2752,13 @@
         <v>52</v>
       </c>
       <c r="F37" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G37" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I37" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2742,33 +2772,30 @@
         <v>53</v>
       </c>
       <c r="F38" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G38" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="I38" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>236</v>
-      </c>
-      <c r="G39" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="I39" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2782,33 +2809,33 @@
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G40" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="I40" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G41" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="I41" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2822,30 +2849,33 @@
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>236</v>
+        <v>245</v>
+      </c>
+      <c r="G42" t="s">
+        <v>292</v>
       </c>
       <c r="I42" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G43" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="I43" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2859,13 +2889,13 @@
         <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G44" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="I44" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2879,56 +2909,53 @@
         <v>60</v>
       </c>
       <c r="F45" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G45" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="I45" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G46" t="s">
-        <v>287</v>
-      </c>
-      <c r="H46" t="s">
-        <v>444</v>
+        <v>296</v>
       </c>
       <c r="I46" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G47" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="I47" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2942,16 +2969,16 @@
         <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G48" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="H48" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="I48" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2965,33 +2992,36 @@
         <v>64</v>
       </c>
       <c r="F49" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G49" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I49" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
       <c r="F50" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G50" t="s">
-        <v>291</v>
+        <v>300</v>
+      </c>
+      <c r="H50" t="s">
+        <v>454</v>
       </c>
       <c r="I50" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3005,13 +3035,13 @@
         <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G51" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="I51" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3025,13 +3055,13 @@
         <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G52" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="I52" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3045,13 +3075,13 @@
         <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G53" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I53" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3065,53 +3095,56 @@
         <v>69</v>
       </c>
       <c r="F54" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G54" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="I54" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
         <v>70</v>
       </c>
       <c r="F55" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G55" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="I55" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
         <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G56" t="s">
-        <v>297</v>
+        <v>306</v>
+      </c>
+      <c r="H56" t="s">
+        <v>455</v>
       </c>
       <c r="I56" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3125,13 +3158,13 @@
         <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G57" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="I57" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3145,56 +3178,53 @@
         <v>73</v>
       </c>
       <c r="F58" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G58" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="I58" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
         <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G59" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="I59" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
         <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G60" t="s">
-        <v>301</v>
-      </c>
-      <c r="H60" t="s">
-        <v>446</v>
+        <v>310</v>
       </c>
       <c r="I60" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3208,13 +3238,13 @@
         <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G61" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="I61" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3228,13 +3258,13 @@
         <v>77</v>
       </c>
       <c r="F62" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G62" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="I62" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3248,13 +3278,13 @@
         <v>78</v>
       </c>
       <c r="F63" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G63" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="I63" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3268,13 +3298,13 @@
         <v>79</v>
       </c>
       <c r="F64" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G64" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="I64" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3288,13 +3318,13 @@
         <v>80</v>
       </c>
       <c r="F65" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G65" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="I65" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3308,16 +3338,16 @@
         <v>81</v>
       </c>
       <c r="F66" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G66" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="H66" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="I66" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3331,13 +3361,13 @@
         <v>82</v>
       </c>
       <c r="F67" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G67" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="I67" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3351,16 +3381,16 @@
         <v>83</v>
       </c>
       <c r="F68" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G68" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="H68" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="I68" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3374,16 +3404,16 @@
         <v>84</v>
       </c>
       <c r="F69" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G69" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="H69" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="I69" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3397,53 +3427,53 @@
         <v>85</v>
       </c>
       <c r="F70" t="s">
-        <v>240</v>
+        <v>249</v>
+      </c>
+      <c r="G70" t="s">
+        <v>320</v>
+      </c>
+      <c r="H70" t="s">
+        <v>459</v>
       </c>
       <c r="I70" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
         <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G71" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="I71" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
         <v>87</v>
       </c>
-      <c r="D72" t="s">
-        <v>230</v>
-      </c>
       <c r="F72" t="s">
-        <v>240</v>
-      </c>
-      <c r="G72" t="s">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c r="I72" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3456,14 +3486,17 @@
       <c r="C73" t="s">
         <v>88</v>
       </c>
+      <c r="D73" t="s">
+        <v>231</v>
+      </c>
       <c r="F73" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G73" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="I73" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3477,56 +3510,53 @@
         <v>89</v>
       </c>
       <c r="F74" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G74" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="I74" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
         <v>90</v>
       </c>
       <c r="F75" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G75" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="I75" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
         <v>91</v>
       </c>
       <c r="F76" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G76" t="s">
-        <v>316</v>
-      </c>
-      <c r="H76" t="s">
-        <v>450</v>
+        <v>325</v>
       </c>
       <c r="I76" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3540,13 +3570,13 @@
         <v>92</v>
       </c>
       <c r="F77" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G77" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="I77" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3560,13 +3590,13 @@
         <v>93</v>
       </c>
       <c r="F78" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="G78" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="I78" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3580,53 +3610,59 @@
         <v>94</v>
       </c>
       <c r="F79" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G79" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="I79" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
         <v>95</v>
       </c>
+      <c r="D80" t="s">
+        <v>232</v>
+      </c>
       <c r="F80" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G80" t="s">
-        <v>320</v>
+        <v>329</v>
+      </c>
+      <c r="H80" t="s">
+        <v>460</v>
       </c>
       <c r="I80" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
         <v>96</v>
       </c>
       <c r="F81" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G81" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="I81" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3640,36 +3676,36 @@
         <v>97</v>
       </c>
       <c r="F82" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G82" t="s">
-        <v>322</v>
-      </c>
-      <c r="H82" t="s">
-        <v>451</v>
+        <v>331</v>
       </c>
       <c r="I82" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
         <v>98</v>
       </c>
       <c r="F83" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G83" t="s">
-        <v>323</v>
+        <v>332</v>
+      </c>
+      <c r="H83" t="s">
+        <v>461</v>
       </c>
       <c r="I83" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3683,13 +3719,13 @@
         <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G84" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="I84" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3703,16 +3739,13 @@
         <v>100</v>
       </c>
       <c r="F85" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G85" t="s">
-        <v>325</v>
-      </c>
-      <c r="H85" t="s">
-        <v>452</v>
+        <v>334</v>
       </c>
       <c r="I85" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3726,16 +3759,16 @@
         <v>101</v>
       </c>
       <c r="F86" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G86" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H86" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="I86" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3749,36 +3782,33 @@
         <v>102</v>
       </c>
       <c r="F87" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G87" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="I87" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
         <v>103</v>
       </c>
       <c r="F88" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G88" t="s">
-        <v>328</v>
-      </c>
-      <c r="H88" t="s">
-        <v>454</v>
+        <v>337</v>
       </c>
       <c r="I88" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3792,13 +3822,16 @@
         <v>104</v>
       </c>
       <c r="F89" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G89" t="s">
-        <v>329</v>
+        <v>338</v>
+      </c>
+      <c r="H89" t="s">
+        <v>463</v>
       </c>
       <c r="I89" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3812,13 +3845,13 @@
         <v>105</v>
       </c>
       <c r="F90" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G90" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="I90" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3832,36 +3865,36 @@
         <v>106</v>
       </c>
       <c r="F91" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G91" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="I91" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
         <v>107</v>
       </c>
       <c r="F92" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G92" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H92" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="I92" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3875,36 +3908,36 @@
         <v>108</v>
       </c>
       <c r="F93" t="s">
-        <v>242</v>
-      </c>
-      <c r="G93" t="s">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="H93" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="I93" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
         <v>109</v>
       </c>
       <c r="F94" t="s">
-        <v>242</v>
+        <v>251</v>
+      </c>
+      <c r="G94" t="s">
+        <v>342</v>
       </c>
       <c r="H94" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="I94" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3918,13 +3951,16 @@
         <v>110</v>
       </c>
       <c r="F95" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G95" t="s">
-        <v>334</v>
+        <v>343</v>
+      </c>
+      <c r="H95" t="s">
+        <v>467</v>
       </c>
       <c r="I95" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3938,16 +3974,16 @@
         <v>111</v>
       </c>
       <c r="F96" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G96" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="H96" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="I96" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3961,82 +3997,79 @@
         <v>112</v>
       </c>
       <c r="F97" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G97" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="H97" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="I97" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
         <v>113</v>
       </c>
       <c r="F98" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G98" t="s">
-        <v>337</v>
-      </c>
-      <c r="H98" t="s">
-        <v>460</v>
+        <v>346</v>
       </c>
       <c r="I98" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
         <v>114</v>
       </c>
       <c r="F99" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="G99" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="I99" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
         <v>115</v>
       </c>
       <c r="F100" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G100" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="H100" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="I100" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4050,33 +4083,42 @@
         <v>116</v>
       </c>
       <c r="F101" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G101" t="s">
-        <v>340</v>
+        <v>349</v>
+      </c>
+      <c r="H101" t="s">
+        <v>471</v>
       </c>
       <c r="I101" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C102" t="s">
         <v>117</v>
       </c>
+      <c r="D102" t="s">
+        <v>233</v>
+      </c>
       <c r="F102" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G102" t="s">
-        <v>341</v>
+        <v>350</v>
+      </c>
+      <c r="H102" t="s">
+        <v>472</v>
       </c>
       <c r="I102" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4090,13 +4132,13 @@
         <v>118</v>
       </c>
       <c r="F103" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G103" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="I103" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4110,39 +4152,36 @@
         <v>119</v>
       </c>
       <c r="F104" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G104" t="s">
-        <v>343</v>
-      </c>
-      <c r="H104" t="s">
-        <v>462</v>
+        <v>352</v>
       </c>
       <c r="I104" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
         <v>120</v>
       </c>
       <c r="F105" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G105" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="H105" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="I105" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4156,16 +4195,13 @@
         <v>121</v>
       </c>
       <c r="F106" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G106" t="s">
-        <v>345</v>
-      </c>
-      <c r="H106" t="s">
-        <v>464</v>
+        <v>354</v>
       </c>
       <c r="I106" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4179,16 +4215,16 @@
         <v>122</v>
       </c>
       <c r="F107" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G107" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H107" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="I107" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4202,154 +4238,154 @@
         <v>123</v>
       </c>
       <c r="F108" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G108" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H108" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="I108" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s">
         <v>124</v>
       </c>
       <c r="F109" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G109" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="H109" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="I109" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
         <v>125</v>
       </c>
       <c r="F110" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G110" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="H110" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="I110" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
         <v>126</v>
       </c>
       <c r="F111" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G111" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="H111" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="I111" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s">
         <v>127</v>
       </c>
       <c r="F112" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G112" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="H112" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="I112" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
         <v>128</v>
       </c>
       <c r="F113" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G113" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="H113" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="I113" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
         <v>129</v>
       </c>
       <c r="F114" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G114" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="H114" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="I114" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4363,56 +4399,62 @@
         <v>130</v>
       </c>
       <c r="F115" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G115" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H115" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="I115" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
         <v>131</v>
       </c>
       <c r="F116" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G116" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="H116" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="I116" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
         <v>132</v>
       </c>
       <c r="F117" t="s">
-        <v>245</v>
+        <v>254</v>
+      </c>
+      <c r="G117" t="s">
+        <v>365</v>
+      </c>
+      <c r="H117" t="s">
+        <v>484</v>
       </c>
       <c r="I117" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4426,16 +4468,13 @@
         <v>133</v>
       </c>
       <c r="F118" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G118" t="s">
-        <v>356</v>
-      </c>
-      <c r="H118" t="s">
-        <v>475</v>
+        <v>366</v>
       </c>
       <c r="I118" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4449,56 +4488,59 @@
         <v>134</v>
       </c>
       <c r="F119" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G119" t="s">
-        <v>357</v>
+        <v>367</v>
+      </c>
+      <c r="H119" t="s">
+        <v>485</v>
       </c>
       <c r="I119" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
         <v>135</v>
       </c>
       <c r="F120" t="s">
-        <v>245</v>
-      </c>
-      <c r="G120" t="s">
-        <v>358</v>
-      </c>
-      <c r="H120" t="s">
-        <v>476</v>
+        <v>254</v>
       </c>
       <c r="I120" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
         <v>136</v>
       </c>
+      <c r="D121" t="s">
+        <v>234</v>
+      </c>
       <c r="F121" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G121" t="s">
-        <v>359</v>
+        <v>368</v>
+      </c>
+      <c r="H121" t="s">
+        <v>486</v>
       </c>
       <c r="I121" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4512,56 +4554,56 @@
         <v>137</v>
       </c>
       <c r="F122" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G122" t="s">
-        <v>360</v>
+        <v>369</v>
+      </c>
+      <c r="H122" t="s">
+        <v>487</v>
       </c>
       <c r="I122" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
         <v>138</v>
       </c>
       <c r="F123" t="s">
-        <v>245</v>
+        <v>254</v>
+      </c>
+      <c r="G123" t="s">
+        <v>370</v>
       </c>
       <c r="H123" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="I123" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
         <v>139</v>
       </c>
       <c r="F124" t="s">
-        <v>245</v>
-      </c>
-      <c r="G124" t="s">
-        <v>361</v>
-      </c>
-      <c r="H124" t="s">
-        <v>478</v>
+        <v>254</v>
       </c>
       <c r="I124" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4575,16 +4617,13 @@
         <v>140</v>
       </c>
       <c r="F125" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G125" t="s">
-        <v>362</v>
-      </c>
-      <c r="H125" t="s">
-        <v>479</v>
+        <v>371</v>
       </c>
       <c r="I125" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4598,16 +4637,13 @@
         <v>141</v>
       </c>
       <c r="F126" t="s">
-        <v>245</v>
-      </c>
-      <c r="G126" t="s">
-        <v>363</v>
+        <v>254</v>
       </c>
       <c r="H126" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="I126" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4621,16 +4657,10 @@
         <v>142</v>
       </c>
       <c r="F127" t="s">
-        <v>245</v>
-      </c>
-      <c r="G127" t="s">
-        <v>364</v>
-      </c>
-      <c r="H127" t="s">
-        <v>481</v>
+        <v>254</v>
       </c>
       <c r="I127" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4644,39 +4674,36 @@
         <v>143</v>
       </c>
       <c r="F128" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G128" t="s">
-        <v>365</v>
-      </c>
-      <c r="H128" t="s">
-        <v>482</v>
+        <v>372</v>
       </c>
       <c r="I128" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
         <v>144</v>
       </c>
       <c r="F129" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G129" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H129" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="I129" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4690,13 +4717,13 @@
         <v>145</v>
       </c>
       <c r="F130" t="s">
-        <v>245</v>
-      </c>
-      <c r="G130" t="s">
-        <v>367</v>
+        <v>254</v>
+      </c>
+      <c r="H130" t="s">
+        <v>491</v>
       </c>
       <c r="I130" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4710,36 +4737,36 @@
         <v>146</v>
       </c>
       <c r="F131" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G131" t="s">
-        <v>368</v>
-      </c>
-      <c r="H131" t="s">
-        <v>484</v>
+        <v>374</v>
       </c>
       <c r="I131" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
         <v>147</v>
       </c>
       <c r="F132" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G132" t="s">
-        <v>369</v>
+        <v>375</v>
+      </c>
+      <c r="H132" t="s">
+        <v>492</v>
       </c>
       <c r="I132" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4753,16 +4780,13 @@
         <v>148</v>
       </c>
       <c r="F133" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G133" t="s">
-        <v>370</v>
-      </c>
-      <c r="H133" t="s">
-        <v>485</v>
+        <v>376</v>
       </c>
       <c r="I133" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4776,39 +4800,36 @@
         <v>149</v>
       </c>
       <c r="F134" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G134" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H134" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="I134" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
         <v>150</v>
       </c>
       <c r="F135" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G135" t="s">
-        <v>372</v>
-      </c>
-      <c r="H135" t="s">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="I135" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4822,10 +4843,16 @@
         <v>151</v>
       </c>
       <c r="F136" t="s">
-        <v>245</v>
+        <v>254</v>
+      </c>
+      <c r="G136" t="s">
+        <v>379</v>
+      </c>
+      <c r="H136" t="s">
+        <v>494</v>
       </c>
       <c r="I136" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4839,13 +4866,13 @@
         <v>152</v>
       </c>
       <c r="F137" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G137" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="I137" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4859,10 +4886,10 @@
         <v>153</v>
       </c>
       <c r="F138" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I138" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4876,13 +4903,16 @@
         <v>154</v>
       </c>
       <c r="F139" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G139" t="s">
-        <v>374</v>
+        <v>381</v>
+      </c>
+      <c r="H139" t="s">
+        <v>495</v>
       </c>
       <c r="I139" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4896,16 +4926,13 @@
         <v>155</v>
       </c>
       <c r="F140" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G140" t="s">
-        <v>375</v>
-      </c>
-      <c r="H140" t="s">
-        <v>488</v>
+        <v>382</v>
       </c>
       <c r="I140" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4919,13 +4946,16 @@
         <v>156</v>
       </c>
       <c r="F141" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G141" t="s">
-        <v>376</v>
+        <v>383</v>
+      </c>
+      <c r="H141" t="s">
+        <v>496</v>
       </c>
       <c r="I141" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4939,10 +4969,13 @@
         <v>157</v>
       </c>
       <c r="F142" t="s">
-        <v>245</v>
+        <v>254</v>
+      </c>
+      <c r="G142" t="s">
+        <v>384</v>
       </c>
       <c r="I142" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4956,16 +4989,16 @@
         <v>158</v>
       </c>
       <c r="F143" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G143" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="H143" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="I143" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4979,13 +5012,16 @@
         <v>159</v>
       </c>
       <c r="F144" t="s">
-        <v>245</v>
+        <v>254</v>
+      </c>
+      <c r="G144" t="s">
+        <v>386</v>
       </c>
       <c r="H144" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="I144" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4999,10 +5035,16 @@
         <v>160</v>
       </c>
       <c r="F145" t="s">
-        <v>245</v>
+        <v>254</v>
+      </c>
+      <c r="G145" t="s">
+        <v>387</v>
+      </c>
+      <c r="H145" t="s">
+        <v>499</v>
       </c>
       <c r="I145" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5016,13 +5058,10 @@
         <v>161</v>
       </c>
       <c r="F146" t="s">
-        <v>245</v>
-      </c>
-      <c r="G146" t="s">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="I146" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5036,36 +5075,36 @@
         <v>162</v>
       </c>
       <c r="F147" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G147" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H147" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="I147" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
         <v>163</v>
       </c>
       <c r="F148" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G148" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="I148" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5079,16 +5118,13 @@
         <v>164</v>
       </c>
       <c r="F149" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G149" t="s">
-        <v>381</v>
-      </c>
-      <c r="H149" t="s">
-        <v>492</v>
+        <v>390</v>
       </c>
       <c r="I149" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5102,36 +5138,36 @@
         <v>165</v>
       </c>
       <c r="F150" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G150" t="s">
-        <v>382</v>
+        <v>391</v>
+      </c>
+      <c r="H150" t="s">
+        <v>501</v>
       </c>
       <c r="I150" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C151" t="s">
         <v>166</v>
       </c>
       <c r="F151" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G151" t="s">
-        <v>383</v>
-      </c>
-      <c r="H151" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="I151" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5145,13 +5181,16 @@
         <v>167</v>
       </c>
       <c r="F152" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G152" t="s">
-        <v>384</v>
+        <v>393</v>
+      </c>
+      <c r="H152" t="s">
+        <v>502</v>
       </c>
       <c r="I152" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5165,13 +5204,16 @@
         <v>168</v>
       </c>
       <c r="F153" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G153" t="s">
-        <v>385</v>
+        <v>394</v>
+      </c>
+      <c r="H153" t="s">
+        <v>503</v>
       </c>
       <c r="I153" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5185,36 +5227,39 @@
         <v>169</v>
       </c>
       <c r="F154" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G154" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="H154" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="I154" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C155" t="s">
         <v>170</v>
       </c>
       <c r="F155" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G155" t="s">
-        <v>387</v>
+        <v>396</v>
+      </c>
+      <c r="H155" t="s">
+        <v>505</v>
       </c>
       <c r="I155" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5228,62 +5273,56 @@
         <v>171</v>
       </c>
       <c r="F156" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G156" t="s">
-        <v>388</v>
-      </c>
-      <c r="H156" t="s">
-        <v>495</v>
+        <v>397</v>
       </c>
       <c r="I156" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
         <v>172</v>
       </c>
       <c r="F157" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G157" t="s">
-        <v>389</v>
-      </c>
-      <c r="H157" t="s">
-        <v>496</v>
+        <v>398</v>
       </c>
       <c r="I157" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
         <v>173</v>
       </c>
       <c r="F158" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G158" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="H158" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="I158" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5297,16 +5336,13 @@
         <v>174</v>
       </c>
       <c r="F159" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G159" t="s">
-        <v>391</v>
-      </c>
-      <c r="H159" t="s">
-        <v>498</v>
+        <v>400</v>
       </c>
       <c r="I159" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5320,16 +5356,16 @@
         <v>175</v>
       </c>
       <c r="F160" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G160" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="H160" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="I160" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5343,16 +5379,16 @@
         <v>176</v>
       </c>
       <c r="F161" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G161" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="H161" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="I161" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5366,36 +5402,36 @@
         <v>177</v>
       </c>
       <c r="F162" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G162" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="I162" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C163" t="s">
         <v>178</v>
       </c>
       <c r="F163" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G163" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="H163" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="I163" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5409,13 +5445,10 @@
         <v>179</v>
       </c>
       <c r="F164" t="s">
-        <v>246</v>
-      </c>
-      <c r="G164" t="s">
-        <v>396</v>
+        <v>255</v>
       </c>
       <c r="I164" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5429,13 +5462,16 @@
         <v>180</v>
       </c>
       <c r="F165" t="s">
-        <v>246</v>
+        <v>255</v>
+      </c>
+      <c r="G165" t="s">
+        <v>405</v>
       </c>
       <c r="H165" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="I165" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5449,16 +5485,13 @@
         <v>181</v>
       </c>
       <c r="F166" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G166" t="s">
-        <v>397</v>
-      </c>
-      <c r="H166" t="s">
-        <v>503</v>
+        <v>406</v>
       </c>
       <c r="I166" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5472,39 +5505,36 @@
         <v>182</v>
       </c>
       <c r="F167" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G167" t="s">
-        <v>398</v>
-      </c>
-      <c r="H167" t="s">
-        <v>504</v>
+        <v>407</v>
       </c>
       <c r="I167" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
         <v>183</v>
       </c>
       <c r="F168" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G168" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="H168" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="I168" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5518,10 +5548,13 @@
         <v>184</v>
       </c>
       <c r="F169" t="s">
-        <v>246</v>
+        <v>255</v>
+      </c>
+      <c r="G169" t="s">
+        <v>409</v>
       </c>
       <c r="I169" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5535,16 +5568,16 @@
         <v>185</v>
       </c>
       <c r="F170" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G170" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="H170" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="I170" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5557,14 +5590,20 @@
       <c r="C171" t="s">
         <v>186</v>
       </c>
+      <c r="D171" t="s">
+        <v>235</v>
+      </c>
       <c r="F171" t="s">
-        <v>246</v>
+        <v>255</v>
+      </c>
+      <c r="G171" t="s">
+        <v>411</v>
       </c>
       <c r="H171" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I171" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5578,10 +5617,13 @@
         <v>187</v>
       </c>
       <c r="F172" t="s">
-        <v>246</v>
+        <v>255</v>
+      </c>
+      <c r="G172" t="s">
+        <v>412</v>
       </c>
       <c r="I172" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5595,16 +5637,16 @@
         <v>188</v>
       </c>
       <c r="F173" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G173" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="H173" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="I173" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -5618,16 +5660,16 @@
         <v>189</v>
       </c>
       <c r="F174" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G174" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="H174" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="I174" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5641,13 +5683,16 @@
         <v>190</v>
       </c>
       <c r="F175" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G175" t="s">
-        <v>403</v>
+        <v>415</v>
+      </c>
+      <c r="H175" t="s">
+        <v>516</v>
       </c>
       <c r="I175" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -5661,36 +5706,42 @@
         <v>191</v>
       </c>
       <c r="F176" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G176" t="s">
-        <v>404</v>
+        <v>416</v>
+      </c>
+      <c r="H176" t="s">
+        <v>517</v>
       </c>
       <c r="I176" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C177" t="s">
         <v>192</v>
       </c>
+      <c r="D177" t="s">
+        <v>236</v>
+      </c>
       <c r="F177" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G177" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="H177" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="I177" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5704,13 +5755,13 @@
         <v>193</v>
       </c>
       <c r="F178" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G178" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="I178" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5723,17 +5774,20 @@
       <c r="C179" t="s">
         <v>194</v>
       </c>
+      <c r="D179" t="s">
+        <v>237</v>
+      </c>
       <c r="F179" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G179" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="H179" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="I179" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -5747,16 +5801,13 @@
         <v>195</v>
       </c>
       <c r="F180" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G180" t="s">
-        <v>408</v>
-      </c>
-      <c r="H180" t="s">
-        <v>512</v>
+        <v>420</v>
       </c>
       <c r="I180" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5770,16 +5821,13 @@
         <v>196</v>
       </c>
       <c r="F181" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G181" t="s">
-        <v>409</v>
-      </c>
-      <c r="H181" t="s">
-        <v>513</v>
+        <v>421</v>
       </c>
       <c r="I181" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -5793,13 +5841,13 @@
         <v>197</v>
       </c>
       <c r="F182" t="s">
-        <v>246</v>
-      </c>
-      <c r="G182" t="s">
-        <v>410</v>
+        <v>255</v>
+      </c>
+      <c r="H182" t="s">
+        <v>520</v>
       </c>
       <c r="I182" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -5813,13 +5861,13 @@
         <v>198</v>
       </c>
       <c r="F183" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G183" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="I183" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -5833,39 +5881,30 @@
         <v>199</v>
       </c>
       <c r="F184" t="s">
-        <v>246</v>
-      </c>
-      <c r="G184" t="s">
-        <v>412</v>
-      </c>
-      <c r="H184" t="s">
-        <v>514</v>
+        <v>255</v>
       </c>
       <c r="I184" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C185" t="s">
         <v>200</v>
       </c>
       <c r="F185" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G185" t="s">
-        <v>413</v>
-      </c>
-      <c r="H185" t="s">
-        <v>515</v>
+        <v>423</v>
       </c>
       <c r="I185" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -5879,16 +5918,13 @@
         <v>201</v>
       </c>
       <c r="F186" t="s">
-        <v>246</v>
-      </c>
-      <c r="G186" t="s">
-        <v>414</v>
+        <v>255</v>
       </c>
       <c r="H186" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="I186" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -5902,13 +5938,13 @@
         <v>202</v>
       </c>
       <c r="F187" t="s">
-        <v>246</v>
-      </c>
-      <c r="G187" t="s">
-        <v>415</v>
+        <v>255</v>
+      </c>
+      <c r="H187" t="s">
+        <v>522</v>
       </c>
       <c r="I187" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -5922,33 +5958,33 @@
         <v>203</v>
       </c>
       <c r="F188" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G188" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="I188" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s">
         <v>204</v>
       </c>
       <c r="F189" t="s">
-        <v>246</v>
-      </c>
-      <c r="H189" t="s">
-        <v>517</v>
+        <v>255</v>
+      </c>
+      <c r="G189" t="s">
+        <v>425</v>
       </c>
       <c r="I189" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -5962,13 +5998,16 @@
         <v>205</v>
       </c>
       <c r="F190" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G190" t="s">
-        <v>417</v>
+        <v>426</v>
+      </c>
+      <c r="H190" t="s">
+        <v>523</v>
       </c>
       <c r="I190" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -5982,36 +6021,39 @@
         <v>206</v>
       </c>
       <c r="F191" t="s">
-        <v>246</v>
+        <v>255</v>
+      </c>
+      <c r="G191" t="s">
+        <v>427</v>
       </c>
       <c r="H191" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="I191" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C192" t="s">
         <v>207</v>
       </c>
       <c r="F192" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G192" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="H192" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="I192" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6025,36 +6067,36 @@
         <v>208</v>
       </c>
       <c r="F193" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G193" t="s">
-        <v>419</v>
-      </c>
-      <c r="H193" t="s">
-        <v>520</v>
+        <v>429</v>
       </c>
       <c r="I193" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C194" t="s">
         <v>209</v>
       </c>
+      <c r="D194" t="s">
+        <v>238</v>
+      </c>
       <c r="F194" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G194" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="H194" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="I194" t="s">
         <v>535</v>
@@ -6071,96 +6113,102 @@
         <v>210</v>
       </c>
       <c r="F195" t="s">
-        <v>246</v>
-      </c>
-      <c r="G195" t="s">
-        <v>421</v>
+        <v>255</v>
+      </c>
+      <c r="H195" t="s">
+        <v>527</v>
       </c>
       <c r="I195" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C196" t="s">
         <v>211</v>
       </c>
       <c r="F196" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G196" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="H196" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="I196" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C197" t="s">
         <v>212</v>
       </c>
       <c r="F197" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G197" t="s">
-        <v>423</v>
+        <v>432</v>
+      </c>
+      <c r="H197" t="s">
+        <v>529</v>
       </c>
       <c r="I197" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C198" t="s">
         <v>213</v>
       </c>
       <c r="F198" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G198" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="I198" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C199" t="s">
         <v>214</v>
       </c>
       <c r="F199" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G199" t="s">
-        <v>425</v>
+        <v>434</v>
+      </c>
+      <c r="H199" t="s">
+        <v>530</v>
       </c>
       <c r="I199" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6173,14 +6221,20 @@
       <c r="C200" t="s">
         <v>215</v>
       </c>
+      <c r="D200" t="s">
+        <v>239</v>
+      </c>
       <c r="F200" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G200" t="s">
-        <v>426</v>
+        <v>435</v>
+      </c>
+      <c r="H200" t="s">
+        <v>531</v>
       </c>
       <c r="I200" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6194,16 +6248,16 @@
         <v>216</v>
       </c>
       <c r="F201" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G201" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="H201" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="I201" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6217,50 +6271,50 @@
         <v>217</v>
       </c>
       <c r="F202" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G202" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="H202" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="I202" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C203" t="s">
         <v>218</v>
       </c>
       <c r="G203" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="I203" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
         <v>219</v>
       </c>
       <c r="G204" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="I204" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6274,27 +6328,27 @@
         <v>220</v>
       </c>
       <c r="G205" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="I205" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C206" t="s">
         <v>221</v>
       </c>
       <c r="G206" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="I206" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -6308,27 +6362,27 @@
         <v>222</v>
       </c>
       <c r="G207" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="I207" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C208" t="s">
         <v>223</v>
       </c>
       <c r="G208" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="I208" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -6342,27 +6396,30 @@
         <v>224</v>
       </c>
       <c r="G209" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="I209" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C210" t="s">
         <v>225</v>
       </c>
       <c r="G210" t="s">
-        <v>436</v>
+        <v>445</v>
+      </c>
+      <c r="H210" t="s">
+        <v>534</v>
       </c>
       <c r="I210" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -6376,64 +6433,61 @@
         <v>226</v>
       </c>
       <c r="G211" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="I211" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C212" t="s">
         <v>227</v>
       </c>
       <c r="G212" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="I212" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C213" t="s">
         <v>228</v>
       </c>
       <c r="G213" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="I213" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B214" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C214" t="s">
         <v>229</v>
       </c>
       <c r="G214" t="s">
-        <v>440</v>
-      </c>
-      <c r="H214" t="s">
-        <v>525</v>
+        <v>449</v>
       </c>
       <c r="I214" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
